--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16300" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16600" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="2031">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9179,6 +9179,9 @@
   </si>
   <si>
     <t>reference point for wetland condition - we could use the OHI west coast example of 50% of historical wetland extent or just % loss</t>
+  </si>
+  <si>
+    <t>removed carbon storage goal - Hawaii Island got a bad score unfairly if it was included - a small amount of wetland/saltmarsh area and it was lost</t>
   </si>
 </sst>
 </file>
@@ -9969,7 +9972,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -9982,6 +9985,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11361,7 +11365,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="60">
     <cellStyle name="Bold text" xfId="1"/>
     <cellStyle name="Col header" xfId="2"/>
     <cellStyle name="Date" xfId="3"/>
@@ -11413,6 +11417,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Money" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13091,7 +13096,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
@@ -14330,8 +14335,25 @@
       </c>
     </row>
     <row r="112" spans="1:4">
+      <c r="A112" s="140">
+        <v>42978</v>
+      </c>
+      <c r="B112" t="s">
+        <v>725</v>
+      </c>
       <c r="C112" s="28" t="s">
         <v>2029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30">
+      <c r="A113" s="140">
+        <v>42978</v>
+      </c>
+      <c r="B113" t="s">
+        <v>725</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>2030</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16600" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16560" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4087" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="2033">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9182,6 +9182,12 @@
   </si>
   <si>
     <t>removed carbon storage goal - Hawaii Island got a bad score unfairly if it was included - a small amount of wetland/saltmarsh area and it was lost</t>
+  </si>
+  <si>
+    <t>remove extent as weight on final scores - this reduced the scores to just an average of the condition s of each habitat  - should be set a reference for wetland health at 50% of historical wetlands intact? This would raise the scores a bit.</t>
+  </si>
+  <si>
+    <t>fishpond helath information is needed if we are not including extent data in this assessment</t>
   </si>
 </sst>
 </file>
@@ -13096,10 +13102,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14345,7 +14351,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30">
+    <row r="113" spans="1:4" ht="30">
       <c r="A113" s="140">
         <v>42978</v>
       </c>
@@ -14354,6 +14360,20 @@
       </c>
       <c r="C113" s="28" t="s">
         <v>2030</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30">
+      <c r="A114" s="140">
+        <v>42979</v>
+      </c>
+      <c r="B114" t="s">
+        <v>731</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2032</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16560" firstSheet="7" activeTab="10"/>
+    <workbookView minimized="1" xWindow="860" yWindow="0" windowWidth="25600" windowHeight="16700" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -9978,7 +9978,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -9991,6 +9991,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11371,7 +11373,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="62">
     <cellStyle name="Bold text" xfId="1"/>
     <cellStyle name="Col header" xfId="2"/>
     <cellStyle name="Date" xfId="3"/>
@@ -11424,6 +11426,8 @@
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Money" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13104,8 +13108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14398,9 +14402,9 @@
   </sheetPr>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37620" yWindow="-2100" windowWidth="25600" windowHeight="16700" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="-34540" yWindow="-1940" windowWidth="25600" windowHeight="16700" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Sheet3" sheetId="22" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">Data_Layers!$A$1:$K$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">Data_Layers!$A$1:$K$96</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="2048">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -7660,9 +7660,6 @@
     <t>Conservation districts area within 1km of the coastline</t>
   </si>
   <si>
-    <t>should think about removing longline area from hd layer since hd can still take place here</t>
-  </si>
-  <si>
     <t>historical sites</t>
   </si>
   <si>
@@ -7870,9 +7867,6 @@
     <t>habitat health</t>
   </si>
   <si>
-    <t>goal scores</t>
-  </si>
-  <si>
     <t>res_hab_health</t>
   </si>
   <si>
@@ -7954,9 +7948,6 @@
     <t>ao_resource_mhi2017</t>
   </si>
   <si>
-    <t>Fish biomass compared to pristine fish biomass</t>
-  </si>
-  <si>
     <t>NOAA CREP Williams et al 2012</t>
   </si>
   <si>
@@ -8281,9 +8272,6 @@
     <t>hd_tourrec_direct_h_mhi2017.csv</t>
   </si>
   <si>
-    <t>InVEST recreation model was run statewide at 1 km resolution for the years 2005 ? 2014. This model uses publicly visible geotagged photos posted to the photo-sharing website Flickr to calculate the annual average number of photo users per day per grid cell</t>
-  </si>
-  <si>
     <t>forest_health_mhi2017.csv</t>
   </si>
   <si>
@@ -8428,15 +8416,6 @@
     <t>Marine species condition (same calculation and data as the species subgoal status score)  calculated within 3 nm of shoreline as a proxy for ecological integrity</t>
   </si>
   <si>
-    <t>species_diversity_eez</t>
-  </si>
-  <si>
-    <t>species_diversity_eez_gl2016.csv</t>
-  </si>
-  <si>
-    <t>Marine species condition (species subgoal status score) as a proxy for ecological integrity</t>
-  </si>
-  <si>
     <t>wgi_all</t>
   </si>
   <si>
@@ -8581,9 +8560,6 @@
     <t>measure of coastal ecological integrity</t>
   </si>
   <si>
-    <t>measure of ecological integrity</t>
-  </si>
-  <si>
     <t>strength of governance</t>
   </si>
   <si>
@@ -8825,9 +8801,6 @@
   </si>
   <si>
     <t>global OHI (http://www.oceanhealthindex.org/methodology/components)</t>
-  </si>
-  <si>
-    <t>Shoreline access points per mile of coastline</t>
   </si>
   <si>
     <t>incorporated into hab_health</t>
@@ -9230,6 +9203,45 @@
   </si>
   <si>
     <t>used median stock values by family then by fishery to gap fill. Scores for fishery are inflated though using this approach since the median scores are around 1 or a perfect score. We know that reef fisheries are not doing well, need to represent this in the scores somehow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used mean sus scores for family to calculate scores. Status is in mid 80s </t>
+  </si>
+  <si>
+    <t>9/25/17</t>
+  </si>
+  <si>
+    <t>NOAA working group on water quality. DOH and state water quality data not available at statewide coherent and comprehensive layer. OTP is the best we have but is not changing in time.  Use only for pressure layer. USGS has a good data set (26 data sites around the state) suspendid sediment data, only have 6-10 sites right now, most around Oahu.  CWRM data data will be available soon, on surface discharge (commission on water resource management- in stream flow standards) - water flow and quanity focused). Enterococcus is the indicator to focus on - if we use this indicator it relates to people and policy and is the most clear to public. But need to make a clear link to coral reefs for NOAA report card - this is the purpose. Tom Oliver working on a paper that shows direct link between OSDS and coral bleaching. NOAA has statewide microbial data - can we link them to tell a story</t>
+  </si>
+  <si>
+    <t>turbidity and enterocuss taken at the same time - Point of contact at DOH - integrated report due in Nov 2017 for integrated report for 2018 (Mirin Honda DOH), tier 1 and 2 sites - depends on how many people use the beach</t>
+  </si>
+  <si>
+    <t>microbialization score - relates to water quality</t>
+  </si>
+  <si>
+    <t>2016 NOAA CREMP sites - got nutirent data during survey - snap- shot nutrient indicator?</t>
+  </si>
+  <si>
+    <t>goal scores (LSP)</t>
+  </si>
+  <si>
+    <t>goal scores (HAB)</t>
+  </si>
+  <si>
+    <t>should think about removing longline area from hd layer since habitat destruction can still take place here</t>
+  </si>
+  <si>
+    <t>InVEST recreation model was run statewide at 1 km resolution for the years 2005 - 2014. This model uses publicly visible geotagged photos posted to the photo-sharing website Flickr to calculate the annual average number of photo users per day per grid cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Access assessment for boat based and access assessment for land based fishing based on Joeyʻs fishing layer</t>
+  </si>
+  <si>
+    <t>Harvest fish biomass compared to pristine fish biomass</t>
+  </si>
+  <si>
+    <t>currently fish biomass - needs updating</t>
   </si>
 </sst>
 </file>
@@ -9627,6 +9639,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -10099,7 +10112,7 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="505">
+  <cellXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11489,6 +11502,9 @@
     <xf numFmtId="0" fontId="65" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Bold text" xfId="1"/>
@@ -12001,7 +12017,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="I5" s="344" t="s">
         <v>97</v>
@@ -12025,7 +12041,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="344" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="I6" s="344"/>
       <c r="J6" s="344"/>
@@ -12303,7 +12319,7 @@
         <v>170</v>
       </c>
       <c r="H18" s="340" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="I18" s="347" t="s">
         <v>45</v>
@@ -12435,7 +12451,7 @@
         <v>263</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="I24" s="359" t="s">
         <v>423</v>
@@ -12551,7 +12567,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="359" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="I29" s="359" t="s">
         <v>420</v>
@@ -13195,18 +13211,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="256" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="256" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B25" s="286" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
   </sheetData>
@@ -13217,10 +13233,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14112,7 +14128,7 @@
         <v>720</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -14120,13 +14136,13 @@
         <v>42921</v>
       </c>
       <c r="B80" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C80" s="28" t="s">
         <v>1540</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="D80" t="s">
         <v>1541</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -14137,7 +14153,7 @@
         <v>690</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -14148,7 +14164,7 @@
         <v>749</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -14159,7 +14175,7 @@
         <v>749</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -14170,15 +14186,15 @@
         <v>749</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -14186,20 +14202,20 @@
         <v>42922</v>
       </c>
       <c r="B86" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C87" s="28" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C88" s="28" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -14210,7 +14226,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -14221,7 +14237,7 @@
         <v>690</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -14232,7 +14248,7 @@
         <v>1513</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -14243,7 +14259,7 @@
         <v>750</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -14251,10 +14267,10 @@
         <v>42933</v>
       </c>
       <c r="B93" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -14262,10 +14278,10 @@
         <v>42940</v>
       </c>
       <c r="B94" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -14273,10 +14289,10 @@
         <v>42940</v>
       </c>
       <c r="B95" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -14284,10 +14300,10 @@
         <v>42940</v>
       </c>
       <c r="B96" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -14298,7 +14314,7 @@
         <v>113</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -14306,10 +14322,10 @@
         <v>42941</v>
       </c>
       <c r="B98" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14317,10 +14333,10 @@
         <v>42961</v>
       </c>
       <c r="B99" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -14328,10 +14344,10 @@
         <v>42962</v>
       </c>
       <c r="B100" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14339,10 +14355,10 @@
         <v>42969</v>
       </c>
       <c r="B101" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="320" x14ac:dyDescent="0.2">
@@ -14353,10 +14369,10 @@
         <v>731</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -14367,7 +14383,7 @@
         <v>731</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>2018</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -14378,7 +14394,7 @@
         <v>749</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -14389,7 +14405,7 @@
         <v>172</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14400,7 +14416,7 @@
         <v>690</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -14411,7 +14427,7 @@
         <v>690</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>2023</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -14422,7 +14438,7 @@
         <v>750</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>2024</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -14430,7 +14446,7 @@
         <v>42977</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>2025</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14438,10 +14454,10 @@
         <v>42977</v>
       </c>
       <c r="B110" t="s">
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>2027</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14452,7 +14468,7 @@
         <v>725</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -14463,7 +14479,7 @@
         <v>725</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -14474,7 +14490,7 @@
         <v>725</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>2030</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14485,10 +14501,10 @@
         <v>731</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="D114" t="s">
-        <v>2032</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14499,7 +14515,7 @@
         <v>690</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>2041</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14510,7 +14526,7 @@
         <v>690</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>2042</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14521,7 +14537,62 @@
         <v>690</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>2043</v>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="140">
+        <v>43000</v>
+      </c>
+      <c r="B118" t="s">
+        <v>690</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B119" t="s">
+        <v>749</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A120" s="74" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B120" s="74" t="s">
+        <v>749</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="74" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B121" s="74" t="s">
+        <v>749</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="74" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>749</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -14539,11 +14610,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14566,7 +14637,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="297" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C1" s="298" t="s">
         <v>680</v>
@@ -14575,7 +14646,7 @@
         <v>1354</v>
       </c>
       <c r="E1" s="297" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="F1" s="298" t="s">
         <v>1349</v>
@@ -14596,38 +14667,38 @@
         <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="289" t="s">
         <v>720</v>
       </c>
       <c r="B2" s="289"/>
       <c r="C2" s="290" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2" s="289" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="F2" s="290" t="s">
-        <v>1911</v>
+        <v>2045</v>
       </c>
       <c r="G2" s="289" t="s">
         <v>1427</v>
       </c>
       <c r="H2" s="289"/>
       <c r="I2" s="289" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="J2" s="289" t="s">
         <v>1183</v>
       </c>
       <c r="K2" s="290" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -14636,16 +14707,16 @@
       </c>
       <c r="B3" s="289"/>
       <c r="C3" s="290" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D3" s="289" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E3" s="289" t="s">
         <v>1611</v>
       </c>
-      <c r="D3" s="289" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E3" s="289" t="s">
-        <v>1613</v>
-      </c>
       <c r="F3" s="290" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G3" s="289" t="s">
         <v>1427</v>
@@ -14660,7 +14731,7 @@
         <v>964</v>
       </c>
       <c r="K3" s="291" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -14669,16 +14740,16 @@
       </c>
       <c r="B4" s="289"/>
       <c r="C4" s="290" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D4" s="289" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E4" s="289" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F4" s="290" t="s">
         <v>1615</v>
-      </c>
-      <c r="D4" s="289" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E4" s="289" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F4" s="290" t="s">
-        <v>1617</v>
       </c>
       <c r="G4" s="289" t="s">
         <v>1427</v>
@@ -14693,7 +14764,7 @@
         <v>1183</v>
       </c>
       <c r="K4" s="291" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -14702,31 +14773,34 @@
       </c>
       <c r="B5" s="289"/>
       <c r="C5" s="290" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D5" s="289" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E5" s="289" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F5" s="290" t="s">
-        <v>1620</v>
+        <v>2046</v>
       </c>
       <c r="G5" s="289" t="s">
         <v>1427</v>
       </c>
       <c r="H5" s="289" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="I5" s="289" t="s">
         <v>1439</v>
       </c>
       <c r="J5" s="289" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="K5" s="292" t="s">
-        <v>1621</v>
+        <v>1618</v>
+      </c>
+      <c r="M5" s="505" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -14737,13 +14811,13 @@
         <v>751</v>
       </c>
       <c r="C6" s="290" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D6" s="289" t="s">
         <v>1437</v>
       </c>
       <c r="E6" s="289" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="F6" s="290" t="s">
         <v>1438</v>
@@ -14752,13 +14826,13 @@
         <v>1427</v>
       </c>
       <c r="H6" s="289" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="I6" s="289" t="s">
         <v>1439</v>
       </c>
       <c r="J6" s="289" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="K6" s="290" t="s">
         <v>1440</v>
@@ -14772,29 +14846,29 @@
         <v>751</v>
       </c>
       <c r="C7" s="290" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D7" s="289" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E7" s="289" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="F7" s="290" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="G7" s="289" t="s">
         <v>1427</v>
       </c>
       <c r="H7" s="289"/>
       <c r="I7" s="289" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="J7" s="289" t="s">
         <v>1217</v>
       </c>
       <c r="K7" s="290" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -14811,7 +14885,7 @@
         <v>1355</v>
       </c>
       <c r="E8" s="289" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="F8" s="290" t="s">
         <v>1356</v>
@@ -14838,16 +14912,16 @@
         <v>750</v>
       </c>
       <c r="C9" s="290" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D9" s="289" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="E9" s="289" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="F9" s="290" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
       <c r="G9" s="289" t="s">
         <v>1427</v>
@@ -14860,7 +14934,7 @@
       </c>
       <c r="J9" s="289"/>
       <c r="K9" s="290" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -14871,16 +14945,16 @@
         <v>750</v>
       </c>
       <c r="C10" s="290" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="D10" s="289" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="E10" s="289" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="F10" s="290" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="G10" s="289" t="s">
         <v>1427</v>
@@ -14889,7 +14963,7 @@
       <c r="I10" s="289"/>
       <c r="J10" s="289"/>
       <c r="K10" s="290" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -14909,7 +14983,7 @@
         <v>1393</v>
       </c>
       <c r="F11" s="290" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="G11" s="289"/>
       <c r="H11" s="289">
@@ -14920,7 +14994,7 @@
       </c>
       <c r="J11" s="289"/>
       <c r="K11" s="290" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -14960,29 +15034,29 @@
       </c>
       <c r="B13" s="289"/>
       <c r="C13" s="290" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="D13" s="289" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="E13" s="289" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="F13" s="290" t="s">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="G13" s="289" t="s">
         <v>1427</v>
       </c>
       <c r="H13" s="289" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="I13" s="289" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="J13" s="289"/>
       <c r="K13" s="290" t="s">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="323" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -14991,29 +15065,29 @@
       </c>
       <c r="B14" s="321"/>
       <c r="C14" s="322" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D14" s="321" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E14" s="321" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="F14" s="322" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="G14" s="321" t="s">
         <v>1427</v>
       </c>
       <c r="H14" s="321" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="I14" s="321" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="J14" s="321"/>
       <c r="K14" s="322" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -15022,29 +15096,29 @@
       </c>
       <c r="B15" s="289"/>
       <c r="C15" s="290" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D15" s="289" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E15" s="289" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="F15" s="290" t="s">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="G15" s="289" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="H15" s="289" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="I15" s="289" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="J15" s="289"/>
       <c r="K15" s="290" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -15053,16 +15127,16 @@
       </c>
       <c r="B16" s="289"/>
       <c r="C16" s="290" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="D16" s="289" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="E16" s="289" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="F16" s="290" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="G16" s="289" t="s">
         <v>1427</v>
@@ -15071,12 +15145,12 @@
       <c r="I16" s="289"/>
       <c r="J16" s="289"/>
       <c r="K16" s="290" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="289" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="B17" s="289"/>
       <c r="C17" s="290" t="s">
@@ -15089,7 +15163,7 @@
         <v>1358</v>
       </c>
       <c r="F17" s="290" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="G17" s="289" t="s">
         <v>1427</v>
@@ -15122,7 +15196,7 @@
         <v>1358</v>
       </c>
       <c r="F18" s="290" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="G18" s="289" t="s">
         <v>1427</v>
@@ -15142,16 +15216,16 @@
       </c>
       <c r="B19" s="289"/>
       <c r="C19" s="290" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="D19" s="289" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E19" s="289" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="F19" s="290" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="G19" s="289" t="s">
         <v>1427</v>
@@ -15160,27 +15234,27 @@
       <c r="I19" s="289"/>
       <c r="J19" s="289"/>
       <c r="K19" s="290" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B20" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C20" s="290" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D20" s="289" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E20" s="289" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F20" s="290" t="s">
         <v>1543</v>
-      </c>
-      <c r="D20" s="289" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E20" s="289" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F20" s="290" t="s">
-        <v>1544</v>
       </c>
       <c r="G20" s="289" t="s">
         <v>1427</v>
@@ -15198,22 +15272,22 @@
     </row>
     <row r="21" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B21" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C21" s="290" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D21" s="289" t="s">
         <v>1545</v>
       </c>
-      <c r="D21" s="289" t="s">
-        <v>1546</v>
-      </c>
       <c r="E21" s="289" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="F21" s="290" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G21" s="289" t="s">
         <v>1427</v>
@@ -15226,27 +15300,27 @@
       </c>
       <c r="J21" s="289"/>
       <c r="K21" s="290" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B22" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C22" s="290" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D22" s="289" t="s">
         <v>1549</v>
       </c>
-      <c r="D22" s="289" t="s">
-        <v>1550</v>
-      </c>
       <c r="E22" s="289" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="F22" s="290" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
       <c r="G22" s="289" t="s">
         <v>1427</v>
@@ -15257,12 +15331,12 @@
       </c>
       <c r="J22" s="289"/>
       <c r="K22" s="290" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B23" s="289" t="s">
         <v>714</v>
@@ -15295,7 +15369,7 @@
     </row>
     <row r="24" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B24" s="289" t="s">
         <v>714</v>
@@ -15328,7 +15402,7 @@
     </row>
     <row r="25" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B25" s="289" t="s">
         <v>714</v>
@@ -15337,10 +15411,10 @@
         <v>1480</v>
       </c>
       <c r="D25" s="289" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E25" s="289" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F25" s="290" t="s">
         <v>1481</v>
@@ -15361,7 +15435,7 @@
     </row>
     <row r="26" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="289" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="B26" s="289" t="s">
         <v>714</v>
@@ -15370,10 +15444,10 @@
         <v>1482</v>
       </c>
       <c r="D26" s="289" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E26" s="289" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F26" s="290" t="s">
         <v>1483</v>
@@ -15394,22 +15468,22 @@
     </row>
     <row r="27" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="289" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B27" s="289" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="C27" s="290" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="D27" s="289" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
       <c r="E27" s="289" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
       <c r="F27" s="290" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="G27" s="289" t="s">
         <v>1427</v>
@@ -15427,22 +15501,22 @@
     </row>
     <row r="28" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="289" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B28" s="289" t="s">
         <v>1274</v>
       </c>
       <c r="C28" s="290" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D28" s="289" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="E28" s="289" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="F28" s="290" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="G28" s="289" t="s">
         <v>1427</v>
@@ -15460,7 +15534,7 @@
     </row>
     <row r="29" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="289" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B29" s="293" t="s">
         <v>1274</v>
@@ -15472,7 +15546,7 @@
         <v>1425</v>
       </c>
       <c r="E29" s="293" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="F29" s="294" t="s">
         <v>1426</v>
@@ -15501,7 +15575,7 @@
     </row>
     <row r="30" spans="1:19" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="289" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B30" s="293" t="s">
         <v>1274</v>
@@ -15513,7 +15587,7 @@
         <v>1429</v>
       </c>
       <c r="E30" s="293" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="F30" s="294" t="s">
         <v>1430</v>
@@ -15542,19 +15616,19 @@
     </row>
     <row r="31" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="289" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B31" s="293" t="s">
         <v>1274</v>
       </c>
       <c r="C31" s="294" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="D31" s="293" t="s">
         <v>1432</v>
       </c>
       <c r="E31" s="293" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="F31" s="294" t="s">
         <v>1433</v>
@@ -15583,19 +15657,19 @@
     </row>
     <row r="32" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="289" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="B32" s="293" t="s">
         <v>1274</v>
       </c>
       <c r="C32" s="294" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="D32" s="293" t="s">
         <v>1434</v>
       </c>
       <c r="E32" s="293" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="F32" s="294" t="s">
         <v>1435</v>
@@ -15624,23 +15698,25 @@
     </row>
     <row r="33" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B33" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B33" s="289"/>
       <c r="C33" s="290" t="s">
         <v>1519</v>
       </c>
       <c r="D33" s="289" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E33" s="289" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
       <c r="F33" s="290" t="s">
         <v>1521</v>
       </c>
       <c r="G33" s="289" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="H33" s="289">
         <v>2011</v>
@@ -15655,20 +15731,22 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B34" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B34" s="289"/>
       <c r="C34" s="290" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D34" s="289" t="s">
         <v>1523</v>
       </c>
-      <c r="D34" s="289" t="s">
+      <c r="E34" s="289" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F34" s="290" t="s">
         <v>1524</v>
-      </c>
-      <c r="E34" s="289" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F34" s="290" t="s">
-        <v>1525</v>
       </c>
       <c r="G34" s="289" t="s">
         <v>1427</v>
@@ -15681,25 +15759,27 @@
       </c>
       <c r="J34" s="289"/>
       <c r="K34" s="290" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B35" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B35" s="289"/>
       <c r="C35" s="290" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="D35" s="289" t="s">
-        <v>1869</v>
+        <v>1861</v>
       </c>
       <c r="E35" s="289" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="F35" s="290" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="G35" s="289" t="s">
         <v>1427</v>
@@ -15708,7 +15788,7 @@
       <c r="I35" s="289"/>
       <c r="J35" s="289"/>
       <c r="K35" s="290" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="Y35">
         <v>4</v>
@@ -15719,20 +15799,22 @@
     </row>
     <row r="36" spans="1:26" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B36" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B36" s="289"/>
       <c r="C36" s="290" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
       <c r="D36" s="289" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="E36" s="289" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="F36" s="290" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="G36" s="289" t="s">
         <v>1427</v>
@@ -15743,7 +15825,7 @@
       </c>
       <c r="J36" s="289"/>
       <c r="K36" s="290" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="Y36" s="74">
         <v>4</v>
@@ -15754,20 +15836,22 @@
     </row>
     <row r="37" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B37" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B37" s="289"/>
       <c r="C37" s="290" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="D37" s="289" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="E37" s="289" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="F37" s="290" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="G37" s="289" t="s">
         <v>1427</v>
@@ -15778,7 +15862,7 @@
       </c>
       <c r="J37" s="289"/>
       <c r="K37" s="290" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="Y37">
         <v>4</v>
@@ -15789,20 +15873,22 @@
     </row>
     <row r="38" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B38" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B38" s="289"/>
       <c r="C38" s="290" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="D38" s="289" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
       <c r="E38" s="289" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="F38" s="290" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="G38" s="289" t="s">
         <v>1427</v>
@@ -15813,7 +15899,7 @@
       </c>
       <c r="J38" s="289"/>
       <c r="K38" s="290" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="Y38">
         <v>4</v>
@@ -15824,27 +15910,29 @@
     </row>
     <row r="39" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="289" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B39" s="289" t="s">
         <v>1513</v>
       </c>
-      <c r="B39" s="289"/>
       <c r="C39" s="290" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="D39" s="289" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="E39" s="289" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="F39" s="290" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="G39" s="289" t="s">
         <v>1427</v>
       </c>
       <c r="H39" s="289"/>
       <c r="I39" s="289" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="J39" s="289"/>
       <c r="K39" s="290"/>
@@ -15857,20 +15945,22 @@
     </row>
     <row r="40" spans="1:26" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="289" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B40" s="289"/>
+        <v>1498</v>
+      </c>
+      <c r="B40" s="289" t="s">
+        <v>731</v>
+      </c>
       <c r="C40" s="294" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="D40" s="289" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="E40" s="289" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="F40" s="290" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="G40" s="289"/>
       <c r="H40" s="289"/>
@@ -15879,25 +15969,27 @@
       </c>
       <c r="J40" s="289"/>
       <c r="K40" s="290" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="41" spans="1:26" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="289" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B41" s="289"/>
+        <v>1498</v>
+      </c>
+      <c r="B41" s="289" t="s">
+        <v>731</v>
+      </c>
       <c r="C41" s="294" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="D41" s="289" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="E41" s="289" t="s">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="F41" s="290" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="G41" s="289"/>
       <c r="H41" s="293">
@@ -15908,50 +16000,54 @@
       </c>
       <c r="J41" s="289"/>
       <c r="K41" s="294" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="42" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="289" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B42" s="289"/>
+        <v>1498</v>
+      </c>
+      <c r="B42" s="289" t="s">
+        <v>731</v>
+      </c>
       <c r="C42" s="294" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D42" s="289" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E42" s="289"/>
       <c r="F42" s="290" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="G42" s="289"/>
       <c r="H42" s="293"/>
       <c r="I42" s="293"/>
       <c r="J42" s="289" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="K42" s="294" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="43" spans="1:26" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="289" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B43" s="289"/>
+        <v>1498</v>
+      </c>
+      <c r="B43" s="289" t="s">
+        <v>731</v>
+      </c>
       <c r="C43" s="294" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D43" s="289" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E43" s="289" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F43" s="290" t="s">
         <v>1615</v>
-      </c>
-      <c r="D43" s="289" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E43" s="289" t="s">
-        <v>1901</v>
-      </c>
-      <c r="F43" s="290" t="s">
-        <v>1617</v>
       </c>
       <c r="G43" s="289" t="s">
         <v>1427</v>
@@ -15966,7 +16062,7 @@
         <v>1183</v>
       </c>
       <c r="K43" s="291" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="44" spans="1:26" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15987,7 +16083,7 @@
         <v>1464</v>
       </c>
       <c r="G44" s="289" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="H44" s="289">
         <v>2011</v>
@@ -16012,7 +16108,7 @@
         <v>1463</v>
       </c>
       <c r="E45" s="289" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="F45" s="290" t="s">
         <v>1465</v>
@@ -16043,10 +16139,10 @@
         <v>1462</v>
       </c>
       <c r="E46" s="289" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="F46" s="290" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="G46" s="289" t="s">
         <v>1427</v>
@@ -16071,13 +16167,13 @@
         <v>1121</v>
       </c>
       <c r="D47" s="289" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="E47" s="289" t="s">
         <v>1122</v>
       </c>
       <c r="F47" s="290" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="G47" s="289"/>
       <c r="H47" s="289">
@@ -16093,20 +16189,20 @@
     </row>
     <row r="48" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B48" s="289"/>
       <c r="C48" s="290" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D48" s="289" t="s">
         <v>1570</v>
       </c>
-      <c r="D48" s="289" t="s">
+      <c r="E48" s="289" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F48" s="290" t="s">
         <v>1571</v>
-      </c>
-      <c r="E48" s="289" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F48" s="290" t="s">
-        <v>1572</v>
       </c>
       <c r="G48" s="289" t="s">
         <v>133</v>
@@ -16117,25 +16213,25 @@
       </c>
       <c r="J48" s="289"/>
       <c r="K48" s="290" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B49" s="289"/>
       <c r="C49" s="290" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D49" s="289" t="s">
         <v>1573</v>
       </c>
-      <c r="D49" s="289" t="s">
+      <c r="E49" s="289" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F49" s="290" t="s">
         <v>1574</v>
-      </c>
-      <c r="E49" s="289" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F49" s="290" t="s">
-        <v>1575</v>
       </c>
       <c r="G49" s="289" t="s">
         <v>133</v>
@@ -16146,25 +16242,25 @@
       </c>
       <c r="J49" s="289"/>
       <c r="K49" s="290" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B50" s="289"/>
       <c r="C50" s="290" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D50" s="289" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E50" s="289" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="F50" s="290" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G50" s="289" t="s">
         <v>133</v>
@@ -16177,25 +16273,25 @@
       </c>
       <c r="J50" s="289"/>
       <c r="K50" s="290" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B51" s="289"/>
       <c r="C51" s="290" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D51" s="289" t="s">
         <v>1587</v>
       </c>
-      <c r="D51" s="289" t="s">
+      <c r="E51" s="289" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F51" s="290" t="s">
         <v>1588</v>
-      </c>
-      <c r="E51" s="289" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F51" s="290" t="s">
-        <v>1589</v>
       </c>
       <c r="G51" s="289" t="s">
         <v>133</v>
@@ -16208,25 +16304,25 @@
       </c>
       <c r="J51" s="289"/>
       <c r="K51" s="290" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B52" s="289"/>
       <c r="C52" s="290" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D52" s="289" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E52" s="289" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="F52" s="290" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="G52" s="289" t="s">
         <v>133</v>
@@ -16235,25 +16331,25 @@
       <c r="I52" s="289"/>
       <c r="J52" s="289"/>
       <c r="K52" s="290" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B53" s="289"/>
       <c r="C53" s="290" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D53" s="289" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="E53" s="289" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="F53" s="290" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="G53" s="289" t="s">
         <v>133</v>
@@ -16262,25 +16358,25 @@
       <c r="I53" s="289"/>
       <c r="J53" s="289"/>
       <c r="K53" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B54" s="289"/>
       <c r="C54" s="290" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D54" s="289" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E54" s="289" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="F54" s="290" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="G54" s="289" t="s">
         <v>133</v>
@@ -16289,25 +16385,25 @@
       <c r="I54" s="289"/>
       <c r="J54" s="289"/>
       <c r="K54" s="294" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B55" s="289"/>
       <c r="C55" s="290" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D55" s="289" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E55" s="289" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F55" s="290" t="s">
         <v>1691</v>
-      </c>
-      <c r="E55" s="289" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F55" s="290" t="s">
-        <v>1694</v>
       </c>
       <c r="G55" s="289" t="s">
         <v>133</v>
@@ -16316,25 +16412,25 @@
       <c r="I55" s="289"/>
       <c r="J55" s="289"/>
       <c r="K55" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B56" s="289"/>
       <c r="C56" s="290" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D56" s="289" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E56" s="289" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="F56" s="290" t="s">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="G56" s="289" t="s">
         <v>133</v>
@@ -16343,25 +16439,25 @@
       <c r="I56" s="289"/>
       <c r="J56" s="289"/>
       <c r="K56" s="294" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B57" s="289"/>
       <c r="C57" s="290" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="D57" s="289" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E57" s="289" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F57" s="294" t="s">
         <v>1697</v>
-      </c>
-      <c r="F57" s="294" t="s">
-        <v>1700</v>
       </c>
       <c r="G57" s="289" t="s">
         <v>133</v>
@@ -16370,25 +16466,25 @@
       <c r="I57" s="289"/>
       <c r="J57" s="289"/>
       <c r="K57" s="294" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B58" s="289"/>
       <c r="C58" s="290" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="D58" s="289" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E58" s="289" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="F58" s="290" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="G58" s="289" t="s">
         <v>133</v>
@@ -16397,25 +16493,25 @@
       <c r="I58" s="289"/>
       <c r="J58" s="289"/>
       <c r="K58" s="294" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B59" s="289"/>
       <c r="C59" s="290" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="D59" s="289" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E59" s="289" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="F59" s="290" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="G59" s="289" t="s">
         <v>133</v>
@@ -16424,25 +16520,25 @@
       <c r="I59" s="289"/>
       <c r="J59" s="289"/>
       <c r="K59" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B60" s="289"/>
       <c r="C60" s="290" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="D60" s="289" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E60" s="289" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="F60" s="290" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="G60" s="289" t="s">
         <v>133</v>
@@ -16451,25 +16547,25 @@
       <c r="I60" s="289"/>
       <c r="J60" s="289"/>
       <c r="K60" s="290" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B61" s="289"/>
       <c r="C61" s="290" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="D61" s="289" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E61" s="289" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="F61" s="290" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="G61" s="289" t="s">
         <v>133</v>
@@ -16478,25 +16574,25 @@
       <c r="I61" s="289"/>
       <c r="J61" s="289"/>
       <c r="K61" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B62" s="289"/>
       <c r="C62" s="290" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="D62" s="289" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E62" s="289" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="F62" s="290" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="G62" s="289" t="s">
         <v>133</v>
@@ -16505,25 +16601,25 @@
       <c r="I62" s="289"/>
       <c r="J62" s="289"/>
       <c r="K62" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B63" s="289"/>
       <c r="C63" s="290" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="D63" s="289" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E63" s="289" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="F63" s="290" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="G63" s="289" t="s">
         <v>133</v>
@@ -16532,25 +16628,25 @@
       <c r="I63" s="289"/>
       <c r="J63" s="289"/>
       <c r="K63" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B64" s="289"/>
       <c r="C64" s="290" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="D64" s="289" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E64" s="289" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="F64" s="290" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="G64" s="289" t="s">
         <v>133</v>
@@ -16559,25 +16655,25 @@
       <c r="I64" s="289"/>
       <c r="J64" s="289"/>
       <c r="K64" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B65" s="289"/>
       <c r="C65" s="290" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="D65" s="289" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E65" s="289" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="F65" s="290" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="G65" s="289" t="s">
         <v>133</v>
@@ -16586,25 +16682,25 @@
       <c r="I65" s="289"/>
       <c r="J65" s="289"/>
       <c r="K65" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B66" s="289"/>
       <c r="C66" s="290" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="D66" s="289" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E66" s="289" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F66" s="290" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="G66" s="289" t="s">
         <v>133</v>
@@ -16613,25 +16709,25 @@
       <c r="I66" s="289"/>
       <c r="J66" s="289"/>
       <c r="K66" s="290" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="74" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A67" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B67" s="289"/>
       <c r="C67" s="290" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="D67" s="289" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E67" s="289" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="F67" s="290" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="G67" s="289" t="s">
         <v>133</v>
@@ -16640,25 +16736,25 @@
       <c r="I67" s="289"/>
       <c r="J67" s="289"/>
       <c r="K67" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B68" s="289"/>
       <c r="C68" s="290" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="D68" s="289" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E68" s="289" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="F68" s="290" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="G68" s="289" t="s">
         <v>133</v>
@@ -16667,25 +16763,25 @@
       <c r="I68" s="289"/>
       <c r="J68" s="289"/>
       <c r="K68" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B69" s="289"/>
       <c r="C69" s="290" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="D69" s="289" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E69" s="289" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F69" s="290" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="G69" s="289" t="s">
         <v>133</v>
@@ -16694,25 +16790,25 @@
       <c r="I69" s="289"/>
       <c r="J69" s="289"/>
       <c r="K69" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B70" s="289"/>
       <c r="C70" s="290" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="D70" s="289" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E70" s="289" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="F70" s="290" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="G70" s="289" t="s">
         <v>133</v>
@@ -16721,25 +16817,25 @@
       <c r="I70" s="289"/>
       <c r="J70" s="289"/>
       <c r="K70" s="290" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B71" s="289"/>
       <c r="C71" s="290" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="D71" s="289" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E71" s="289" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="F71" s="290" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="G71" s="289" t="s">
         <v>133</v>
@@ -16748,25 +16844,25 @@
       <c r="I71" s="289"/>
       <c r="J71" s="289"/>
       <c r="K71" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B72" s="289"/>
       <c r="C72" s="290" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="D72" s="289" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E72" s="289" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="F72" s="290" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="G72" s="289" t="s">
         <v>133</v>
@@ -16775,25 +16871,25 @@
       <c r="I72" s="289"/>
       <c r="J72" s="289"/>
       <c r="K72" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="73" spans="1:19" s="74" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A73" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B73" s="289"/>
       <c r="C73" s="290" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="D73" s="289" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E73" s="289" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="F73" s="290" t="s">
-        <v>1729</v>
+        <v>2044</v>
       </c>
       <c r="G73" s="289" t="s">
         <v>133</v>
@@ -16802,26 +16898,26 @@
       <c r="I73" s="289"/>
       <c r="J73" s="289"/>
       <c r="K73" s="290" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
       <c r="S73" s="276"/>
     </row>
     <row r="74" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="289" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B74" s="289"/>
       <c r="C74" s="290" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="D74" s="289" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E74" s="289" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="F74" s="290" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="G74" s="289" t="s">
         <v>133</v>
@@ -16830,19 +16926,19 @@
       <c r="I74" s="289"/>
       <c r="J74" s="289"/>
       <c r="K74" s="290" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="75" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B75" s="289"/>
       <c r="C75" s="290" t="s">
         <v>1489</v>
       </c>
       <c r="D75" s="289" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E75" s="289" t="s">
         <v>1520</v>
@@ -16851,7 +16947,7 @@
         <v>1521</v>
       </c>
       <c r="G75" s="289" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="H75" s="289"/>
       <c r="I75" s="289">
@@ -16867,7 +16963,7 @@
     </row>
     <row r="76" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B76" s="289"/>
       <c r="C76" s="290" t="s">
@@ -16880,7 +16976,7 @@
         <v>1501</v>
       </c>
       <c r="F76" s="290" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="G76" s="289" t="s">
         <v>1505</v>
@@ -16889,12 +16985,12 @@
       <c r="I76" s="289"/>
       <c r="J76" s="289"/>
       <c r="K76" s="290" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="77" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B77" s="289"/>
       <c r="C77" s="290" t="s">
@@ -16923,7 +17019,7 @@
     </row>
     <row r="78" spans="1:19" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B78" s="289"/>
       <c r="C78" s="290" t="s">
@@ -16950,25 +17046,25 @@
         <v>1506</v>
       </c>
       <c r="L78" s="74" t="s">
-        <v>1522</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B79" s="289"/>
       <c r="C79" s="290" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D79" s="289" t="s">
         <v>1583</v>
       </c>
-      <c r="D79" s="289" t="s">
+      <c r="E79" s="289" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F79" s="290" t="s">
         <v>1584</v>
-      </c>
-      <c r="E79" s="289" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F79" s="290" t="s">
-        <v>1585</v>
       </c>
       <c r="G79" s="289" t="s">
         <v>1505</v>
@@ -16979,25 +17075,25 @@
       </c>
       <c r="J79" s="289"/>
       <c r="K79" s="290" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B80" s="289"/>
       <c r="C80" s="290" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D80" s="289" t="s">
         <v>1591</v>
       </c>
-      <c r="D80" s="289" t="s">
-        <v>1593</v>
-      </c>
       <c r="E80" s="289" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="F80" s="290" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="G80" s="289" t="s">
         <v>1505</v>
@@ -17006,25 +17102,25 @@
       <c r="I80" s="289"/>
       <c r="J80" s="289"/>
       <c r="K80" s="290" t="s">
-        <v>1592</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="81" spans="1:26" s="142" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B81" s="289"/>
       <c r="C81" s="290" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D81" s="289" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="E81" s="289" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="F81" s="290" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="G81" s="289" t="s">
         <v>1505</v>
@@ -17053,20 +17149,20 @@
     </row>
     <row r="82" spans="1:26" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B82" s="289"/>
       <c r="C82" s="290" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D82" s="289" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E82" s="289" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="F82" s="290" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="G82" s="289" t="s">
         <v>1505</v>
@@ -17075,25 +17171,25 @@
       <c r="I82" s="289"/>
       <c r="J82" s="289"/>
       <c r="K82" s="290" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="83" spans="1:26" s="74" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B83" s="289"/>
       <c r="C83" s="290" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="D83" s="289" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="E83" s="289" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="F83" s="290" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="G83" s="289" t="s">
         <v>1505</v>
@@ -17102,25 +17198,25 @@
       <c r="I83" s="289"/>
       <c r="J83" s="289"/>
       <c r="K83" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="84" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B84" s="289"/>
       <c r="C84" s="290" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="D84" s="289" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E84" s="289" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="F84" s="290" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="G84" s="289" t="s">
         <v>1505</v>
@@ -17129,25 +17225,25 @@
       <c r="I84" s="289"/>
       <c r="J84" s="289"/>
       <c r="K84" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="85" spans="1:26" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B85" s="289"/>
       <c r="C85" s="290" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="D85" s="289" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="E85" s="289" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="F85" s="290" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="G85" s="289" t="s">
         <v>1505</v>
@@ -17156,25 +17252,25 @@
       <c r="I85" s="289"/>
       <c r="J85" s="289"/>
       <c r="K85" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="86" spans="1:26" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B86" s="289"/>
       <c r="C86" s="290" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D86" s="289" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E86" s="289" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F86" s="290" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="G86" s="289" t="s">
         <v>1505</v>
@@ -17183,25 +17279,25 @@
       <c r="I86" s="289"/>
       <c r="J86" s="289"/>
       <c r="K86" s="290" t="s">
-        <v>1910</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="87" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B87" s="289"/>
       <c r="C87" s="290" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D87" s="289" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E87" s="289" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="F87" s="290" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="G87" s="289" t="s">
         <v>1505</v>
@@ -17210,86 +17306,86 @@
       <c r="I87" s="289"/>
       <c r="J87" s="289"/>
       <c r="K87" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="88" spans="1:26" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B88" s="289"/>
       <c r="C88" s="290" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="D88" s="289" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="E88" s="289" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="F88" s="290" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="G88" s="289"/>
       <c r="H88" s="289"/>
       <c r="I88" s="289"/>
       <c r="J88" s="289"/>
       <c r="K88" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="89" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B89" s="289"/>
       <c r="C89" s="290" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="D89" s="289" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="E89" s="289" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="F89" s="290" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="G89" s="289"/>
       <c r="H89" s="289"/>
       <c r="I89" s="289"/>
       <c r="J89" s="289"/>
       <c r="K89" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="90" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="295" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B90" s="295"/>
       <c r="C90" s="296" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="D90" s="295" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E90" s="295" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="F90" s="296" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="G90" s="295"/>
       <c r="H90" s="295"/>
       <c r="I90" s="295"/>
       <c r="J90" s="295"/>
       <c r="K90" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="L90" s="142"/>
       <c r="M90" s="142" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="N90" s="142"/>
       <c r="O90" s="142"/>
@@ -17307,127 +17403,135 @@
     </row>
     <row r="91" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B91" s="289"/>
       <c r="C91" s="290" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D91" s="289" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="E91" s="289" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="F91" s="290" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="G91" s="289"/>
       <c r="H91" s="289"/>
       <c r="I91" s="289"/>
       <c r="J91" s="289"/>
       <c r="K91" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="92" spans="1:26" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B92" s="289"/>
       <c r="C92" s="290" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="D92" s="289" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="E92" s="289" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="F92" s="290" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="G92" s="289"/>
       <c r="H92" s="289"/>
       <c r="I92" s="289"/>
       <c r="J92" s="289"/>
       <c r="K92" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B93" s="289"/>
       <c r="C93" s="290" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="D93" s="289" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="E93" s="289" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="F93" s="290" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="G93" s="289"/>
       <c r="H93" s="289"/>
       <c r="I93" s="289"/>
       <c r="J93" s="289"/>
       <c r="K93" s="290" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B94" s="289"/>
       <c r="C94" s="290" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="D94" s="289" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="E94" s="289" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="F94" s="290" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="G94" s="289"/>
       <c r="H94" s="289"/>
       <c r="I94" s="289"/>
       <c r="J94" s="289"/>
       <c r="K94" s="290" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+        <v>1902</v>
+      </c>
+      <c r="L94" s="74"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="74"/>
+      <c r="P94" s="74"/>
+      <c r="Q94" s="74"/>
+      <c r="R94" s="74"/>
+      <c r="S94" s="74"/>
+    </row>
+    <row r="95" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B95" s="289"/>
       <c r="C95" s="290" t="s">
-        <v>1830</v>
+        <v>1760</v>
       </c>
       <c r="D95" s="289" t="s">
-        <v>1781</v>
+        <v>1758</v>
       </c>
       <c r="E95" s="289" t="s">
-        <v>1782</v>
+        <v>1759</v>
       </c>
       <c r="F95" s="290" t="s">
-        <v>1783</v>
+        <v>1761</v>
       </c>
       <c r="G95" s="289"/>
       <c r="H95" s="289"/>
       <c r="I95" s="289"/>
       <c r="J95" s="289"/>
       <c r="K95" s="290" t="s">
-        <v>1910</v>
+        <v>1828</v>
       </c>
       <c r="L95" s="74"/>
       <c r="M95" s="74"/>
@@ -17440,27 +17544,27 @@
     </row>
     <row r="96" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="289" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="B96" s="289"/>
       <c r="C96" s="290" t="s">
-        <v>1764</v>
+        <v>1779</v>
       </c>
       <c r="D96" s="289" t="s">
-        <v>1762</v>
+        <v>1777</v>
       </c>
       <c r="E96" s="289" t="s">
-        <v>1763</v>
+        <v>1778</v>
       </c>
       <c r="F96" s="290" t="s">
-        <v>1765</v>
+        <v>1779</v>
       </c>
       <c r="G96" s="289"/>
       <c r="H96" s="289"/>
       <c r="I96" s="289"/>
       <c r="J96" s="289"/>
       <c r="K96" s="290" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="L96" s="74"/>
       <c r="M96" s="74"/>
@@ -17470,39 +17574,6 @@
       <c r="Q96" s="74"/>
       <c r="R96" s="74"/>
       <c r="S96" s="74"/>
-    </row>
-    <row r="97" spans="1:19" ht="64" x14ac:dyDescent="0.2">
-      <c r="A97" s="289" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B97" s="289"/>
-      <c r="C97" s="290" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D97" s="289" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E97" s="289" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F97" s="290" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G97" s="289"/>
-      <c r="H97" s="289"/>
-      <c r="I97" s="289"/>
-      <c r="J97" s="289"/>
-      <c r="K97" s="290" t="s">
-        <v>1837</v>
-      </c>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="74"/>
-      <c r="S97" s="74"/>
     </row>
   </sheetData>
   <sortState ref="A2:Z96">
@@ -17518,7 +17589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -17683,13 +17754,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B18" t="s">
         <v>1530</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1531</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -17697,10 +17768,10 @@
         <v>1338</v>
       </c>
       <c r="B19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C19" s="252" t="s">
         <v>1535</v>
-      </c>
-      <c r="C19" s="252" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -18466,7 +18537,7 @@
         <v>532</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18493,7 +18564,7 @@
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
       <c r="M31" s="75" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -18520,7 +18591,7 @@
       <c r="K32" s="395"/>
       <c r="L32" s="395"/>
       <c r="M32" s="75" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19198,7 +19269,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="450" t="s">
-        <v>2034</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -19214,7 +19285,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="405" t="s">
-        <v>2035</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19230,7 +19301,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="468" t="s">
-        <v>2033</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19250,7 +19321,7 @@
         <v>172</v>
       </c>
       <c r="B14" s="450" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19266,7 +19337,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="433" t="s">
-        <v>2037</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19286,7 +19357,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="326" t="s">
-        <v>2038</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19294,7 +19365,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="405" t="s">
-        <v>2039</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19334,7 +19405,7 @@
         <v>860</v>
       </c>
       <c r="B30" s="472" t="s">
-        <v>2040</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19490,7 +19561,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="281" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -19508,7 +19579,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="344" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -19742,7 +19813,7 @@
         <v>170</v>
       </c>
       <c r="H18" s="340" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -19854,7 +19925,7 @@
         <v>263</v>
       </c>
       <c r="H24" s="280" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -19952,7 +20023,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="359" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -20330,10 +20401,10 @@
         <v>806</v>
       </c>
       <c r="D2" s="493" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="E2" s="302" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20346,7 +20417,7 @@
       </c>
       <c r="D3" s="493"/>
       <c r="E3" s="494" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20366,13 +20437,13 @@
         <v>432</v>
       </c>
       <c r="C5" s="301" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="D5" s="303" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="E5" s="304" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -20384,7 +20455,7 @@
         <v>851</v>
       </c>
       <c r="D6" s="303" t="s">
-        <v>1930</v>
+        <v>1921</v>
       </c>
       <c r="E6" s="304"/>
     </row>
@@ -20397,7 +20468,7 @@
         <v>852</v>
       </c>
       <c r="D7" s="303" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="E7" s="305"/>
     </row>
@@ -20407,10 +20478,10 @@
         <v>167</v>
       </c>
       <c r="C8" s="301" t="s">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="D8" s="303" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="E8" s="305"/>
     </row>
@@ -20425,10 +20496,10 @@
         <v>39</v>
       </c>
       <c r="D9" s="307" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="E9" s="308" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -20440,10 +20511,10 @@
         <v>813</v>
       </c>
       <c r="D10" s="307" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="E10" s="309" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20457,10 +20528,10 @@
         <v>849</v>
       </c>
       <c r="D11" s="311" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="E11" s="312" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20472,23 +20543,23 @@
         <v>0</v>
       </c>
       <c r="D12" s="311" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="E12" s="313" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="496"/>
       <c r="B13" s="497"/>
       <c r="C13" s="310" t="s">
-        <v>1941</v>
+        <v>1932</v>
       </c>
       <c r="D13" s="311" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="313" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20500,7 +20571,7 @@
         <v>814</v>
       </c>
       <c r="D14" s="311" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="E14" s="314"/>
     </row>
@@ -20510,7 +20581,7 @@
         <v>1401</v>
       </c>
       <c r="C15" s="310" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="D15" s="311" t="s">
         <v>875</v>
@@ -20544,7 +20615,7 @@
         <v>884</v>
       </c>
       <c r="E17" s="317" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="52" x14ac:dyDescent="0.2">
@@ -20553,13 +20624,13 @@
         <v>787</v>
       </c>
       <c r="C18" s="315" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="D18" s="316" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="E18" s="318" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
@@ -20571,7 +20642,7 @@
         <v>856</v>
       </c>
       <c r="D19" s="316" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="E19" s="319"/>
     </row>
@@ -20600,13 +20671,13 @@
         <v>465</v>
       </c>
       <c r="C21" s="310" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="D21" s="311" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="E21" s="499" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -20628,7 +20699,7 @@
         <v>462</v>
       </c>
       <c r="C23" s="310" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="D23" s="311" t="s">
         <v>862</v>
@@ -20641,13 +20712,13 @@
         <v>285</v>
       </c>
       <c r="C24" s="310" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="D24" s="311" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="E24" s="313" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -20656,13 +20727,13 @@
         <v>286</v>
       </c>
       <c r="C25" s="310" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="D25" s="311" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="E25" s="313" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="65" x14ac:dyDescent="0.2">
@@ -20674,10 +20745,10 @@
         <v>857</v>
       </c>
       <c r="D26" s="311" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="E26" s="313" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -20686,10 +20757,10 @@
         <v>882</v>
       </c>
       <c r="C27" s="310" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="D27" s="311" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="E27" s="314"/>
     </row>
@@ -20699,10 +20770,10 @@
         <v>787</v>
       </c>
       <c r="C28" s="310" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="D28" s="311" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="E28" s="314"/>
     </row>
@@ -20715,7 +20786,7 @@
         <v>777</v>
       </c>
       <c r="D29" s="311" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="E29" s="314"/>
     </row>
@@ -20728,18 +20799,18 @@
         <v>778</v>
       </c>
       <c r="D30" s="311" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="E30" s="314"/>
     </row>
     <row r="31" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="496"/>
       <c r="B31" s="310" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="C31" s="310"/>
       <c r="D31" s="311" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="E31" s="314"/>
     </row>
@@ -20751,13 +20822,13 @@
         <v>546</v>
       </c>
       <c r="C32" s="501" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="D32" s="502" t="s">
         <v>1334</v>
       </c>
       <c r="E32" s="317" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20766,7 +20837,7 @@
       <c r="C33" s="501"/>
       <c r="D33" s="502"/>
       <c r="E33" s="318" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -20778,10 +20849,10 @@
         <v>173</v>
       </c>
       <c r="D34" s="316" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="E34" s="318" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -20790,13 +20861,13 @@
         <v>547</v>
       </c>
       <c r="C35" s="315" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="D35" s="316" t="s">
         <v>830</v>
       </c>
       <c r="E35" s="318" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -20830,7 +20901,7 @@
         <v>877</v>
       </c>
       <c r="E37" s="312" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -20839,7 +20910,7 @@
       <c r="C38" s="497"/>
       <c r="D38" s="503"/>
       <c r="E38" s="313" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -20848,7 +20919,7 @@
       <c r="C39" s="497"/>
       <c r="D39" s="503"/>
       <c r="E39" s="313" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -20857,7 +20928,7 @@
       <c r="C40" s="497"/>
       <c r="D40" s="503"/>
       <c r="E40" s="313" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -20866,7 +20937,7 @@
       <c r="C41" s="497"/>
       <c r="D41" s="503"/>
       <c r="E41" s="313" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -20875,7 +20946,7 @@
       <c r="C42" s="497"/>
       <c r="D42" s="503"/>
       <c r="E42" s="313" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -20884,7 +20955,7 @@
         <v>515</v>
       </c>
       <c r="C43" s="310" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="D43" s="311" t="s">
         <v>877</v>
@@ -20900,10 +20971,10 @@
         <v>678</v>
       </c>
       <c r="D44" s="311" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="E44" s="312" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20912,13 +20983,13 @@
         <v>509</v>
       </c>
       <c r="C45" s="310" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="D45" s="311" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="E45" s="313" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -20927,13 +20998,13 @@
         <v>839</v>
       </c>
       <c r="C46" s="310" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="D46" s="311" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E46" s="313" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -20947,10 +21018,10 @@
         <v>805</v>
       </c>
       <c r="D47" s="316" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="E47" s="317" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -20965,7 +21036,7 @@
         <v>874</v>
       </c>
       <c r="E48" s="318" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -20974,7 +21045,7 @@
       <c r="C49" s="501"/>
       <c r="D49" s="502"/>
       <c r="E49" s="318" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -20983,7 +21054,7 @@
       <c r="C50" s="501"/>
       <c r="D50" s="502"/>
       <c r="E50" s="318" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -20992,13 +21063,13 @@
         <v>502</v>
       </c>
       <c r="C51" s="315" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="D51" s="316" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="E51" s="318" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21015,13 +21086,13 @@
         <v>836</v>
       </c>
       <c r="E52" s="312" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="504"/>
       <c r="B53" s="310" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="C53" s="310" t="s">
         <v>847</v>
@@ -21030,7 +21101,7 @@
         <v>837</v>
       </c>
       <c r="E53" s="313" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21045,7 +21116,7 @@
         <v>837</v>
       </c>
       <c r="E54" s="313" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21069,26 +21140,26 @@
         <v>845</v>
       </c>
       <c r="C56" s="315" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="D56" s="316" t="s">
         <v>878</v>
       </c>
       <c r="E56" s="317" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="498"/>
       <c r="B57" s="501"/>
       <c r="C57" s="315" t="s">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="D57" s="316" t="s">
         <v>875</v>
       </c>
       <c r="E57" s="318" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21097,13 +21168,13 @@
         <v>834</v>
       </c>
       <c r="C58" s="315" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="D58" s="316" t="s">
         <v>875</v>
       </c>
       <c r="E58" s="318" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
@@ -24456,7 +24527,7 @@
         <v>501</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="G33" s="121" t="s">
         <v>86</v>
@@ -27597,10 +27668,10 @@
     </row>
     <row r="59" spans="1:27" s="189" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="E59" s="189" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="G59" s="209" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="H59" s="209"/>
       <c r="I59" s="210"/>
@@ -46163,7 +46234,7 @@
         <v>532</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -46190,7 +46261,7 @@
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
       <c r="M31" s="75" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -46217,7 +46288,7 @@
       <c r="K32" s="395"/>
       <c r="L32" s="395"/>
       <c r="M32" s="75" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="8780" windowWidth="27660" windowHeight="16700" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="1140" yWindow="1220" windowWidth="27660" windowHeight="16700" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="2085">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9344,6 +9344,15 @@
   </si>
   <si>
     <t>Need to add back in the economic multipliers - using Jacobsen et al 2014 and relating to Hawaii sectors</t>
+  </si>
+  <si>
+    <t>10/26/17</t>
+  </si>
+  <si>
+    <t>Adding in LE multipliers from DBEDT 2007 report from table 6.1 (http://files.hawaii.gov/dbedt/economic/reports/IO/2007_state_io_study.pdf). For tourism I averaged accomidation, eating and drinking, travel arrangement and reservation specialists, and scenic and supporting activities for transportation. For Living Resources sector I averaged commerical fisheries and aquaculture multipliers. Marine construction and marine ship and boat building were given a value of 1 because no multipliers were found for Hawaii.</t>
+  </si>
+  <si>
+    <t>Need to change LIV wage score - need to weight score by # of jobs in the sector to highlight the fact that many of the jobs are below median wage</t>
   </si>
 </sst>
 </file>
@@ -13341,10 +13350,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14712,6 +14721,28 @@
       </c>
       <c r="C123" s="28" t="s">
         <v>2081</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="74" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>2084</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1220" windowWidth="27660" windowHeight="16700" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-34600" yWindow="-2000" windowWidth="27660" windowHeight="16700" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Sheet3" sheetId="22" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">Data_Layers!$A$1:$K$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">Data_Layers!$A$1:$K$110</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="2085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="2093">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -7261,12 +7261,6 @@
     <t>NOAA C-CAP 2010/2011</t>
   </si>
   <si>
-    <t>BD,CP</t>
-  </si>
-  <si>
-    <t>beaches_extent</t>
-  </si>
-  <si>
     <t>conservation status</t>
   </si>
   <si>
@@ -8479,9 +8473,6 @@
     <t>strength of governance</t>
   </si>
   <si>
-    <t>McCoy and Williams in prep</t>
-  </si>
-  <si>
     <t>fis_sus_score_MHI2017</t>
   </si>
   <si>
@@ -8581,16 +8572,10 @@
     <t>lsp_mpa_3nm_mhi2017.csv</t>
   </si>
   <si>
-    <t>Offshore coastal protected areas</t>
-  </si>
-  <si>
     <t>lsp_mpa_nearshore</t>
   </si>
   <si>
     <t>lsp_mpa_nearshore_mhi2017.csv</t>
-  </si>
-  <si>
-    <t>Offshore area protected to 3nm</t>
   </si>
   <si>
     <t>lsp_coastal_conservation_mhi2017.csv</t>
@@ -9106,9 +9091,6 @@
     <t>Harvest fish biomass compared to pristine fish biomass</t>
   </si>
   <si>
-    <t>water column</t>
-  </si>
-  <si>
     <t>http://www.pacioos.hawaii.edu/projects/oceantippingpoints/#data</t>
   </si>
   <si>
@@ -9353,6 +9335,48 @@
   </si>
   <si>
     <t>Need to change LIV wage score - need to weight score by # of jobs in the sector to highlight the fact that many of the jobs are below median wage</t>
+  </si>
+  <si>
+    <t>fixed data for priotected priority watersheds/forests (t_env_sus) they were in proportion not percent</t>
+  </si>
+  <si>
+    <t>10/27/17</t>
+  </si>
+  <si>
+    <t>area within 1 km of the shore</t>
+  </si>
+  <si>
+    <t>offshore area protected to 3nm</t>
+  </si>
+  <si>
+    <t>offshore coastal protected areas</t>
+  </si>
+  <si>
+    <t>offshore area to 3nm</t>
+  </si>
+  <si>
+    <t>McCoy and Williams in review</t>
+  </si>
+  <si>
+    <t>Original Data Source</t>
+  </si>
+  <si>
+    <t>cp_hab_extent_mhi2017</t>
+  </si>
+  <si>
+    <t>cp_hab_extent_mhi2017.csv</t>
+  </si>
+  <si>
+    <t>hab_extent_mhi</t>
+  </si>
+  <si>
+    <t>hab_health_mhi</t>
+  </si>
+  <si>
+    <t>hab_extent_mhi2017.csv</t>
+  </si>
+  <si>
+    <t>hab_health_mhi2017.csv</t>
   </si>
 </sst>
 </file>
@@ -12134,7 +12158,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="I5" s="347" t="s">
         <v>97</v>
@@ -12158,7 +12182,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="347" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="I6" s="347"/>
       <c r="J6" s="347"/>
@@ -12436,7 +12460,7 @@
         <v>170</v>
       </c>
       <c r="H18" s="343" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="I18" s="350" t="s">
         <v>45</v>
@@ -12568,7 +12592,7 @@
         <v>263</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="I24" s="362" t="s">
         <v>423</v>
@@ -12684,7 +12708,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="362" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="I29" s="362" t="s">
         <v>420</v>
@@ -13309,37 +13333,37 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="256" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B22" s="256" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C22" s="263" t="s">
         <v>1394</v>
-      </c>
-      <c r="C22" s="263" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="256" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B23" s="256" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="256" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="256" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B25" s="286" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -13350,10 +13374,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13931,7 +13955,7 @@
         <v>751</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -13942,7 +13966,7 @@
         <v>750</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -13953,7 +13977,7 @@
         <v>1277</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -13964,7 +13988,7 @@
         <v>1277</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -13972,24 +13996,24 @@
         <v>42891</v>
       </c>
       <c r="B54" s="366" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="366"/>
       <c r="B55" s="366"/>
       <c r="C55" s="28" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="366"/>
       <c r="B56" s="366"/>
       <c r="C56" s="28" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="96" x14ac:dyDescent="0.2">
@@ -14000,7 +14024,7 @@
         <v>1228</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -14011,7 +14035,7 @@
         <v>731</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -14022,7 +14046,7 @@
         <v>113</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -14033,7 +14057,7 @@
         <v>1337</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -14044,7 +14068,7 @@
         <v>720</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -14055,7 +14079,7 @@
         <v>1273</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -14066,7 +14090,7 @@
         <v>751</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -14077,7 +14101,7 @@
         <v>1240</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14088,7 +14112,7 @@
         <v>750</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -14099,7 +14123,7 @@
         <v>750</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -14110,7 +14134,7 @@
         <v>750</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14121,10 +14145,10 @@
         <v>898</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D68" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -14135,7 +14159,7 @@
         <v>690</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14146,7 +14170,7 @@
         <v>714</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14157,10 +14181,10 @@
         <v>750</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D71" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14171,12 +14195,12 @@
         <v>750</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C73" s="28" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -14184,10 +14208,10 @@
         <v>42915</v>
       </c>
       <c r="B74" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -14195,13 +14219,13 @@
         <v>42917</v>
       </c>
       <c r="B75" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C75" s="28" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D75" t="s">
         <v>1493</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -14212,7 +14236,7 @@
         <v>725</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -14220,10 +14244,10 @@
         <v>42919</v>
       </c>
       <c r="B77" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14231,10 +14255,10 @@
         <v>42919</v>
       </c>
       <c r="B78" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -14245,7 +14269,7 @@
         <v>720</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -14253,13 +14277,13 @@
         <v>42921</v>
       </c>
       <c r="B80" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D80" t="s">
         <v>1531</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -14270,7 +14294,7 @@
         <v>690</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -14281,7 +14305,7 @@
         <v>749</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -14292,7 +14316,7 @@
         <v>749</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -14303,15 +14327,15 @@
         <v>749</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -14319,20 +14343,20 @@
         <v>42922</v>
       </c>
       <c r="B86" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C87" s="28" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C88" s="28" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -14343,7 +14367,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -14354,7 +14378,7 @@
         <v>690</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -14362,10 +14386,10 @@
         <v>42922</v>
       </c>
       <c r="B91" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -14376,7 +14400,7 @@
         <v>750</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -14384,10 +14408,10 @@
         <v>42933</v>
       </c>
       <c r="B93" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -14395,10 +14419,10 @@
         <v>42940</v>
       </c>
       <c r="B94" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -14406,10 +14430,10 @@
         <v>42940</v>
       </c>
       <c r="B95" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -14417,10 +14441,10 @@
         <v>42940</v>
       </c>
       <c r="B96" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -14431,7 +14455,7 @@
         <v>113</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -14439,10 +14463,10 @@
         <v>42941</v>
       </c>
       <c r="B98" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14450,10 +14474,10 @@
         <v>42961</v>
       </c>
       <c r="B99" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -14461,10 +14485,10 @@
         <v>42962</v>
       </c>
       <c r="B100" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14472,10 +14496,10 @@
         <v>42969</v>
       </c>
       <c r="B101" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="320" x14ac:dyDescent="0.2">
@@ -14486,10 +14510,10 @@
         <v>731</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -14500,7 +14524,7 @@
         <v>731</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -14511,7 +14535,7 @@
         <v>749</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -14522,7 +14546,7 @@
         <v>172</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14533,7 +14557,7 @@
         <v>690</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -14544,7 +14568,7 @@
         <v>690</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -14555,7 +14579,7 @@
         <v>750</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -14563,7 +14587,7 @@
         <v>42977</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14571,10 +14595,10 @@
         <v>42977</v>
       </c>
       <c r="B110" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14585,7 +14609,7 @@
         <v>725</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -14596,7 +14620,7 @@
         <v>725</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -14607,7 +14631,7 @@
         <v>725</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14618,10 +14642,10 @@
         <v>731</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="D114" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14632,7 +14656,7 @@
         <v>690</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>1988</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14643,7 +14667,7 @@
         <v>690</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14654,7 +14678,7 @@
         <v>690</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -14665,84 +14689,95 @@
         <v>690</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>1991</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B119" t="s">
         <v>749</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>1993</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="74" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B120" s="74" t="s">
         <v>749</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>1994</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="74" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B121" s="74" t="s">
         <v>749</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>1995</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="74" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B122" s="74" t="s">
         <v>749</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="B123" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="B124" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="74" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="B125" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>2084</v>
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B126" t="s">
+        <v>898</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>2079</v>
       </c>
     </row>
   </sheetData>
@@ -14760,11 +14795,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14772,8 +14807,8 @@
     <col min="1" max="1" width="9.83203125" style="287" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" style="287" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="288" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="287" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="287" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="287" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="287" customWidth="1"/>
     <col min="6" max="6" width="48" style="288" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="287" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="287" hidden="1" customWidth="1"/>
@@ -14788,7 +14823,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="297" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C1" s="298" t="s">
         <v>680</v>
@@ -14797,7 +14832,7 @@
         <v>1353</v>
       </c>
       <c r="E1" s="297" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F1" s="298" t="s">
         <v>1348</v>
@@ -14818,7 +14853,7 @@
         <v>116</v>
       </c>
       <c r="L1" s="326" t="s">
-        <v>1070</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -14827,32 +14862,32 @@
       </c>
       <c r="B2" s="289"/>
       <c r="C2" s="290" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D2" s="289" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="F2" s="290" t="s">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="G2" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H2" s="289"/>
       <c r="I2" s="289" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="J2" s="289" t="s">
         <v>1183</v>
       </c>
       <c r="K2" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L2" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -14861,19 +14896,19 @@
       </c>
       <c r="B3" s="289"/>
       <c r="C3" s="290" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D3" s="289" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E3" s="289" t="s">
         <v>1599</v>
       </c>
-      <c r="D3" s="289" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E3" s="289" t="s">
-        <v>1601</v>
-      </c>
       <c r="F3" s="290" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G3" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H3" s="289">
         <v>2004</v>
@@ -14885,10 +14920,10 @@
         <v>964</v>
       </c>
       <c r="K3" s="291" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="L3" s="291" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -14897,19 +14932,19 @@
       </c>
       <c r="B4" s="289"/>
       <c r="C4" s="290" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D4" s="289" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E4" s="289" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F4" s="290" t="s">
         <v>1603</v>
       </c>
-      <c r="D4" s="289" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E4" s="289" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F4" s="290" t="s">
-        <v>1605</v>
-      </c>
       <c r="G4" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H4" s="289">
         <v>2000</v>
@@ -14921,7 +14956,7 @@
         <v>1183</v>
       </c>
       <c r="K4" s="291" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="L4" s="291" t="s">
         <v>1128</v>
@@ -14933,31 +14968,31 @@
       </c>
       <c r="B5" s="289"/>
       <c r="C5" s="290" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D5" s="289" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E5" s="289" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F5" s="290" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G5" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H5" s="289" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I5" s="289" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J5" s="289" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K5" s="292" t="s">
         <v>1606</v>
-      </c>
-      <c r="D5" s="289" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E5" s="289" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F5" s="290" t="s">
-        <v>2001</v>
-      </c>
-      <c r="G5" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H5" s="289" t="s">
-        <v>1806</v>
-      </c>
-      <c r="I5" s="289" t="s">
-        <v>1436</v>
-      </c>
-      <c r="J5" s="289" t="s">
-        <v>1805</v>
-      </c>
-      <c r="K5" s="292" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -14968,19 +15003,19 @@
         <v>750</v>
       </c>
       <c r="C6" s="290" t="s">
-        <v>919</v>
+        <v>970</v>
       </c>
       <c r="D6" s="289" t="s">
         <v>1354</v>
       </c>
       <c r="E6" s="289" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F6" s="290" t="s">
         <v>1355</v>
       </c>
       <c r="G6" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H6" s="289">
         <v>2000</v>
@@ -15001,19 +15036,19 @@
         <v>750</v>
       </c>
       <c r="C7" s="290" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D7" s="289" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="E7" s="289" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="F7" s="290" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="G7" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H7" s="289">
         <v>2014</v>
@@ -15023,10 +15058,10 @@
       </c>
       <c r="J7" s="289"/>
       <c r="K7" s="290" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="L7" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -15037,113 +15072,154 @@
         <v>750</v>
       </c>
       <c r="C8" s="290" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D8" s="289" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="E8" s="289" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F8" s="290" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="G8" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H8" s="289"/>
       <c r="I8" s="289"/>
       <c r="J8" s="289"/>
       <c r="K8" s="290" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="289" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B9" s="289" t="s">
-        <v>750</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="B9" s="289"/>
       <c r="C9" s="290" t="s">
-        <v>934</v>
-      </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
+        <v>1356</v>
+      </c>
+      <c r="D9" s="289" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E9" s="289" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F9" s="290" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G9" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H9" s="289">
+        <v>2000</v>
+      </c>
+      <c r="I9" s="289">
+        <v>2001</v>
+      </c>
       <c r="J9" s="289"/>
-      <c r="K9" s="290"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="290" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="289" t="s">
         <v>1337</v>
       </c>
       <c r="B10" s="289" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C10" s="290" t="s">
-        <v>2002</v>
-      </c>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="289"/>
-      <c r="K10" s="290"/>
-    </row>
-    <row r="11" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1517</v>
+      </c>
+      <c r="D10" s="289" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E10" s="289" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F10" s="290" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G10" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H10" s="289" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I10" s="289" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J10" s="289" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K10" s="290" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="289" t="s">
         <v>1337</v>
       </c>
       <c r="B11" s="289" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C11" s="290" t="s">
-        <v>933</v>
-      </c>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="289"/>
+        <v>1518</v>
+      </c>
+      <c r="D11" s="289" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E11" s="289" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F11" s="290" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G11" s="289" t="s">
+        <v>1422</v>
+      </c>
       <c r="H11" s="289"/>
-      <c r="I11" s="289"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="290"/>
-    </row>
-    <row r="12" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="289" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J11" s="289" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K11" s="290" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="289" t="s">
-        <v>731</v>
-      </c>
-      <c r="B12" s="289"/>
+        <v>1337</v>
+      </c>
+      <c r="B12" s="289" t="s">
+        <v>751</v>
+      </c>
       <c r="C12" s="290" t="s">
-        <v>1356</v>
+        <v>2002</v>
       </c>
       <c r="D12" s="289" t="s">
-        <v>1357</v>
+        <v>1666</v>
       </c>
       <c r="E12" s="289" t="s">
-        <v>1357</v>
+        <v>1634</v>
       </c>
       <c r="F12" s="290" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G12" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H12" s="289">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="289">
-        <v>2001</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="G12" s="289"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="289"/>
       <c r="J12" s="289"/>
       <c r="K12" s="290" t="s">
-        <v>1359</v>
+        <v>2006</v>
+      </c>
+      <c r="L12" s="74" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15154,229 +15230,214 @@
         <v>751</v>
       </c>
       <c r="C13" s="290" t="s">
-        <v>1519</v>
+        <v>2000</v>
       </c>
       <c r="D13" s="289" t="s">
-        <v>1434</v>
+        <v>1666</v>
       </c>
       <c r="E13" s="289" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="F13" s="290" t="s">
-        <v>1435</v>
-      </c>
-      <c r="G13" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H13" s="289" t="s">
-        <v>1806</v>
-      </c>
-      <c r="I13" s="289" t="s">
-        <v>1436</v>
-      </c>
-      <c r="J13" s="289" t="s">
-        <v>1805</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="G13" s="289"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
       <c r="K13" s="290" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="289" t="s">
         <v>1337</v>
       </c>
       <c r="B14" s="289" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C14" s="290" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D14" s="289" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E14" s="289" t="s">
-        <v>1636</v>
+        <v>2011</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>2091</v>
       </c>
       <c r="F14" s="290" t="s">
-        <v>1807</v>
-      </c>
-      <c r="G14" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H14" s="289"/>
-      <c r="I14" s="289" t="s">
-        <v>1797</v>
-      </c>
-      <c r="J14" s="289" t="s">
-        <v>1216</v>
-      </c>
+        <v>1805</v>
+      </c>
+      <c r="G14" s="289"/>
+      <c r="H14" s="289">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="289">
+        <v>2001</v>
+      </c>
+      <c r="J14" s="289"/>
       <c r="K14" s="290" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="289" t="s">
         <v>1337</v>
       </c>
       <c r="B15" s="289" t="s">
-        <v>751</v>
-      </c>
-      <c r="C15" s="290" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="290" t="s">
-        <v>2009</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="C15" s="290"/>
+      <c r="F15" s="290"/>
       <c r="G15" s="289"/>
       <c r="H15" s="289"/>
       <c r="I15" s="289"/>
       <c r="J15" s="289"/>
-      <c r="K15" s="290" t="s">
-        <v>2012</v>
-      </c>
-      <c r="L15" s="74" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K15" s="290"/>
+    </row>
+    <row r="16" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="289" t="s">
         <v>1337</v>
       </c>
       <c r="B16" s="289" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C16" s="290" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D16" s="289"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="290" t="s">
-        <v>2010</v>
-      </c>
+        <v>2014</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F16" s="290"/>
       <c r="G16" s="289"/>
       <c r="H16" s="289"/>
       <c r="I16" s="289"/>
       <c r="J16" s="289"/>
-      <c r="K16" s="290" t="s">
-        <v>2011</v>
-      </c>
-      <c r="L16" s="74" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K16" s="290"/>
+    </row>
+    <row r="17" spans="1:12" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="289" t="s">
-        <v>1389</v>
+        <v>1337</v>
       </c>
       <c r="B17" s="289" t="s">
         <v>750</v>
       </c>
       <c r="C17" s="290" t="s">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="289" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E17" s="289" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F17" s="290" t="s">
-        <v>1808</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F17" s="290"/>
       <c r="G17" s="289"/>
-      <c r="H17" s="289">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="289">
-        <v>2001</v>
-      </c>
+      <c r="H17" s="289"/>
+      <c r="I17" s="289"/>
       <c r="J17" s="289"/>
-      <c r="K17" s="290" t="s">
-        <v>949</v>
-      </c>
-      <c r="L17" s="74" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="K17" s="290"/>
+    </row>
+    <row r="18" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="289" t="s">
         <v>731</v>
       </c>
-      <c r="B18" s="289"/>
+      <c r="B18" s="289" t="s">
+        <v>750</v>
+      </c>
       <c r="C18" s="290" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D18" s="289" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E18" s="289" t="s">
-        <v>1619</v>
+        <v>2011</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>2088</v>
       </c>
       <c r="F18" s="290" t="s">
-        <v>2014</v>
-      </c>
-      <c r="G18" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H18" s="289" t="s">
-        <v>1797</v>
-      </c>
-      <c r="I18" s="289" t="s">
-        <v>1797</v>
+        <v>1805</v>
+      </c>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="289">
+        <v>2001</v>
       </c>
       <c r="J18" s="289"/>
       <c r="K18" s="290" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+      <c r="L18" s="74" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="289" t="s">
         <v>731</v>
       </c>
       <c r="B19" s="289"/>
       <c r="C19" s="290" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
+        <v>1615</v>
+      </c>
+      <c r="D19" s="289" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E19" s="289" t="s">
+        <v>1617</v>
+      </c>
       <c r="F19" s="290" t="s">
-        <v>2016</v>
-      </c>
-      <c r="G19" s="289"/>
-      <c r="H19" s="289"/>
-      <c r="I19" s="289"/>
+        <v>2008</v>
+      </c>
+      <c r="G19" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H19" s="289" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I19" s="289" t="s">
+        <v>1794</v>
+      </c>
       <c r="J19" s="289"/>
       <c r="K19" s="290" t="s">
-        <v>1597</v>
-      </c>
-      <c r="L19" s="74" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="74" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="289" t="s">
         <v>731</v>
       </c>
       <c r="B20" s="289"/>
       <c r="C20" s="290" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D20" s="289"/>
-      <c r="E20" s="289"/>
+        <v>2009</v>
+      </c>
+      <c r="D20" s="289" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E20" s="289" t="s">
+        <v>1617</v>
+      </c>
       <c r="F20" s="290" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="G20" s="289"/>
       <c r="H20" s="289"/>
       <c r="I20" s="289"/>
       <c r="J20" s="289"/>
-      <c r="K20" s="28" t="s">
-        <v>1156</v>
+      <c r="K20" s="290" t="s">
+        <v>1595</v>
       </c>
       <c r="L20" s="74" t="s">
-        <v>1154</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="74" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -15385,12 +15446,16 @@
       </c>
       <c r="B21" s="289"/>
       <c r="C21" s="290" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D21" s="289"/>
-      <c r="E21" s="289"/>
+        <v>2012</v>
+      </c>
+      <c r="D21" s="289" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E21" s="289" t="s">
+        <v>1617</v>
+      </c>
       <c r="F21" s="290" t="s">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="G21" s="289"/>
       <c r="H21" s="289"/>
@@ -15403,52 +15468,56 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="74" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A22" s="289" t="s">
         <v>731</v>
       </c>
       <c r="B22" s="289"/>
       <c r="C22" s="290" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D22" s="289"/>
       <c r="E22" s="289"/>
       <c r="F22" s="290" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G22" s="289"/>
       <c r="H22" s="289"/>
       <c r="I22" s="289"/>
       <c r="J22" s="289"/>
       <c r="K22" s="28" t="s">
-        <v>861</v>
+        <v>1156</v>
       </c>
       <c r="L22" s="74" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="289" t="s">
         <v>731</v>
       </c>
       <c r="B23" s="289"/>
       <c r="C23" s="290" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D23" s="289"/>
-      <c r="E23" s="289"/>
+        <v>2014</v>
+      </c>
+      <c r="D23" s="289" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E23" s="289" t="s">
+        <v>1617</v>
+      </c>
       <c r="F23" s="290" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="G23" s="289"/>
       <c r="H23" s="289"/>
       <c r="I23" s="289"/>
       <c r="J23" s="289"/>
       <c r="K23" s="28" t="s">
-        <v>1388</v>
+        <v>861</v>
       </c>
       <c r="L23" s="74" t="s">
-        <v>1159</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15457,145 +15526,147 @@
       </c>
       <c r="B24" s="289"/>
       <c r="C24" s="290" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D24" s="289"/>
+        <v>2017</v>
+      </c>
+      <c r="D24" s="141" t="s">
+        <v>2087</v>
+      </c>
       <c r="E24" s="289"/>
       <c r="F24" s="290" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
       <c r="G24" s="289"/>
       <c r="H24" s="289"/>
       <c r="I24" s="289"/>
       <c r="J24" s="289"/>
       <c r="K24" s="28" t="s">
-        <v>2027</v>
+        <v>1388</v>
       </c>
       <c r="L24" s="74" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="330" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="327" t="s">
+    <row r="25" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="289" t="s">
         <v>731</v>
       </c>
-      <c r="B25" s="327"/>
-      <c r="C25" s="328" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D25" s="327"/>
-      <c r="E25" s="327"/>
-      <c r="F25" s="328" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G25" s="327"/>
-      <c r="H25" s="327"/>
-      <c r="I25" s="327"/>
-      <c r="J25" s="327"/>
-      <c r="K25" s="329" t="s">
+      <c r="B25" s="289"/>
+      <c r="C25" s="290" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D25" s="289"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="290" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G25" s="289"/>
+      <c r="H25" s="289"/>
+      <c r="I25" s="289"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="28" t="s">
+        <v>2021</v>
+      </c>
+      <c r="L25" s="74" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="330" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="327" t="s">
+        <v>731</v>
+      </c>
+      <c r="B26" s="327"/>
+      <c r="C26" s="328" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="141" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E26" s="327"/>
+      <c r="F26" s="328" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="142" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="295" t="s">
+      <c r="G26" s="327"/>
+      <c r="H26" s="327"/>
+      <c r="I26" s="327"/>
+      <c r="J26" s="327"/>
+      <c r="K26" s="329" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="142" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="295" t="s">
         <v>731</v>
       </c>
-      <c r="B26" s="295"/>
-      <c r="C26" s="296" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D26" s="295"/>
-      <c r="E26" s="295"/>
-      <c r="F26" s="296" t="s">
-        <v>2052</v>
-      </c>
-      <c r="G26" s="295"/>
-      <c r="H26" s="295"/>
-      <c r="I26" s="295"/>
-      <c r="J26" s="295"/>
-      <c r="K26" s="149" t="s">
-        <v>2051</v>
-      </c>
-      <c r="L26" s="142" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="289" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B27" s="289" t="s">
-        <v>690</v>
-      </c>
-      <c r="C27" s="290" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D27" s="289" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E27" s="289" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F27" s="290" t="s">
-        <v>2072</v>
-      </c>
-      <c r="G27" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H27" s="289">
-        <v>2012</v>
-      </c>
-      <c r="I27" s="289">
-        <v>2016</v>
-      </c>
-      <c r="J27" s="289"/>
-      <c r="K27" s="290" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B27" s="295"/>
+      <c r="C27" s="296" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295"/>
+      <c r="F27" s="296" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G27" s="295"/>
+      <c r="H27" s="295"/>
+      <c r="I27" s="295"/>
+      <c r="J27" s="295"/>
+      <c r="K27" s="149" t="s">
+        <v>2045</v>
+      </c>
+      <c r="L27" s="142" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B28" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C28" s="290" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D28" s="289"/>
-      <c r="E28" s="289"/>
+        <v>2068</v>
+      </c>
+      <c r="D28" s="289" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E28" s="289" t="s">
+        <v>1618</v>
+      </c>
       <c r="F28" s="290" t="s">
-        <v>2076</v>
-      </c>
-      <c r="G28" s="289"/>
-      <c r="H28" s="289"/>
-      <c r="I28" s="289"/>
+        <v>2066</v>
+      </c>
+      <c r="G28" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H28" s="289">
+        <v>2012</v>
+      </c>
+      <c r="I28" s="289">
+        <v>2016</v>
+      </c>
       <c r="J28" s="289"/>
       <c r="K28" s="290" t="s">
         <v>218</v>
       </c>
-      <c r="L28" s="74" t="s">
-        <v>2071</v>
+      <c r="L28" t="s">
+        <v>2065</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B29" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C29" s="290" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="D29" s="289"/>
       <c r="E29" s="289"/>
       <c r="F29" s="290" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="G29" s="289"/>
       <c r="H29" s="289"/>
@@ -15605,23 +15676,23 @@
         <v>218</v>
       </c>
       <c r="L29" s="74" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B30" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C30" s="290" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="D30" s="289"/>
       <c r="E30" s="289"/>
       <c r="F30" s="290" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="G30" s="289"/>
       <c r="H30" s="289"/>
@@ -15631,273 +15702,266 @@
         <v>218</v>
       </c>
       <c r="L30" s="74" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B31" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C31" s="290" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D31" s="289" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E31" s="289" t="s">
-        <v>1796</v>
-      </c>
+        <v>2072</v>
+      </c>
+      <c r="D31" s="289"/>
+      <c r="E31" s="289"/>
       <c r="F31" s="290" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G31" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H31" s="289">
-        <v>2012</v>
-      </c>
-      <c r="I31" s="289">
-        <v>2016</v>
-      </c>
+        <v>2073</v>
+      </c>
+      <c r="G31" s="289"/>
+      <c r="H31" s="289"/>
+      <c r="I31" s="289"/>
       <c r="J31" s="289"/>
-      <c r="K31" s="290"/>
-    </row>
-    <row r="32" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K31" s="290" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="74" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B32" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C32" s="290" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D32" s="289"/>
-      <c r="E32" s="289"/>
+        <v>1532</v>
+      </c>
+      <c r="D32" s="289" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E32" s="289" t="s">
+        <v>1793</v>
+      </c>
       <c r="F32" s="290" t="s">
-        <v>2067</v>
-      </c>
-      <c r="G32" s="289"/>
-      <c r="H32" s="289"/>
-      <c r="I32" s="289"/>
+        <v>1535</v>
+      </c>
+      <c r="G32" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H32" s="289">
+        <v>2012</v>
+      </c>
+      <c r="I32" s="289">
+        <v>2016</v>
+      </c>
       <c r="J32" s="289"/>
       <c r="K32" s="290"/>
-      <c r="L32" s="74" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B33" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C33" s="290" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="D33" s="289"/>
       <c r="E33" s="289"/>
       <c r="F33" s="290" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="G33" s="289"/>
       <c r="H33" s="289"/>
       <c r="I33" s="289"/>
       <c r="J33" s="289"/>
-      <c r="K33" s="290" t="s">
-        <v>2063</v>
-      </c>
+      <c r="K33" s="290"/>
       <c r="L33" s="74" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B34" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C34" s="290" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="D34" s="289"/>
       <c r="E34" s="289"/>
       <c r="F34" s="290" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="G34" s="289"/>
       <c r="H34" s="289"/>
       <c r="I34" s="289"/>
       <c r="J34" s="289"/>
       <c r="K34" s="290" t="s">
-        <v>2012</v>
+        <v>2057</v>
       </c>
       <c r="L34" s="74" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="289" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B35" s="289" t="s">
+        <v>690</v>
+      </c>
+      <c r="C35" s="290" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D35" s="289"/>
+      <c r="E35" s="289"/>
+      <c r="F35" s="290" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G35" s="289"/>
+      <c r="H35" s="289"/>
+      <c r="I35" s="289"/>
+      <c r="J35" s="289"/>
+      <c r="K35" s="290" t="s">
+        <v>2006</v>
+      </c>
+      <c r="L35" s="74" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="330" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="327" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B35" s="327" t="s">
+    <row r="36" spans="1:17" s="142" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="295" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B36" s="295" t="s">
         <v>690</v>
       </c>
-      <c r="C35" s="328" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D35" s="327" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E35" s="327" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F35" s="328" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G35" s="327" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H35" s="327"/>
-      <c r="I35" s="327">
+      <c r="C36" s="296" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D36" s="295" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E36" s="295" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F36" s="296" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G36" s="295" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H36" s="295"/>
+      <c r="I36" s="295">
         <v>2013</v>
       </c>
-      <c r="J35" s="327"/>
-      <c r="K35" s="328" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="289" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B36" s="289" t="s">
-        <v>714</v>
-      </c>
-      <c r="C36" s="290" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D36" s="289" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E36" s="289" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F36" s="290" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G36" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H36" s="289">
-        <v>2007</v>
-      </c>
-      <c r="I36" s="289">
-        <v>2011</v>
-      </c>
-      <c r="J36" s="289"/>
-      <c r="K36" s="290" t="s">
-        <v>2034</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="295"/>
+      <c r="K36" s="296" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B37" s="289" t="s">
         <v>714</v>
       </c>
       <c r="C37" s="290" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D37" s="289" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="E37" s="289" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="F37" s="290" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="G37" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H37" s="289">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="I37" s="289">
         <v>2011</v>
       </c>
       <c r="J37" s="289"/>
       <c r="K37" s="290" t="s">
-        <v>2035</v>
-      </c>
-      <c r="L37" s="74" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2028</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B38" s="289" t="s">
         <v>714</v>
       </c>
       <c r="C38" s="290" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="D38" s="289" t="s">
-        <v>1566</v>
+        <v>1470</v>
       </c>
       <c r="E38" s="289" t="s">
-        <v>1566</v>
+        <v>1470</v>
       </c>
       <c r="F38" s="290" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="G38" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H38" s="289">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="I38" s="289">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="J38" s="289"/>
       <c r="K38" s="290" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>2029</v>
+      </c>
+      <c r="L38" s="74" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="289" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B39" s="289" t="s">
         <v>714</v>
       </c>
       <c r="C39" s="290" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D39" s="289" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E39" s="289" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="F39" s="290" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="G39" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H39" s="289">
         <v>2017</v>
@@ -15907,152 +15971,144 @@
       </c>
       <c r="J39" s="289"/>
       <c r="K39" s="290" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="289" t="s">
-        <v>1817</v>
+        <v>1760</v>
       </c>
       <c r="B40" s="289" t="s">
-        <v>1823</v>
+        <v>714</v>
       </c>
       <c r="C40" s="290" t="s">
-        <v>1819</v>
+        <v>1474</v>
       </c>
       <c r="D40" s="289" t="s">
-        <v>1818</v>
+        <v>1563</v>
       </c>
       <c r="E40" s="289" t="s">
-        <v>1820</v>
+        <v>1563</v>
       </c>
       <c r="F40" s="290" t="s">
-        <v>1819</v>
+        <v>1475</v>
       </c>
       <c r="G40" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H40" s="289">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="I40" s="289">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="J40" s="289"/>
       <c r="K40" s="290" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="289" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B41" s="289" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C41" s="290" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D41" s="289" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E41" s="289" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F41" s="290" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G41" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H41" s="289">
+        <v>2005</v>
+      </c>
+      <c r="I41" s="289">
+        <v>2013</v>
+      </c>
+      <c r="J41" s="289"/>
+      <c r="K41" s="290" t="s">
         <v>875</v>
       </c>
-      <c r="L40" s="141" t="s">
+      <c r="L41" s="141" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="74" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="289" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B41" s="293" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C41" s="294" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D41" s="293" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E41" s="293" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F41" s="294" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G41" s="293" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H41" s="293">
+    <row r="42" spans="1:17" s="74" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="289" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B42" s="293" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C42" s="294" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D42" s="293" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E42" s="293" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F42" s="294" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G42" s="293" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H42" s="293">
         <v>2005</v>
       </c>
-      <c r="I41" s="293">
+      <c r="I42" s="293">
         <v>2013</v>
       </c>
-      <c r="J41" s="293"/>
-      <c r="K41" s="294" t="s">
-        <v>2047</v>
-      </c>
-      <c r="L41" s="74" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="289" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B42" s="289" t="s">
+      <c r="J42" s="293"/>
+      <c r="K42" s="294" t="s">
+        <v>2041</v>
+      </c>
+      <c r="L42" s="74" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="289" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B43" s="289" t="s">
         <v>1273</v>
       </c>
-      <c r="C42" s="290" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D42" s="289" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E42" s="289" t="s">
-        <v>1822</v>
-      </c>
-      <c r="F42" s="290" t="s">
-        <v>2048</v>
-      </c>
-      <c r="G42" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H42" s="289">
+      <c r="C43" s="290" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D43" s="289" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E43" s="289" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F43" s="290" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G43" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H43" s="289">
         <v>1960</v>
       </c>
-      <c r="I42" s="289">
+      <c r="I43" s="289">
         <v>20112</v>
       </c>
-      <c r="J42" s="289"/>
-      <c r="K42" s="290" t="s">
-        <v>875</v>
-      </c>
-      <c r="L42" s="74" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="141"/>
-    </row>
-    <row r="43" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="289" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B43" s="293" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C43" s="294" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D43" s="293" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E43" s="293" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F43" s="294" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G43" s="293" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H43" s="293">
-        <v>1990</v>
-      </c>
-      <c r="I43" s="293">
-        <v>2015</v>
-      </c>
-      <c r="J43" s="293"/>
-      <c r="K43" s="294" t="s">
+      <c r="J43" s="289"/>
+      <c r="K43" s="290" t="s">
         <v>875</v>
       </c>
       <c r="L43" s="74" t="s">
@@ -16064,37 +16120,37 @@
       <c r="P43" s="141"/>
       <c r="Q43" s="141"/>
     </row>
-    <row r="44" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="289" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="B44" s="293" t="s">
         <v>1273</v>
       </c>
       <c r="C44" s="294" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="D44" s="293" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E44" s="293" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="F44" s="294" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="G44" s="293" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H44" s="293">
         <v>1990</v>
       </c>
       <c r="I44" s="293">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J44" s="293"/>
       <c r="K44" s="294" t="s">
-        <v>1428</v>
+        <v>875</v>
       </c>
       <c r="L44" s="74" t="s">
         <v>1128</v>
@@ -16105,40 +16161,40 @@
       <c r="P44" s="141"/>
       <c r="Q44" s="141"/>
     </row>
-    <row r="45" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="289" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="B45" s="293" t="s">
         <v>1273</v>
       </c>
       <c r="C45" s="294" t="s">
-        <v>1767</v>
+        <v>1423</v>
       </c>
       <c r="D45" s="293" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="E45" s="293" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="F45" s="294" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="G45" s="293" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H45" s="293">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="I45" s="293">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="J45" s="293"/>
       <c r="K45" s="294" t="s">
-        <v>2047</v>
-      </c>
-      <c r="L45" s="141" t="s">
-        <v>2046</v>
+        <v>1426</v>
+      </c>
+      <c r="L45" s="74" t="s">
+        <v>1128</v>
       </c>
       <c r="M45" s="141"/>
       <c r="N45" s="141"/>
@@ -16146,54 +16202,63 @@
       <c r="P45" s="141"/>
       <c r="Q45" s="141"/>
     </row>
-    <row r="46" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="289" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B46" s="289"/>
-      <c r="C46" s="290" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D46" s="289" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E46" s="289" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F46" s="290" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G46" s="289" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" s="289"/>
-      <c r="I46" s="289">
-        <v>2011</v>
-      </c>
-      <c r="J46" s="289"/>
-      <c r="K46" s="290" t="s">
-        <v>2049</v>
-      </c>
-      <c r="L46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B46" s="293" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C46" s="294" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D46" s="293" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E46" s="293" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F46" s="294" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G46" s="293" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H46" s="293">
+        <v>2005</v>
+      </c>
+      <c r="I46" s="293">
+        <v>2013</v>
+      </c>
+      <c r="J46" s="293"/>
+      <c r="K46" s="294" t="s">
+        <v>2041</v>
+      </c>
+      <c r="L46" s="141" t="s">
+        <v>2040</v>
+      </c>
+      <c r="M46" s="141"/>
+      <c r="N46" s="141"/>
+      <c r="O46" s="141"/>
+      <c r="P46" s="141"/>
+      <c r="Q46" s="141"/>
+    </row>
+    <row r="47" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="289" t="s">
         <v>1556</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="289" t="s">
-        <v>1558</v>
       </c>
       <c r="B47" s="289"/>
       <c r="C47" s="290" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="D47" s="289" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="E47" s="289" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="F47" s="290" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="G47" s="289" t="s">
         <v>133</v>
@@ -16204,141 +16269,137 @@
       </c>
       <c r="J47" s="289"/>
       <c r="K47" s="290" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="L47" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="289" t="s">
         <v>1556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="64" x14ac:dyDescent="0.2">
-      <c r="A48" s="289" t="s">
-        <v>1558</v>
       </c>
       <c r="B48" s="289"/>
       <c r="C48" s="290" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="D48" s="289" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="E48" s="289" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="F48" s="290" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="G48" s="289" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="289">
-        <v>2015</v>
-      </c>
+      <c r="H48" s="289"/>
       <c r="I48" s="289">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="J48" s="289"/>
       <c r="K48" s="290" t="s">
-        <v>1569</v>
+        <v>2043</v>
       </c>
       <c r="L48" t="s">
-        <v>1128</v>
-      </c>
-      <c r="W48">
-        <v>4</v>
-      </c>
-      <c r="X48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B49" s="289"/>
       <c r="C49" s="290" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="D49" s="289" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="E49" s="289" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="F49" s="290" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="G49" s="289" t="s">
         <v>133</v>
       </c>
       <c r="H49" s="289">
-        <v>1900</v>
+        <v>2015</v>
       </c>
       <c r="I49" s="289">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="J49" s="289"/>
       <c r="K49" s="290" t="s">
-        <v>1579</v>
-      </c>
-      <c r="W49" s="74">
+        <v>1567</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W49">
         <v>4</v>
       </c>
-      <c r="X49" s="74" t="b">
+      <c r="X49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B50" s="289"/>
       <c r="C50" s="290" t="s">
-        <v>1609</v>
+        <v>1574</v>
       </c>
       <c r="D50" s="289" t="s">
-        <v>1643</v>
+        <v>1575</v>
       </c>
       <c r="E50" s="289" t="s">
-        <v>1674</v>
+        <v>1624</v>
       </c>
       <c r="F50" s="290" t="s">
-        <v>1640</v>
+        <v>1576</v>
       </c>
       <c r="G50" s="289" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="289"/>
-      <c r="I50" s="289"/>
+      <c r="H50" s="289">
+        <v>1900</v>
+      </c>
+      <c r="I50" s="289">
+        <v>1998</v>
+      </c>
       <c r="J50" s="289"/>
       <c r="K50" s="290" t="s">
-        <v>1810</v>
-      </c>
-      <c r="L50" s="74" t="s">
-        <v>2040</v>
-      </c>
-      <c r="W50">
+        <v>1577</v>
+      </c>
+      <c r="W50" s="74">
         <v>4</v>
       </c>
-      <c r="X50" t="b">
+      <c r="X50" s="74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B51" s="289"/>
       <c r="C51" s="290" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="D51" s="289" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="E51" s="289" t="s">
-        <v>1611</v>
+        <v>1672</v>
       </c>
       <c r="F51" s="290" t="s">
-        <v>1672</v>
+        <v>1638</v>
       </c>
       <c r="G51" s="289" t="s">
         <v>133</v>
@@ -16347,10 +16408,10 @@
       <c r="I51" s="289"/>
       <c r="J51" s="289"/>
       <c r="K51" s="290" t="s">
-        <v>1861</v>
-      </c>
-      <c r="L51" t="s">
-        <v>2003</v>
+        <v>1807</v>
+      </c>
+      <c r="L51" s="74" t="s">
+        <v>2034</v>
       </c>
       <c r="W51">
         <v>4</v>
@@ -16359,22 +16420,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B52" s="289"/>
       <c r="C52" s="290" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D52" s="289" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="E52" s="289" t="s">
-        <v>1639</v>
+        <v>1609</v>
       </c>
       <c r="F52" s="290" t="s">
-        <v>1638</v>
+        <v>1670</v>
       </c>
       <c r="G52" s="289" t="s">
         <v>133</v>
@@ -16382,35 +16443,35 @@
       <c r="H52" s="289"/>
       <c r="I52" s="289"/>
       <c r="J52" s="289"/>
-      <c r="K52" s="294" t="s">
-        <v>1810</v>
-      </c>
-      <c r="L52" s="74" t="s">
-        <v>2040</v>
-      </c>
-      <c r="W52" s="74">
+      <c r="K52" s="290" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1997</v>
+      </c>
+      <c r="W52">
         <v>4</v>
       </c>
-      <c r="X52" s="74" t="b">
+      <c r="X52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B53" s="289"/>
       <c r="C53" s="290" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D53" s="289" t="s">
-        <v>1670</v>
+        <v>1642</v>
       </c>
       <c r="E53" s="289" t="s">
-        <v>1614</v>
+        <v>1637</v>
       </c>
       <c r="F53" s="290" t="s">
-        <v>1673</v>
+        <v>1636</v>
       </c>
       <c r="G53" s="289" t="s">
         <v>133</v>
@@ -16418,29 +16479,35 @@
       <c r="H53" s="289"/>
       <c r="I53" s="289"/>
       <c r="J53" s="289"/>
-      <c r="K53" s="290" t="s">
-        <v>1861</v>
+      <c r="K53" s="294" t="s">
+        <v>1807</v>
       </c>
       <c r="L53" s="74" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+      <c r="W53" s="74">
+        <v>4</v>
+      </c>
+      <c r="X53" s="74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B54" s="289"/>
       <c r="C54" s="290" t="s">
-        <v>1675</v>
+        <v>1611</v>
       </c>
       <c r="D54" s="289" t="s">
-        <v>1642</v>
+        <v>1668</v>
       </c>
       <c r="E54" s="289" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F54" s="290" t="s">
         <v>1671</v>
-      </c>
-      <c r="F54" s="290" t="s">
-        <v>1866</v>
       </c>
       <c r="G54" s="289" t="s">
         <v>133</v>
@@ -16448,29 +16515,29 @@
       <c r="H54" s="289"/>
       <c r="I54" s="289"/>
       <c r="J54" s="289"/>
-      <c r="K54" s="294" t="s">
-        <v>1810</v>
+      <c r="K54" s="290" t="s">
+        <v>1856</v>
       </c>
       <c r="L54" s="74" t="s">
-        <v>2040</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B55" s="289"/>
       <c r="C55" s="290" t="s">
-        <v>1769</v>
+        <v>1673</v>
       </c>
       <c r="D55" s="289" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="E55" s="289" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F55" s="294" t="s">
-        <v>1679</v>
+        <v>1669</v>
+      </c>
+      <c r="F55" s="290" t="s">
+        <v>1861</v>
       </c>
       <c r="G55" s="289" t="s">
         <v>133</v>
@@ -16479,27 +16546,27 @@
       <c r="I55" s="289"/>
       <c r="J55" s="289"/>
       <c r="K55" s="294" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="L55" s="74" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B56" s="289"/>
       <c r="C56" s="290" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D56" s="289" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E56" s="289" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F56" s="290" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F56" s="294" t="s">
         <v>1677</v>
       </c>
       <c r="G56" s="289" t="s">
@@ -16509,28 +16576,28 @@
       <c r="I56" s="289"/>
       <c r="J56" s="289"/>
       <c r="K56" s="294" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="L56" s="74" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B57" s="289"/>
       <c r="C57" s="290" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D57" s="289" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="E57" s="289" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="F57" s="290" t="s">
-        <v>1867</v>
+        <v>1675</v>
       </c>
       <c r="G57" s="289" t="s">
         <v>133</v>
@@ -16538,29 +16605,29 @@
       <c r="H57" s="289"/>
       <c r="I57" s="289"/>
       <c r="J57" s="289"/>
-      <c r="K57" s="290" t="s">
-        <v>1861</v>
+      <c r="K57" s="294" t="s">
+        <v>1807</v>
       </c>
       <c r="L57" s="74" t="s">
-        <v>2003</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B58" s="289"/>
       <c r="C58" s="290" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D58" s="289" t="s">
         <v>1648</v>
       </c>
       <c r="E58" s="289" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="F58" s="290" t="s">
-        <v>1683</v>
+        <v>1862</v>
       </c>
       <c r="G58" s="289" t="s">
         <v>133</v>
@@ -16569,28 +16636,28 @@
       <c r="I58" s="289"/>
       <c r="J58" s="289"/>
       <c r="K58" s="290" t="s">
-        <v>1801</v>
+        <v>1856</v>
       </c>
       <c r="L58" s="74" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B59" s="289"/>
       <c r="C59" s="290" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D59" s="289" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E59" s="289" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="F59" s="290" t="s">
-        <v>1868</v>
+        <v>1681</v>
       </c>
       <c r="G59" s="289" t="s">
         <v>133</v>
@@ -16599,28 +16666,28 @@
       <c r="I59" s="289"/>
       <c r="J59" s="289"/>
       <c r="K59" s="290" t="s">
-        <v>1861</v>
+        <v>1798</v>
       </c>
       <c r="L59" s="74" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B60" s="289"/>
       <c r="C60" s="290" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D60" s="289" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="E60" s="289" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="F60" s="290" t="s">
-        <v>1686</v>
+        <v>1863</v>
       </c>
       <c r="G60" s="289" t="s">
         <v>133</v>
@@ -16629,28 +16696,28 @@
       <c r="I60" s="289"/>
       <c r="J60" s="289"/>
       <c r="K60" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L60" s="74" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B61" s="289"/>
       <c r="C61" s="290" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D61" s="289" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E61" s="289" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="F61" s="290" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="G61" s="289" t="s">
         <v>133</v>
@@ -16659,28 +16726,28 @@
       <c r="I61" s="289"/>
       <c r="J61" s="289"/>
       <c r="K61" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L61" s="74" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B62" s="289"/>
       <c r="C62" s="290" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D62" s="289" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E62" s="289" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="F62" s="290" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="G62" s="289" t="s">
         <v>133</v>
@@ -16689,28 +16756,28 @@
       <c r="I62" s="289"/>
       <c r="J62" s="289"/>
       <c r="K62" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L62" s="74" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="48" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B63" s="289"/>
       <c r="C63" s="290" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D63" s="289" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E63" s="289" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="F63" s="290" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="G63" s="289" t="s">
         <v>133</v>
@@ -16719,28 +16786,28 @@
       <c r="I63" s="289"/>
       <c r="J63" s="289"/>
       <c r="K63" s="290" t="s">
-        <v>1861</v>
-      </c>
-      <c r="L63" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+        <v>1856</v>
+      </c>
+      <c r="L63" s="74" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B64" s="289"/>
       <c r="C64" s="290" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="D64" s="289" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E64" s="289" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F64" s="290" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="G64" s="289" t="s">
         <v>133</v>
@@ -16749,28 +16816,28 @@
       <c r="I64" s="289"/>
       <c r="J64" s="289"/>
       <c r="K64" s="290" t="s">
-        <v>1802</v>
+        <v>1856</v>
       </c>
       <c r="L64" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B65" s="289"/>
       <c r="C65" s="290" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D65" s="289" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E65" s="289" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="F65" s="290" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="G65" s="289" t="s">
         <v>133</v>
@@ -16779,28 +16846,28 @@
       <c r="I65" s="289"/>
       <c r="J65" s="289"/>
       <c r="K65" s="290" t="s">
-        <v>1861</v>
+        <v>1799</v>
       </c>
       <c r="L65" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A66" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B66" s="289"/>
       <c r="C66" s="290" t="s">
-        <v>1869</v>
+        <v>1777</v>
       </c>
       <c r="D66" s="289" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E66" s="289" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="F66" s="290" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="G66" s="289" t="s">
         <v>133</v>
@@ -16809,28 +16876,28 @@
       <c r="I66" s="289"/>
       <c r="J66" s="289"/>
       <c r="K66" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L66" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B67" s="289"/>
       <c r="C67" s="290" t="s">
-        <v>1780</v>
+        <v>1864</v>
       </c>
       <c r="D67" s="289" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="E67" s="289" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="F67" s="290" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="G67" s="289" t="s">
         <v>133</v>
@@ -16839,28 +16906,28 @@
       <c r="I67" s="289"/>
       <c r="J67" s="289"/>
       <c r="K67" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L67" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B68" s="289"/>
       <c r="C68" s="290" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D68" s="289" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E68" s="289" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="F68" s="290" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="G68" s="289" t="s">
         <v>133</v>
@@ -16869,28 +16936,28 @@
       <c r="I68" s="289"/>
       <c r="J68" s="289"/>
       <c r="K68" s="290" t="s">
-        <v>1801</v>
+        <v>1856</v>
       </c>
       <c r="L68" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B69" s="289"/>
       <c r="C69" s="290" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D69" s="289" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="E69" s="289" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="F69" s="290" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="G69" s="289" t="s">
         <v>133</v>
@@ -16899,28 +16966,28 @@
       <c r="I69" s="289"/>
       <c r="J69" s="289"/>
       <c r="K69" s="290" t="s">
-        <v>1861</v>
+        <v>1798</v>
       </c>
       <c r="L69" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B70" s="289"/>
       <c r="C70" s="290" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D70" s="289" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E70" s="289" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="F70" s="290" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="G70" s="289" t="s">
         <v>133</v>
@@ -16929,28 +16996,28 @@
       <c r="I70" s="289"/>
       <c r="J70" s="289"/>
       <c r="K70" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L70" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B71" s="289"/>
       <c r="C71" s="290" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="D71" s="289" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E71" s="289" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="F71" s="290" t="s">
-        <v>1999</v>
+        <v>1704</v>
       </c>
       <c r="G71" s="289" t="s">
         <v>133</v>
@@ -16959,28 +17026,28 @@
       <c r="I71" s="289"/>
       <c r="J71" s="289"/>
       <c r="K71" s="290" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="L71" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B72" s="289"/>
       <c r="C72" s="290" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D72" s="289" t="s">
-        <v>1577</v>
+        <v>1660</v>
       </c>
       <c r="E72" s="289" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="F72" s="290" t="s">
-        <v>1709</v>
+        <v>1994</v>
       </c>
       <c r="G72" s="289" t="s">
         <v>133</v>
@@ -16989,122 +17056,120 @@
       <c r="I72" s="289"/>
       <c r="J72" s="289"/>
       <c r="K72" s="290" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+        <v>1856</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="289" t="s">
-        <v>1800</v>
+        <v>1556</v>
       </c>
       <c r="B73" s="289"/>
       <c r="C73" s="290" t="s">
-        <v>1483</v>
+        <v>1783</v>
       </c>
       <c r="D73" s="289" t="s">
-        <v>1669</v>
+        <v>1575</v>
       </c>
       <c r="E73" s="289" t="s">
-        <v>1513</v>
+        <v>1706</v>
       </c>
       <c r="F73" s="290" t="s">
-        <v>1514</v>
+        <v>1707</v>
       </c>
       <c r="G73" s="289" t="s">
-        <v>1756</v>
+        <v>133</v>
       </c>
       <c r="H73" s="289"/>
-      <c r="I73" s="289">
-        <v>2011</v>
-      </c>
+      <c r="I73" s="289"/>
       <c r="J73" s="289"/>
       <c r="K73" s="290" t="s">
-        <v>1485</v>
-      </c>
-      <c r="L73" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B74" s="289"/>
       <c r="C74" s="290" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="D74" s="289" t="s">
-        <v>1494</v>
+        <v>1667</v>
       </c>
       <c r="E74" s="289" t="s">
-        <v>1494</v>
+        <v>1511</v>
       </c>
       <c r="F74" s="290" t="s">
-        <v>1764</v>
+        <v>1512</v>
       </c>
       <c r="G74" s="289" t="s">
-        <v>1498</v>
+        <v>1754</v>
       </c>
       <c r="H74" s="289"/>
-      <c r="I74" s="289"/>
+      <c r="I74" s="289">
+        <v>2011</v>
+      </c>
       <c r="J74" s="289"/>
       <c r="K74" s="290" t="s">
-        <v>2041</v>
-      </c>
-      <c r="L74" s="74" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>1483</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B75" s="289"/>
       <c r="C75" s="290" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D75" s="289" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E75" s="289" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F75" s="290" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G75" s="289" t="s">
         <v>1496</v>
       </c>
-      <c r="D75" s="289" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E75" s="289" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F75" s="290" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G75" s="289" t="s">
-        <v>1498</v>
-      </c>
       <c r="H75" s="289"/>
-      <c r="I75" s="289">
-        <v>2014</v>
-      </c>
+      <c r="I75" s="289"/>
       <c r="J75" s="289"/>
       <c r="K75" s="290" t="s">
-        <v>1499</v>
+        <v>2035</v>
       </c>
       <c r="L75" s="74" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B76" s="289"/>
       <c r="C76" s="290" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="D76" s="289" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E76" s="289" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="F76" s="290" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="G76" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H76" s="289"/>
       <c r="I76" s="289">
@@ -17112,833 +17177,831 @@
       </c>
       <c r="J76" s="289"/>
       <c r="K76" s="290" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="L76" s="74" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B77" s="289"/>
       <c r="C77" s="290" t="s">
-        <v>1572</v>
+        <v>1498</v>
       </c>
       <c r="D77" s="289" t="s">
-        <v>1573</v>
+        <v>1500</v>
       </c>
       <c r="E77" s="289" t="s">
-        <v>1625</v>
+        <v>1500</v>
       </c>
       <c r="F77" s="290" t="s">
-        <v>1574</v>
+        <v>1501</v>
       </c>
       <c r="G77" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H77" s="289"/>
       <c r="I77" s="289">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J77" s="289"/>
       <c r="K77" s="290" t="s">
-        <v>1575</v>
+        <v>1497</v>
       </c>
       <c r="L77" s="74" t="s">
-        <v>1128</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B78" s="289"/>
       <c r="C78" s="290" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="D78" s="289" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="E78" s="289" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F78" s="290" t="s">
-        <v>1765</v>
+        <v>1572</v>
       </c>
       <c r="G78" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H78" s="289"/>
-      <c r="I78" s="289"/>
+      <c r="I78" s="289">
+        <v>2015</v>
+      </c>
       <c r="J78" s="289"/>
       <c r="K78" s="290" t="s">
-        <v>1998</v>
+        <v>1573</v>
+      </c>
+      <c r="L78" s="74" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B79" s="289"/>
       <c r="C79" s="290" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D79" s="289" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E79" s="289" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F79" s="290" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="G79" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H79" s="289"/>
       <c r="I79" s="289"/>
       <c r="J79" s="289"/>
       <c r="K79" s="290" t="s">
-        <v>1464</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B80" s="289"/>
       <c r="C80" s="290" t="s">
-        <v>1615</v>
+        <v>1580</v>
       </c>
       <c r="D80" s="289" t="s">
-        <v>1680</v>
+        <v>1581</v>
       </c>
       <c r="E80" s="289" t="s">
-        <v>1616</v>
+        <v>1626</v>
       </c>
       <c r="F80" s="290" t="s">
-        <v>1641</v>
+        <v>1764</v>
       </c>
       <c r="G80" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H80" s="289"/>
       <c r="I80" s="289"/>
       <c r="J80" s="289"/>
       <c r="K80" s="290" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" s="74" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B81" s="289"/>
       <c r="C81" s="290" t="s">
-        <v>1786</v>
+        <v>1613</v>
       </c>
       <c r="D81" s="289" t="s">
-        <v>1712</v>
+        <v>1678</v>
       </c>
       <c r="E81" s="289" t="s">
-        <v>1713</v>
+        <v>1614</v>
       </c>
       <c r="F81" s="290" t="s">
-        <v>1714</v>
+        <v>1639</v>
       </c>
       <c r="G81" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H81" s="289"/>
       <c r="I81" s="289"/>
       <c r="J81" s="289"/>
       <c r="K81" s="290" t="s">
-        <v>1862</v>
-      </c>
-      <c r="L81" s="74" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" s="74" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A82" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B82" s="289"/>
       <c r="C82" s="290" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D82" s="289" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="E82" s="289" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="F82" s="290" t="s">
-        <v>1870</v>
+        <v>1712</v>
       </c>
       <c r="G82" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H82" s="289"/>
       <c r="I82" s="289"/>
       <c r="J82" s="289"/>
       <c r="K82" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L82" s="74" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B83" s="289"/>
       <c r="C83" s="290" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="D83" s="289" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E83" s="289" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="F83" s="290" t="s">
-        <v>1719</v>
+        <v>1865</v>
       </c>
       <c r="G83" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H83" s="289"/>
       <c r="I83" s="289"/>
       <c r="J83" s="289"/>
       <c r="K83" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L83" s="74" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="84" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B84" s="289"/>
       <c r="C84" s="290" t="s">
-        <v>1722</v>
+        <v>1786</v>
       </c>
       <c r="D84" s="289" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="E84" s="289" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="F84" s="290" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="G84" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H84" s="289"/>
       <c r="I84" s="289"/>
       <c r="J84" s="289"/>
       <c r="K84" s="290" t="s">
-        <v>1997</v>
+        <v>1857</v>
       </c>
       <c r="L84" s="74" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B85" s="289"/>
       <c r="C85" s="290" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="D85" s="289" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="E85" s="289" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="F85" s="290" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="G85" s="289" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H85" s="289"/>
       <c r="I85" s="289"/>
       <c r="J85" s="289"/>
       <c r="K85" s="290" t="s">
-        <v>1862</v>
+        <v>1992</v>
       </c>
       <c r="L85" s="74" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B86" s="289"/>
       <c r="C86" s="290" t="s">
-        <v>1789</v>
+        <v>1724</v>
       </c>
       <c r="D86" s="289" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="E86" s="289" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="F86" s="290" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G86" s="289"/>
+        <v>1725</v>
+      </c>
+      <c r="G86" s="289" t="s">
+        <v>1496</v>
+      </c>
       <c r="H86" s="289"/>
       <c r="I86" s="289"/>
       <c r="J86" s="289"/>
       <c r="K86" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L86" s="74" t="s">
-        <v>2040</v>
-      </c>
-      <c r="Q86" s="276"/>
-    </row>
-    <row r="87" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B87" s="289"/>
       <c r="C87" s="290" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D87" s="289" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="E87" s="289" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="F87" s="290" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="G87" s="289"/>
       <c r="H87" s="289"/>
       <c r="I87" s="289"/>
       <c r="J87" s="289"/>
       <c r="K87" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L87" s="74" t="s">
-        <v>2040</v>
-      </c>
+        <v>2034</v>
+      </c>
+      <c r="Q87" s="276"/>
     </row>
     <row r="88" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A88" s="295" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B88" s="295"/>
-      <c r="C88" s="296" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D88" s="295" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E88" s="295" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F88" s="296" t="s">
-        <v>1739</v>
-      </c>
-      <c r="G88" s="295"/>
-      <c r="H88" s="295"/>
-      <c r="I88" s="295"/>
-      <c r="J88" s="295"/>
+      <c r="A88" s="289" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B88" s="289"/>
+      <c r="C88" s="290" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D88" s="289" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E88" s="289" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F88" s="290" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G88" s="289"/>
+      <c r="H88" s="289"/>
+      <c r="I88" s="289"/>
+      <c r="J88" s="289"/>
       <c r="K88" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L88" s="74" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A89" s="289" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B89" s="289"/>
-      <c r="C89" s="290" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D89" s="289" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E89" s="289" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F89" s="290" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G89" s="289"/>
-      <c r="H89" s="289"/>
-      <c r="I89" s="289"/>
-      <c r="J89" s="289"/>
+      <c r="A89" s="295" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B89" s="295"/>
+      <c r="C89" s="296" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D89" s="295" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E89" s="295" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F89" s="296" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G89" s="295"/>
+      <c r="H89" s="295"/>
+      <c r="I89" s="295"/>
+      <c r="J89" s="295"/>
       <c r="K89" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L89" s="74" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="90" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B90" s="289"/>
       <c r="C90" s="290" t="s">
-        <v>1792</v>
+        <v>1740</v>
       </c>
       <c r="D90" s="289" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="E90" s="289" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="F90" s="290" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="G90" s="289"/>
       <c r="H90" s="289"/>
       <c r="I90" s="289"/>
       <c r="J90" s="289"/>
       <c r="K90" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L90" s="74" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="91" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B91" s="289"/>
       <c r="C91" s="290" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D91" s="289" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="E91" s="289" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="F91" s="290" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
       <c r="G91" s="289"/>
       <c r="H91" s="289"/>
       <c r="I91" s="289"/>
       <c r="J91" s="289"/>
       <c r="K91" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L91" s="74" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="92" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B92" s="289"/>
       <c r="C92" s="290" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D92" s="289" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="E92" s="289" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="F92" s="290" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="G92" s="289"/>
       <c r="H92" s="289"/>
       <c r="I92" s="289"/>
       <c r="J92" s="289"/>
       <c r="K92" s="290" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="L92" s="74" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B93" s="289"/>
       <c r="C93" s="290" t="s">
-        <v>1736</v>
+        <v>1792</v>
       </c>
       <c r="D93" s="289" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
       <c r="E93" s="289" t="s">
-        <v>1735</v>
+        <v>1749</v>
       </c>
       <c r="F93" s="290" t="s">
-        <v>1737</v>
+        <v>1750</v>
       </c>
       <c r="G93" s="289"/>
       <c r="H93" s="289"/>
       <c r="I93" s="289"/>
       <c r="J93" s="289"/>
-      <c r="K93" s="331" t="s">
-        <v>1798</v>
+      <c r="K93" s="290" t="s">
+        <v>1857</v>
       </c>
       <c r="L93" s="74" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" s="142" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="289" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B94" s="289"/>
       <c r="C94" s="290" t="s">
-        <v>1755</v>
+        <v>1734</v>
       </c>
       <c r="D94" s="289" t="s">
-        <v>1753</v>
+        <v>1732</v>
       </c>
       <c r="E94" s="289" t="s">
-        <v>1754</v>
+        <v>1733</v>
       </c>
       <c r="F94" s="290" t="s">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="G94" s="289"/>
       <c r="H94" s="289"/>
       <c r="I94" s="289"/>
       <c r="J94" s="289"/>
-      <c r="K94" s="290" t="s">
-        <v>2042</v>
-      </c>
-      <c r="L94" s="290" t="s">
-        <v>1799</v>
-      </c>
-      <c r="M94" s="74"/>
-      <c r="N94" s="74"/>
-      <c r="O94" s="74"/>
-      <c r="P94" s="74"/>
-      <c r="Q94" s="74"/>
-      <c r="R94" s="74"/>
-      <c r="S94" s="74"/>
-      <c r="T94" s="74"/>
-      <c r="U94" s="74"/>
-      <c r="V94" s="74"/>
-      <c r="W94" s="74"/>
-      <c r="X94" s="74"/>
-    </row>
-    <row r="95" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K94" s="331" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L94" s="74" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" s="142" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="289" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B95" s="289" t="s">
-        <v>731</v>
-      </c>
-      <c r="C95" s="294" t="s">
-        <v>1854</v>
+        <v>1797</v>
+      </c>
+      <c r="B95" s="289"/>
+      <c r="C95" s="290" t="s">
+        <v>1753</v>
       </c>
       <c r="D95" s="289" t="s">
-        <v>1846</v>
+        <v>1751</v>
       </c>
       <c r="E95" s="289" t="s">
-        <v>1847</v>
+        <v>1752</v>
       </c>
       <c r="F95" s="290" t="s">
-        <v>1848</v>
+        <v>1753</v>
       </c>
       <c r="G95" s="289"/>
       <c r="H95" s="289"/>
-      <c r="I95" s="289">
-        <v>1983</v>
-      </c>
+      <c r="I95" s="289"/>
       <c r="J95" s="289"/>
       <c r="K95" s="290" t="s">
-        <v>2044</v>
-      </c>
-      <c r="L95" s="74" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>2036</v>
+      </c>
+      <c r="L95" s="290" t="s">
+        <v>1796</v>
+      </c>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="74"/>
+      <c r="P95" s="74"/>
+      <c r="Q95" s="74"/>
+      <c r="R95" s="74"/>
+      <c r="S95" s="74"/>
+      <c r="T95" s="74"/>
+      <c r="U95" s="74"/>
+      <c r="V95" s="74"/>
+      <c r="W95" s="74"/>
+      <c r="X95" s="74"/>
+    </row>
+    <row r="96" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B96" s="289" t="s">
         <v>731</v>
       </c>
       <c r="C96" s="294" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="D96" s="289" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="E96" s="289" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="F96" s="290" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="G96" s="289"/>
-      <c r="H96" s="293">
-        <v>2013</v>
-      </c>
-      <c r="I96" s="293">
-        <v>2015</v>
+      <c r="H96" s="289"/>
+      <c r="I96" s="289">
+        <v>1983</v>
       </c>
       <c r="J96" s="289"/>
-      <c r="K96" s="294" t="s">
-        <v>1856</v>
+      <c r="K96" s="290" t="s">
+        <v>2038</v>
       </c>
       <c r="L96" s="74" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B97" s="289" t="s">
         <v>731</v>
       </c>
       <c r="C97" s="294" t="s">
-        <v>1956</v>
+        <v>1850</v>
       </c>
       <c r="D97" s="289" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E97" s="289"/>
+        <v>1844</v>
+      </c>
+      <c r="E97" s="289" t="s">
+        <v>1845</v>
+      </c>
       <c r="F97" s="290" t="s">
-        <v>1960</v>
+        <v>1846</v>
       </c>
       <c r="G97" s="289"/>
-      <c r="H97" s="293"/>
-      <c r="I97" s="293"/>
-      <c r="J97" s="289" t="s">
-        <v>1958</v>
-      </c>
+      <c r="H97" s="293">
+        <v>2013</v>
+      </c>
+      <c r="I97" s="293">
+        <v>2015</v>
+      </c>
+      <c r="J97" s="289"/>
       <c r="K97" s="294" t="s">
-        <v>1957</v>
+        <v>1851</v>
       </c>
       <c r="L97" s="74" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B98" s="289" t="s">
         <v>731</v>
       </c>
       <c r="C98" s="294" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D98" s="289" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E98" s="289"/>
+      <c r="F98" s="290" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G98" s="289"/>
+      <c r="H98" s="293"/>
+      <c r="I98" s="293"/>
+      <c r="J98" s="289" t="s">
+        <v>1953</v>
+      </c>
+      <c r="K98" s="294" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L98" s="74" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="289" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B99" s="289" t="s">
+        <v>731</v>
+      </c>
+      <c r="C99" s="294" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D99" s="289" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E99" s="289" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F99" s="290" t="s">
         <v>1603</v>
       </c>
-      <c r="D98" s="289" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E98" s="289" t="s">
-        <v>1853</v>
-      </c>
-      <c r="F98" s="290" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G98" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H98" s="289">
+      <c r="G99" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H99" s="289">
         <v>2000</v>
       </c>
-      <c r="I98" s="289">
+      <c r="I99" s="289">
         <v>2015</v>
       </c>
-      <c r="J98" s="289" t="s">
+      <c r="J99" s="289" t="s">
         <v>1183</v>
       </c>
-      <c r="K98" s="291" t="s">
+      <c r="K99" s="291" t="s">
         <v>875</v>
       </c>
-      <c r="L98" s="74" t="s">
+      <c r="L99" s="74" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="289" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B99" s="289" t="s">
+    <row r="100" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A100" s="289" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B100" s="289" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C100" s="290" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D100" s="289" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E100" s="289" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F100" s="290" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G100" s="289" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H100" s="289">
+        <v>2011</v>
+      </c>
+      <c r="I100" s="289">
+        <v>2011</v>
+      </c>
+      <c r="J100" s="289"/>
+      <c r="K100" s="291" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L100" s="291" t="s">
         <v>1506</v>
       </c>
-      <c r="C99" s="290" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D99" s="289" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E99" s="289" t="s">
-        <v>1833</v>
-      </c>
-      <c r="F99" s="290" t="s">
+    </row>
+    <row r="101" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="289" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B101" s="289" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C101" s="290" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D101" s="289" t="s">
         <v>1514</v>
       </c>
-      <c r="G99" s="289" t="s">
-        <v>1756</v>
-      </c>
-      <c r="H99" s="289">
-        <v>2011</v>
-      </c>
-      <c r="I99" s="289">
-        <v>2011</v>
-      </c>
-      <c r="J99" s="289"/>
-      <c r="K99" s="291" t="s">
-        <v>1464</v>
-      </c>
-      <c r="L99" s="291" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="289" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B100" s="289" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C100" s="290" t="s">
+      <c r="E101" s="289" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F101" s="290" t="s">
         <v>1515</v>
       </c>
-      <c r="D100" s="289" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E100" s="289" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F100" s="290" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G100" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H100" s="289">
+      <c r="G101" s="289" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H101" s="289">
         <v>2008</v>
       </c>
-      <c r="I100" s="289">
+      <c r="I101" s="289">
         <v>2012</v>
       </c>
-      <c r="J100" s="289"/>
-      <c r="K100" s="290" t="s">
-        <v>1518</v>
-      </c>
-      <c r="L100" s="74" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="289" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B101" s="289" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C101" s="290" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D101" s="289" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E101" s="289" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F101" s="290" t="s">
-        <v>1826</v>
-      </c>
-      <c r="G101" s="289" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H101" s="289"/>
-      <c r="I101" s="289"/>
       <c r="J101" s="289"/>
       <c r="K101" s="290" t="s">
-        <v>1843</v>
+        <v>1516</v>
       </c>
       <c r="L101" s="74" t="s">
-        <v>2045</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="102" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B102" s="289" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C102" s="290" t="s">
-        <v>1829</v>
+        <v>2084</v>
       </c>
       <c r="D102" s="289" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="E102" s="289" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="F102" s="290" t="s">
-        <v>1840</v>
+        <v>1823</v>
       </c>
       <c r="G102" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H102" s="289"/>
-      <c r="I102" s="289">
-        <v>2017</v>
-      </c>
+      <c r="I102" s="289"/>
       <c r="J102" s="289"/>
       <c r="K102" s="290" t="s">
-        <v>2059</v>
+        <v>1838</v>
       </c>
       <c r="L102" s="74" t="s">
-        <v>2058</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="103" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B103" s="289" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C103" s="290" t="s">
-        <v>1832</v>
+        <v>2083</v>
       </c>
       <c r="D103" s="289" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="E103" s="289" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="F103" s="290" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="G103" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H103" s="289"/>
       <c r="I103" s="289">
@@ -17946,145 +18009,145 @@
       </c>
       <c r="J103" s="289"/>
       <c r="K103" s="290" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="L103" s="74" t="s">
-        <v>2057</v>
-      </c>
-      <c r="M103" s="142"/>
-      <c r="N103" s="142"/>
-      <c r="O103" s="142"/>
-      <c r="P103" s="142"/>
-      <c r="Q103" s="142"/>
-      <c r="R103" s="142"/>
-      <c r="S103" s="142"/>
-      <c r="T103" s="142"/>
-      <c r="U103" s="142"/>
-      <c r="V103" s="142"/>
-      <c r="W103" s="142"/>
-      <c r="X103" s="142"/>
+        <v>2052</v>
+      </c>
     </row>
     <row r="104" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B104" s="289" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C104" s="290" t="s">
-        <v>1836</v>
+        <v>2082</v>
       </c>
       <c r="D104" s="289" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="E104" s="289" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="F104" s="290" t="s">
         <v>1836</v>
       </c>
       <c r="G104" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H104" s="289"/>
       <c r="I104" s="289">
-        <v>1983</v>
+        <v>2017</v>
       </c>
       <c r="J104" s="289"/>
       <c r="K104" s="290" t="s">
         <v>2054</v>
       </c>
       <c r="L104" s="74" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>2051</v>
+      </c>
+      <c r="M104" s="142"/>
+      <c r="N104" s="142"/>
+      <c r="O104" s="142"/>
+      <c r="P104" s="142"/>
+      <c r="Q104" s="142"/>
+      <c r="R104" s="142"/>
+      <c r="S104" s="142"/>
+      <c r="T104" s="142"/>
+      <c r="U104" s="142"/>
+      <c r="V104" s="142"/>
+      <c r="W104" s="142"/>
+      <c r="X104" s="142"/>
+    </row>
+    <row r="105" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="289" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B105" s="289" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C105" s="290" t="s">
-        <v>1839</v>
+        <v>2081</v>
       </c>
       <c r="D105" s="289" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="E105" s="289" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="F105" s="290" t="s">
-        <v>1842</v>
+        <v>1831</v>
       </c>
       <c r="G105" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H105" s="289"/>
-      <c r="I105" s="289" t="s">
-        <v>1844</v>
+      <c r="I105" s="289">
+        <v>1983</v>
       </c>
       <c r="J105" s="289"/>
       <c r="K105" s="290" t="s">
-        <v>1464</v>
+        <v>2048</v>
       </c>
       <c r="L105" s="74" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="289" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B106" s="289"/>
+        <v>1489</v>
+      </c>
+      <c r="B106" s="289" t="s">
+        <v>1504</v>
+      </c>
       <c r="C106" s="290" t="s">
-        <v>1455</v>
+        <v>1834</v>
       </c>
       <c r="D106" s="289" t="s">
-        <v>1458</v>
+        <v>1832</v>
       </c>
       <c r="E106" s="289" t="s">
-        <v>1120</v>
+        <v>1833</v>
       </c>
       <c r="F106" s="290" t="s">
-        <v>1461</v>
+        <v>1837</v>
       </c>
       <c r="G106" s="289" t="s">
-        <v>1756</v>
-      </c>
-      <c r="H106" s="289">
-        <v>2011</v>
-      </c>
-      <c r="I106" s="289">
-        <v>2015</v>
+        <v>1422</v>
+      </c>
+      <c r="H106" s="289"/>
+      <c r="I106" s="289" t="s">
+        <v>1839</v>
       </c>
       <c r="J106" s="289"/>
       <c r="K106" s="290" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="L106" s="74" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="289" t="s">
         <v>1228</v>
       </c>
       <c r="B107" s="289"/>
       <c r="C107" s="290" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D107" s="289" t="s">
         <v>1456</v>
       </c>
-      <c r="D107" s="289" t="s">
-        <v>1460</v>
-      </c>
       <c r="E107" s="289" t="s">
-        <v>1633</v>
+        <v>1120</v>
       </c>
       <c r="F107" s="290" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="G107" s="289" t="s">
-        <v>1424</v>
+        <v>1754</v>
       </c>
       <c r="H107" s="289">
         <v>2011</v>
@@ -18094,36 +18157,31 @@
       </c>
       <c r="J107" s="289"/>
       <c r="K107" s="290" t="s">
-        <v>42</v>
+        <v>1462</v>
       </c>
       <c r="L107" s="74" t="s">
-        <v>2032</v>
-      </c>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-    </row>
-    <row r="108" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="289" t="s">
         <v>1228</v>
       </c>
       <c r="B108" s="289"/>
       <c r="C108" s="290" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D108" s="289" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E108" s="289" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="F108" s="290" t="s">
-        <v>1859</v>
+        <v>1460</v>
       </c>
       <c r="G108" s="289" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H108" s="289">
         <v>2011</v>
@@ -18133,10 +18191,10 @@
       </c>
       <c r="J108" s="289"/>
       <c r="K108" s="290" t="s">
-        <v>1463</v>
+        <v>42</v>
       </c>
       <c r="L108" s="74" t="s">
-        <v>2055</v>
+        <v>2026</v>
       </c>
       <c r="M108" s="74"/>
       <c r="N108" s="74"/>
@@ -18150,36 +18208,75 @@
       </c>
       <c r="B109" s="289"/>
       <c r="C109" s="290" t="s">
-        <v>1121</v>
+        <v>1455</v>
       </c>
       <c r="D109" s="289" t="s">
-        <v>1857</v>
+        <v>1457</v>
       </c>
       <c r="E109" s="289" t="s">
-        <v>1122</v>
+        <v>1632</v>
       </c>
       <c r="F109" s="290" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G109" s="289"/>
+        <v>1854</v>
+      </c>
+      <c r="G109" s="289" t="s">
+        <v>1422</v>
+      </c>
       <c r="H109" s="289">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I109" s="289">
         <v>2015</v>
       </c>
       <c r="J109" s="289"/>
       <c r="K109" s="290" t="s">
-        <v>875</v>
+        <v>1461</v>
       </c>
       <c r="L109" s="74" t="s">
-        <v>1128</v>
+        <v>2049</v>
       </c>
       <c r="M109" s="74"/>
       <c r="N109" s="74"/>
       <c r="O109" s="74"/>
       <c r="P109" s="74"/>
       <c r="Q109" s="74"/>
+    </row>
+    <row r="110" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="289" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B110" s="289"/>
+      <c r="C110" s="290" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D110" s="289" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E110" s="289" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F110" s="290" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G110" s="289"/>
+      <c r="H110" s="289">
+        <v>2010</v>
+      </c>
+      <c r="I110" s="289">
+        <v>2015</v>
+      </c>
+      <c r="J110" s="289"/>
+      <c r="K110" s="290" t="s">
+        <v>875</v>
+      </c>
+      <c r="L110" s="74" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="74"/>
+      <c r="Q110" s="74"/>
     </row>
   </sheetData>
   <sortState ref="A2:K99">
@@ -18188,7 +18285,7 @@
   </sortState>
   <phoneticPr fontId="60" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K93" r:id="rId1"/>
+    <hyperlink ref="K94" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" fitToHeight="5" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -18343,7 +18440,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -18351,26 +18448,26 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B17" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C18" t="s">
         <v>1522</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -18378,10 +18475,10 @@
         <v>1337</v>
       </c>
       <c r="B19" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C19" s="252" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -19048,10 +19145,10 @@
       <c r="C26" s="395"/>
       <c r="D26" s="396"/>
       <c r="E26" s="267" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F26" s="267" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G26" s="267" t="s">
         <v>875</v>
@@ -19147,7 +19244,7 @@
         <v>532</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19174,7 +19271,7 @@
       <c r="K31" s="398"/>
       <c r="L31" s="398"/>
       <c r="M31" s="75" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19201,7 +19298,7 @@
       <c r="K32" s="398"/>
       <c r="L32" s="398"/>
       <c r="M32" s="75" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19879,7 +19976,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="453" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -19895,7 +19992,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="408" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19911,7 +20008,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="471" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19931,7 +20028,7 @@
         <v>172</v>
       </c>
       <c r="B14" s="453" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19947,7 +20044,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="436" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19967,7 +20064,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="323" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19975,7 +20072,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="408" t="s">
-        <v>1986</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20015,7 +20112,7 @@
         <v>860</v>
       </c>
       <c r="B30" s="475" t="s">
-        <v>1987</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20171,7 +20268,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="281" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -20189,7 +20286,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="347" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -20423,7 +20520,7 @@
         <v>170</v>
       </c>
       <c r="H18" s="343" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -20535,7 +20632,7 @@
         <v>263</v>
       </c>
       <c r="H24" s="280" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -20633,7 +20730,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="362" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -21011,10 +21108,10 @@
         <v>806</v>
       </c>
       <c r="D2" s="496" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="E2" s="302" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21027,7 +21124,7 @@
       </c>
       <c r="D3" s="496"/>
       <c r="E3" s="497" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21047,13 +21144,13 @@
         <v>432</v>
       </c>
       <c r="C5" s="301" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="D5" s="303" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="E5" s="304" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21065,7 +21162,7 @@
         <v>851</v>
       </c>
       <c r="D6" s="303" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="E6" s="304"/>
     </row>
@@ -21078,7 +21175,7 @@
         <v>852</v>
       </c>
       <c r="D7" s="303" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="E7" s="305"/>
     </row>
@@ -21088,10 +21185,10 @@
         <v>167</v>
       </c>
       <c r="C8" s="301" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="D8" s="303" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="E8" s="305"/>
     </row>
@@ -21106,10 +21203,10 @@
         <v>39</v>
       </c>
       <c r="D9" s="307" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="E9" s="308" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -21121,10 +21218,10 @@
         <v>813</v>
       </c>
       <c r="D10" s="307" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="E10" s="309" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21138,10 +21235,10 @@
         <v>849</v>
       </c>
       <c r="D11" s="311" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="E11" s="312" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21153,23 +21250,23 @@
         <v>0</v>
       </c>
       <c r="D12" s="311" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="E12" s="313" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="499"/>
       <c r="B13" s="500"/>
       <c r="C13" s="310" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="D13" s="311" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="313" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21181,17 +21278,17 @@
         <v>814</v>
       </c>
       <c r="D14" s="311" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="E14" s="314"/>
     </row>
     <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A15" s="499"/>
       <c r="B15" s="310" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C15" s="310" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="D15" s="311" t="s">
         <v>875</v>
@@ -21225,7 +21322,7 @@
         <v>884</v>
       </c>
       <c r="E17" s="317" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="52" x14ac:dyDescent="0.2">
@@ -21234,13 +21331,13 @@
         <v>787</v>
       </c>
       <c r="C18" s="315" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="D18" s="316" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="E18" s="318" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
@@ -21252,7 +21349,7 @@
         <v>856</v>
       </c>
       <c r="D19" s="316" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="E19" s="319"/>
     </row>
@@ -21281,13 +21378,13 @@
         <v>465</v>
       </c>
       <c r="C21" s="310" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="D21" s="311" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="E21" s="502" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -21309,7 +21406,7 @@
         <v>462</v>
       </c>
       <c r="C23" s="310" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="D23" s="311" t="s">
         <v>862</v>
@@ -21322,13 +21419,13 @@
         <v>285</v>
       </c>
       <c r="C24" s="310" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="D24" s="311" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="E24" s="313" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -21337,13 +21434,13 @@
         <v>286</v>
       </c>
       <c r="C25" s="310" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="D25" s="311" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="E25" s="313" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="65" x14ac:dyDescent="0.2">
@@ -21355,10 +21452,10 @@
         <v>857</v>
       </c>
       <c r="D26" s="311" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="E26" s="313" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -21367,10 +21464,10 @@
         <v>882</v>
       </c>
       <c r="C27" s="310" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="D27" s="311" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="E27" s="314"/>
     </row>
@@ -21380,10 +21477,10 @@
         <v>787</v>
       </c>
       <c r="C28" s="310" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="D28" s="311" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="E28" s="314"/>
     </row>
@@ -21396,7 +21493,7 @@
         <v>777</v>
       </c>
       <c r="D29" s="311" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="E29" s="314"/>
     </row>
@@ -21409,18 +21506,18 @@
         <v>778</v>
       </c>
       <c r="D30" s="311" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="E30" s="314"/>
     </row>
     <row r="31" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="499"/>
       <c r="B31" s="310" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="C31" s="310"/>
       <c r="D31" s="311" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="E31" s="314"/>
     </row>
@@ -21432,13 +21529,13 @@
         <v>546</v>
       </c>
       <c r="C32" s="504" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="D32" s="505" t="s">
         <v>1333</v>
       </c>
       <c r="E32" s="317" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21447,7 +21544,7 @@
       <c r="C33" s="504"/>
       <c r="D33" s="505"/>
       <c r="E33" s="318" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21459,10 +21556,10 @@
         <v>173</v>
       </c>
       <c r="D34" s="316" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="E34" s="318" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -21471,13 +21568,13 @@
         <v>547</v>
       </c>
       <c r="C35" s="315" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="D35" s="316" t="s">
         <v>830</v>
       </c>
       <c r="E35" s="318" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -21511,7 +21608,7 @@
         <v>877</v>
       </c>
       <c r="E37" s="312" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -21520,7 +21617,7 @@
       <c r="C38" s="500"/>
       <c r="D38" s="506"/>
       <c r="E38" s="313" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -21529,7 +21626,7 @@
       <c r="C39" s="500"/>
       <c r="D39" s="506"/>
       <c r="E39" s="313" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -21538,7 +21635,7 @@
       <c r="C40" s="500"/>
       <c r="D40" s="506"/>
       <c r="E40" s="313" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -21547,7 +21644,7 @@
       <c r="C41" s="500"/>
       <c r="D41" s="506"/>
       <c r="E41" s="313" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -21556,7 +21653,7 @@
       <c r="C42" s="500"/>
       <c r="D42" s="506"/>
       <c r="E42" s="313" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21565,7 +21662,7 @@
         <v>515</v>
       </c>
       <c r="C43" s="310" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="D43" s="311" t="s">
         <v>877</v>
@@ -21581,10 +21678,10 @@
         <v>678</v>
       </c>
       <c r="D44" s="311" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="E44" s="312" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21593,13 +21690,13 @@
         <v>509</v>
       </c>
       <c r="C45" s="310" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="D45" s="311" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="E45" s="313" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21608,13 +21705,13 @@
         <v>839</v>
       </c>
       <c r="C46" s="310" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="D46" s="311" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="E46" s="313" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21628,10 +21725,10 @@
         <v>805</v>
       </c>
       <c r="D47" s="316" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="E47" s="317" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -21646,7 +21743,7 @@
         <v>874</v>
       </c>
       <c r="E48" s="318" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -21655,7 +21752,7 @@
       <c r="C49" s="504"/>
       <c r="D49" s="505"/>
       <c r="E49" s="318" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -21664,7 +21761,7 @@
       <c r="C50" s="504"/>
       <c r="D50" s="505"/>
       <c r="E50" s="318" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21673,13 +21770,13 @@
         <v>502</v>
       </c>
       <c r="C51" s="315" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="D51" s="316" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="E51" s="318" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21696,13 +21793,13 @@
         <v>836</v>
       </c>
       <c r="E52" s="312" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="507"/>
       <c r="B53" s="310" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="C53" s="310" t="s">
         <v>847</v>
@@ -21711,7 +21808,7 @@
         <v>837</v>
       </c>
       <c r="E53" s="313" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21726,7 +21823,7 @@
         <v>837</v>
       </c>
       <c r="E54" s="313" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21750,26 +21847,26 @@
         <v>845</v>
       </c>
       <c r="C56" s="315" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="D56" s="316" t="s">
         <v>878</v>
       </c>
       <c r="E56" s="317" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="501"/>
       <c r="B57" s="504"/>
       <c r="C57" s="315" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="D57" s="316" t="s">
         <v>875</v>
       </c>
       <c r="E57" s="318" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21778,13 +21875,13 @@
         <v>834</v>
       </c>
       <c r="C58" s="315" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="D58" s="316" t="s">
         <v>875</v>
       </c>
       <c r="E58" s="318" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
     </row>
   </sheetData>
@@ -25137,7 +25234,7 @@
         <v>501</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="G33" s="121" t="s">
         <v>86</v>
@@ -26683,7 +26780,7 @@
         <v>650</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C28" s="74" t="s">
         <v>587</v>
@@ -26761,7 +26858,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="74" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C34" s="74" t="s">
         <v>587</v>
@@ -27999,7 +28096,7 @@
         <v>1185</v>
       </c>
       <c r="I45" s="215" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="J45" s="215"/>
       <c r="K45" s="215"/>
@@ -28054,12 +28151,12 @@
         <v>1156</v>
       </c>
       <c r="I47" s="209" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J47" s="209"/>
       <c r="K47" s="209"/>
       <c r="M47" s="189" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="P47" s="210"/>
       <c r="T47" s="189" t="s">
@@ -28278,10 +28375,10 @@
     </row>
     <row r="59" spans="1:27" s="189" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="E59" s="189" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G59" s="209" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H59" s="209"/>
       <c r="I59" s="210"/>
@@ -28598,7 +28695,7 @@
     </row>
     <row r="79" spans="1:19" s="189" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B79" s="189" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E79" s="189" t="s">
         <v>1087</v>
@@ -28855,13 +28952,13 @@
     </row>
     <row r="92" spans="1:20" s="189" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E92" s="189" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G92" s="189" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H92" s="189" t="s">
         <v>1391</v>
-      </c>
-      <c r="G92" s="189" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H92" s="189" t="s">
-        <v>1393</v>
       </c>
       <c r="I92" s="209"/>
       <c r="J92" s="209"/>
@@ -28869,13 +28966,13 @@
     </row>
     <row r="93" spans="1:20" s="189" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E93" s="189" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G93" s="189" t="s">
         <v>1415</v>
       </c>
-      <c r="G93" s="189" t="s">
-        <v>1417</v>
-      </c>
       <c r="H93" s="189" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I93" s="209"/>
       <c r="J93" s="209"/>
@@ -28934,25 +29031,25 @@
     </row>
     <row r="96" spans="1:20" s="189" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="189" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E96" s="189" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F96" s="189" t="s">
         <v>1447</v>
-      </c>
-      <c r="E96" s="189" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F96" s="189" t="s">
-        <v>1449</v>
       </c>
       <c r="G96" s="189" t="s">
         <v>620</v>
       </c>
       <c r="H96" s="189" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I96" s="209" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J96" s="209" t="s">
         <v>1450</v>
-      </c>
-      <c r="I96" s="209" t="s">
-        <v>1451</v>
-      </c>
-      <c r="J96" s="209" t="s">
-        <v>1452</v>
       </c>
       <c r="K96" s="209">
         <v>1998</v>
@@ -29015,14 +29112,14 @@
         <v>941</v>
       </c>
       <c r="F99" s="74" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G99" s="189" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="H99" s="74"/>
       <c r="I99" s="28" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J99" s="74"/>
       <c r="K99" s="74"/>
@@ -46015,10 +46112,10 @@
     </row>
     <row r="131" spans="2:28" x14ac:dyDescent="0.2">
       <c r="E131" s="196" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="G131" s="196" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="132" spans="2:28" x14ac:dyDescent="0.2">
@@ -46026,19 +46123,19 @@
     </row>
     <row r="133" spans="2:28" ht="48" x14ac:dyDescent="0.2">
       <c r="E133" s="196" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F133" s="196" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G133" s="196" t="s">
         <v>1507</v>
       </c>
-      <c r="F133" s="196" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G133" s="196" t="s">
-        <v>1509</v>
-      </c>
       <c r="H133" s="196" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I133" s="206" t="s">
         <v>1508</v>
-      </c>
-      <c r="I133" s="206" t="s">
-        <v>1510</v>
       </c>
       <c r="K133" s="206">
         <v>2011</v>
@@ -46745,10 +46842,10 @@
       <c r="C26" s="395"/>
       <c r="D26" s="396"/>
       <c r="E26" s="262" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F26" s="262" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G26" s="262" t="s">
         <v>875</v>
@@ -46844,7 +46941,7 @@
         <v>532</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -46871,7 +46968,7 @@
       <c r="K31" s="398"/>
       <c r="L31" s="398"/>
       <c r="M31" s="75" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -46898,7 +46995,7 @@
       <c r="K32" s="398"/>
       <c r="L32" s="398"/>
       <c r="M32" s="75" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="4360" windowWidth="21080" windowHeight="17460" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="-29900" yWindow="-2800" windowWidth="30420" windowHeight="17460" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4327" uniqueCount="2097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4335" uniqueCount="2102">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -7634,9 +7634,6 @@
     <t>ESA species status</t>
   </si>
   <si>
-    <t>Biogeographic assessment for marine mammal species present in Hawaii, ESA listing for marine mammals, turtles, marine birds, and coastal/sand dune plants</t>
-  </si>
-  <si>
     <t>CW/BD</t>
   </si>
   <si>
@@ -9047,18 +9044,9 @@
     <t>ESA coastal plant status</t>
   </si>
   <si>
-    <t>http://www.fisheries.noaa.gov/pr/sars/species.htm#largewhales</t>
-  </si>
-  <si>
     <t>ESA marine mammal status</t>
   </si>
   <si>
-    <t>Status of marine mammals scored based on ESA status</t>
-  </si>
-  <si>
-    <t>Status of coastal sand-dune plants scored based on ESA status</t>
-  </si>
-  <si>
     <t>Fish and Wildlife Service</t>
   </si>
   <si>
@@ -9390,6 +9378,33 @@
   </si>
   <si>
     <t>Report will be out soon</t>
+  </si>
+  <si>
+    <t>List of marine mammals found in Hawaii and status of marine mammals scored based on ESA status.</t>
+  </si>
+  <si>
+    <t>http://www.fisheries.noaa.gov/pr/sars/species.htm#largewhales; https://ecos.fws.gov/ecp/</t>
+  </si>
+  <si>
+    <t>US Fish and Wildlife Service; NOAA Hawaii marine mammal list</t>
+  </si>
+  <si>
+    <t>List of Hawaii coastal plant species and status of coastal sand-dune plants scored based on ESA status</t>
+  </si>
+  <si>
+    <t>Biogeographic assessment for marine mammal, turtle, and bird species present in Hawaii, ESA listing for marine mammals, turtles, and coastal/sand dune plants, and ESA and Bird Watch listings for marine birds (seabirds and shorebirds)</t>
+  </si>
+  <si>
+    <t>10/30/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spent the week updating website goals documentation and report documentation </t>
+  </si>
+  <si>
+    <t>send email to Ivor Williams requestion harvest fish biomass scores - he does not have modeled harvest fish biomass or pristine harvest fish biomass - sent me to Kosta</t>
+  </si>
+  <si>
+    <t>emailed Kosta Stamoulis for a draft of his paper modeling fish biomass in the Main Hawaiian Islands; emailed joey for help of the access scores</t>
   </si>
 </sst>
 </file>
@@ -12184,7 +12199,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I5" s="347" t="s">
         <v>97</v>
@@ -12208,7 +12223,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="347" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="I6" s="347"/>
       <c r="J6" s="347"/>
@@ -12486,7 +12501,7 @@
         <v>170</v>
       </c>
       <c r="H18" s="343" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="I18" s="350" t="s">
         <v>45</v>
@@ -12618,7 +12633,7 @@
         <v>263</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="I24" s="362" t="s">
         <v>423</v>
@@ -12734,7 +12749,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="362" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="I29" s="362" t="s">
         <v>420</v>
@@ -13378,18 +13393,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="256" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="256" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B25" s="286" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
   </sheetData>
@@ -13400,10 +13415,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14295,7 +14310,7 @@
         <v>720</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -14303,13 +14318,13 @@
         <v>42921</v>
       </c>
       <c r="B80" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C80" s="28" t="s">
         <v>1523</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="D80" t="s">
         <v>1524</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -14320,7 +14335,7 @@
         <v>690</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -14331,7 +14346,7 @@
         <v>749</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -14342,7 +14357,7 @@
         <v>749</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -14353,15 +14368,15 @@
         <v>749</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -14369,20 +14384,20 @@
         <v>42922</v>
       </c>
       <c r="B86" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C87" s="28" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C88" s="28" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -14393,7 +14408,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -14404,7 +14419,7 @@
         <v>690</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -14415,7 +14430,7 @@
         <v>1502</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -14426,7 +14441,7 @@
         <v>750</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -14434,10 +14449,10 @@
         <v>42933</v>
       </c>
       <c r="B93" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -14445,10 +14460,10 @@
         <v>42940</v>
       </c>
       <c r="B94" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -14456,10 +14471,10 @@
         <v>42940</v>
       </c>
       <c r="B95" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>1577</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -14467,10 +14482,10 @@
         <v>42940</v>
       </c>
       <c r="B96" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C96" s="28" t="s">
         <v>1580</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -14481,7 +14496,7 @@
         <v>113</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -14489,10 +14504,10 @@
         <v>42941</v>
       </c>
       <c r="B98" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14500,10 +14515,10 @@
         <v>42961</v>
       </c>
       <c r="B99" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C99" s="28" t="s">
         <v>1585</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -14511,10 +14526,10 @@
         <v>42962</v>
       </c>
       <c r="B100" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14522,10 +14537,10 @@
         <v>42969</v>
       </c>
       <c r="B101" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="320" x14ac:dyDescent="0.2">
@@ -14536,10 +14551,10 @@
         <v>731</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -14550,7 +14565,7 @@
         <v>731</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -14561,7 +14576,7 @@
         <v>749</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -14572,7 +14587,7 @@
         <v>172</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14583,7 +14598,7 @@
         <v>690</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -14594,7 +14609,7 @@
         <v>690</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -14605,7 +14620,7 @@
         <v>750</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -14613,7 +14628,7 @@
         <v>42977</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14621,10 +14636,10 @@
         <v>42977</v>
       </c>
       <c r="B110" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>1949</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14635,7 +14650,7 @@
         <v>725</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -14646,7 +14661,7 @@
         <v>725</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -14657,7 +14672,7 @@
         <v>725</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14668,10 +14683,10 @@
         <v>731</v>
       </c>
       <c r="C114" s="28" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D114" t="s">
         <v>1954</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -14682,7 +14697,7 @@
         <v>690</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14693,7 +14708,7 @@
         <v>690</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -14704,7 +14719,7 @@
         <v>690</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -14715,95 +14730,136 @@
         <v>690</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B119" t="s">
         <v>749</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="74" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B120" s="74" t="s">
         <v>749</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="74" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B121" s="74" t="s">
         <v>749</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="74" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B122" s="74" t="s">
         <v>749</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="B123" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="B124" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="74" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="B125" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="B126" t="s">
         <v>898</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>2058</v>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="140">
+        <v>42746</v>
+      </c>
+      <c r="B128" t="s">
+        <v>690</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A129" s="140">
+        <v>42746</v>
+      </c>
+      <c r="B129" t="s">
+        <v>720</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="140">
+        <v>42746</v>
+      </c>
+      <c r="B130" t="s">
+        <v>720</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>2101</v>
       </c>
     </row>
   </sheetData>
@@ -14823,9 +14879,9 @@
   </sheetPr>
   <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14849,7 +14905,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="297" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C1" s="298" t="s">
         <v>680</v>
@@ -14858,7 +14914,7 @@
         <v>1353</v>
       </c>
       <c r="E1" s="297" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F1" s="298" t="s">
         <v>1348</v>
@@ -14879,7 +14935,7 @@
         <v>116</v>
       </c>
       <c r="L1" s="326" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -14888,32 +14944,32 @@
       </c>
       <c r="B2" s="289"/>
       <c r="C2" s="290" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D2" s="289" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F2" s="290" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G2" s="289" t="s">
         <v>1421</v>
       </c>
       <c r="H2" s="289"/>
       <c r="I2" s="289" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="J2" s="289" t="s">
         <v>1183</v>
       </c>
       <c r="K2" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -14922,16 +14978,16 @@
       </c>
       <c r="B3" s="289"/>
       <c r="C3" s="290" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D3" s="289" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E3" s="289" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F3" s="290" t="s">
         <v>1589</v>
-      </c>
-      <c r="D3" s="289" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E3" s="289" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F3" s="290" t="s">
-        <v>1590</v>
       </c>
       <c r="G3" s="289" t="s">
         <v>1421</v>
@@ -14946,10 +15002,10 @@
         <v>964</v>
       </c>
       <c r="K3" s="291" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="L3" s="291" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -14958,16 +15014,16 @@
       </c>
       <c r="B4" s="289"/>
       <c r="C4" s="290" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D4" s="289" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E4" s="289" t="s">
         <v>1593</v>
       </c>
-      <c r="D4" s="289" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E4" s="289" t="s">
+      <c r="F4" s="290" t="s">
         <v>1594</v>
-      </c>
-      <c r="F4" s="290" t="s">
-        <v>1595</v>
       </c>
       <c r="G4" s="289" t="s">
         <v>1421</v>
@@ -14982,7 +15038,7 @@
         <v>1183</v>
       </c>
       <c r="K4" s="291" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="L4" s="291" t="s">
         <v>1128</v>
@@ -14994,31 +15050,31 @@
       </c>
       <c r="B5" s="289"/>
       <c r="C5" s="290" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D5" s="289" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E5" s="289" t="s">
         <v>1596</v>
       </c>
-      <c r="D5" s="289" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E5" s="289" t="s">
-        <v>1597</v>
-      </c>
       <c r="F5" s="290" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G5" s="289" t="s">
         <v>1421</v>
       </c>
       <c r="H5" s="289" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I5" s="289" t="s">
         <v>1433</v>
       </c>
       <c r="J5" s="289" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="K5" s="292" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -15029,13 +15085,13 @@
         <v>750</v>
       </c>
       <c r="C6" s="290" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="F6" s="290" t="s">
         <v>1354</v>
@@ -15062,16 +15118,16 @@
         <v>750</v>
       </c>
       <c r="C7" s="290" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="F7" s="290" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G7" s="289" t="s">
         <v>1421</v>
@@ -15084,10 +15140,10 @@
       </c>
       <c r="J7" s="289"/>
       <c r="K7" s="290" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="L7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -15098,16 +15154,16 @@
         <v>750</v>
       </c>
       <c r="C8" s="290" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D8" s="289" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E8" s="289" t="s">
         <v>1698</v>
       </c>
-      <c r="E8" s="289" t="s">
-        <v>1699</v>
-      </c>
       <c r="F8" s="290" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G8" s="289" t="s">
         <v>1421</v>
@@ -15116,7 +15172,7 @@
       <c r="I8" s="289"/>
       <c r="J8" s="289"/>
       <c r="K8" s="290" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="48" hidden="1" x14ac:dyDescent="0.2">
@@ -15164,7 +15220,7 @@
         <v>1431</v>
       </c>
       <c r="E10" s="289" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F10" s="290" t="s">
         <v>1432</v>
@@ -15173,19 +15229,19 @@
         <v>1421</v>
       </c>
       <c r="H10" s="289" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I10" s="289" t="s">
         <v>1433</v>
       </c>
       <c r="J10" s="289" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="K10" s="290" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="74" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="289" t="s">
         <v>1337</v>
       </c>
@@ -15196,26 +15252,26 @@
         <v>1512</v>
       </c>
       <c r="D11" s="289" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E11" s="289" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F11" s="290" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G11" s="289" t="s">
         <v>1421</v>
       </c>
       <c r="H11" s="289"/>
       <c r="I11" s="289" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J11" s="289" t="s">
         <v>1216</v>
       </c>
       <c r="K11" s="290" t="s">
-        <v>1513</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15226,26 +15282,26 @@
         <v>751</v>
       </c>
       <c r="C12" s="290" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D12" s="289" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E12" s="289" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F12" s="290" t="s">
-        <v>1984</v>
+        <v>2093</v>
       </c>
       <c r="G12" s="289"/>
       <c r="H12" s="289"/>
       <c r="I12" s="289"/>
       <c r="J12" s="289"/>
       <c r="K12" s="290" t="s">
-        <v>1987</v>
+        <v>2095</v>
       </c>
       <c r="L12" s="74" t="s">
-        <v>1982</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15256,26 +15312,26 @@
         <v>751</v>
       </c>
       <c r="C13" s="290" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D13" s="289" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E13" s="289" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F13" s="290" t="s">
-        <v>1985</v>
+        <v>2096</v>
       </c>
       <c r="G13" s="289"/>
       <c r="H13" s="289"/>
       <c r="I13" s="289"/>
       <c r="J13" s="289"/>
       <c r="K13" s="290" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="L13" s="74" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15286,16 +15342,16 @@
         <v>750</v>
       </c>
       <c r="C14" s="290" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="F14" s="290" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G14" s="289"/>
       <c r="H14" s="289">
@@ -15309,7 +15365,7 @@
         <v>949</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15320,23 +15376,23 @@
         <v>750</v>
       </c>
       <c r="C15" s="290" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="F15" s="290" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="G15" s="289"/>
       <c r="H15" s="289"/>
       <c r="I15" s="289"/>
       <c r="J15" s="289"/>
       <c r="K15" s="28" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="L15" s="74" t="s">
         <v>1159</v>
@@ -15350,16 +15406,16 @@
         <v>750</v>
       </c>
       <c r="C16" s="290" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="F16" s="290" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="G16" s="289"/>
       <c r="H16" s="289"/>
@@ -15369,7 +15425,7 @@
         <v>861</v>
       </c>
       <c r="L16" s="74" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -15380,26 +15436,26 @@
         <v>750</v>
       </c>
       <c r="C17" s="290" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="F17" s="296" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="G17" s="295"/>
       <c r="H17" s="295"/>
       <c r="I17" s="295"/>
       <c r="J17" s="295"/>
       <c r="K17" s="149" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="L17" s="142" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -15410,23 +15466,23 @@
         <v>750</v>
       </c>
       <c r="C18" s="290" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="F18" s="329" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G18" s="328"/>
       <c r="H18" s="328"/>
       <c r="I18" s="328"/>
       <c r="J18" s="328"/>
       <c r="K18" s="331" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="74" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -15437,16 +15493,16 @@
         <v>750</v>
       </c>
       <c r="C19" s="290" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="F19" s="290" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="G19" s="289"/>
       <c r="H19" s="289"/>
@@ -15467,16 +15523,16 @@
         <v>750</v>
       </c>
       <c r="C20" s="290" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="F20" s="290" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G20" s="289"/>
       <c r="H20" s="289">
@@ -15490,7 +15546,7 @@
         <v>949</v>
       </c>
       <c r="L20" s="74" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15499,16 +15555,16 @@
       </c>
       <c r="B21" s="289"/>
       <c r="C21" s="290" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="F21" s="290" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G21" s="289"/>
       <c r="H21" s="289">
@@ -15522,7 +15578,7 @@
         <v>949</v>
       </c>
       <c r="L21" s="74" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -15531,29 +15587,29 @@
       </c>
       <c r="B22" s="289"/>
       <c r="C22" s="290" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D22" s="289" t="s">
         <v>1607</v>
       </c>
-      <c r="D22" s="289" t="s">
+      <c r="E22" s="289" t="s">
         <v>1608</v>
       </c>
-      <c r="E22" s="289" t="s">
-        <v>1609</v>
-      </c>
       <c r="F22" s="290" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="G22" s="289" t="s">
         <v>1421</v>
       </c>
       <c r="H22" s="289" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I22" s="289" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J22" s="289"/>
       <c r="K22" s="290" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -15562,26 +15618,26 @@
       </c>
       <c r="B23" s="289"/>
       <c r="C23" s="290" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="D23" s="289" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E23" s="289" t="s">
         <v>1608</v>
       </c>
-      <c r="E23" s="289" t="s">
-        <v>1609</v>
-      </c>
       <c r="F23" s="290" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="G23" s="289"/>
       <c r="H23" s="289"/>
       <c r="I23" s="289"/>
       <c r="J23" s="289"/>
       <c r="K23" s="290" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="L23" s="74" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="74" customFormat="1" ht="144" x14ac:dyDescent="0.2">
@@ -15590,16 +15646,16 @@
       </c>
       <c r="B24" s="289"/>
       <c r="C24" s="290" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="D24" s="289" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E24" s="289" t="s">
         <v>1608</v>
       </c>
-      <c r="E24" s="289" t="s">
-        <v>1609</v>
-      </c>
       <c r="F24" s="290" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="G24" s="289"/>
       <c r="H24" s="289"/>
@@ -15618,16 +15674,16 @@
       </c>
       <c r="B25" s="289"/>
       <c r="C25" s="290" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="141" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E25" s="141" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="F25" s="290" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="G25" s="289"/>
       <c r="H25" s="289"/>
@@ -15646,16 +15702,16 @@
       </c>
       <c r="B26" s="289"/>
       <c r="C26" s="290" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="D26" s="289" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E26" s="289" t="s">
         <v>1608</v>
       </c>
-      <c r="E26" s="289" t="s">
-        <v>1609</v>
-      </c>
       <c r="F26" s="290" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="G26" s="289"/>
       <c r="H26" s="289"/>
@@ -15665,7 +15721,7 @@
         <v>861</v>
       </c>
       <c r="L26" s="74" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -15674,16 +15730,16 @@
       </c>
       <c r="B27" s="289"/>
       <c r="C27" s="290" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E27" s="141" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="F27" s="290" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="G27" s="289"/>
       <c r="H27" s="289"/>
@@ -15702,23 +15758,23 @@
       </c>
       <c r="B28" s="289"/>
       <c r="C28" s="290" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="F28" s="290" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="G28" s="289"/>
       <c r="H28" s="289"/>
       <c r="I28" s="289"/>
       <c r="J28" s="289"/>
       <c r="K28" s="28" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="L28" s="74" t="s">
         <v>1159</v>
@@ -15730,26 +15786,26 @@
       </c>
       <c r="B29" s="328"/>
       <c r="C29" s="329" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="D29" s="330" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="E29" s="330" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="F29" s="329" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="G29" s="328"/>
       <c r="H29" s="328"/>
       <c r="I29" s="328"/>
       <c r="J29" s="328"/>
       <c r="K29" s="331" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="M29" s="330" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="142" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -15758,46 +15814,46 @@
       </c>
       <c r="B30" s="295"/>
       <c r="C30" s="296" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="E30" s="141" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="F30" s="296" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="G30" s="295"/>
       <c r="H30" s="295"/>
       <c r="I30" s="295"/>
       <c r="J30" s="295"/>
       <c r="K30" s="149" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="L30" s="142" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B31" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C31" s="290" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="F31" s="290" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="G31" s="289" t="s">
         <v>1421</v>
@@ -15813,27 +15869,27 @@
         <v>218</v>
       </c>
       <c r="L31" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B32" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C32" s="290" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="D32" s="74" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="F32" s="290" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="G32" s="289"/>
       <c r="H32" s="289"/>
@@ -15843,27 +15899,27 @@
         <v>218</v>
       </c>
       <c r="L32" s="74" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B33" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C33" s="290" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="F33" s="290" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="G33" s="289"/>
       <c r="H33" s="289"/>
@@ -15873,27 +15929,27 @@
         <v>218</v>
       </c>
       <c r="L33" s="74" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B34" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C34" s="290" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="F34" s="290" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="G34" s="289"/>
       <c r="H34" s="289"/>
@@ -15903,27 +15959,27 @@
         <v>218</v>
       </c>
       <c r="L34" s="74" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B35" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C35" s="290" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D35" s="289" t="s">
         <v>1526</v>
       </c>
-      <c r="D35" s="289" t="s">
-        <v>1527</v>
-      </c>
       <c r="E35" s="289" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F35" s="290" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="G35" s="289" t="s">
         <v>1421</v>
@@ -15936,94 +15992,94 @@
       </c>
       <c r="J35" s="289"/>
       <c r="K35" s="290" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B36" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C36" s="290" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="D36" s="289" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E36" s="289" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F36" s="290" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="G36" s="289"/>
       <c r="H36" s="289"/>
       <c r="I36" s="289"/>
       <c r="J36" s="289"/>
       <c r="K36" s="290" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="L36" s="74" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B37" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C37" s="290" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="D37" s="289" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E37" s="289" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F37" s="290" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="G37" s="289"/>
       <c r="H37" s="289"/>
       <c r="I37" s="289"/>
       <c r="J37" s="289"/>
       <c r="K37" s="290" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="L37" s="74" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B38" s="289" t="s">
         <v>690</v>
       </c>
       <c r="C38" s="290" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="D38" s="289" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E38" s="289" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F38" s="290" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="G38" s="289"/>
       <c r="H38" s="289"/>
       <c r="I38" s="289"/>
       <c r="J38" s="289"/>
       <c r="K38" s="290" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="L38" s="74" t="s">
         <v>1063</v>
@@ -16031,22 +16087,22 @@
     </row>
     <row r="39" spans="1:17" s="142" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="295" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B39" s="295" t="s">
         <v>690</v>
       </c>
       <c r="C39" s="296" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D39" s="295" t="s">
         <v>1528</v>
       </c>
-      <c r="D39" s="295" t="s">
-        <v>1529</v>
-      </c>
       <c r="E39" s="295" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="F39" s="296" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G39" s="295" t="s">
         <v>1421</v>
@@ -16057,12 +16113,12 @@
       </c>
       <c r="J39" s="295"/>
       <c r="K39" s="296" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B40" s="289" t="s">
         <v>714</v>
@@ -16090,7 +16146,7 @@
       </c>
       <c r="J40" s="289"/>
       <c r="K40" s="290" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="L40" t="s">
         <v>1250</v>
@@ -16098,7 +16154,7 @@
     </row>
     <row r="41" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B41" s="289" t="s">
         <v>714</v>
@@ -16126,15 +16182,15 @@
       </c>
       <c r="J41" s="289"/>
       <c r="K41" s="290" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="L41" s="74" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B42" s="289" t="s">
         <v>714</v>
@@ -16143,10 +16199,10 @@
         <v>1470</v>
       </c>
       <c r="D42" s="289" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E42" s="289" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F42" s="290" t="s">
         <v>1471</v>
@@ -16167,7 +16223,7 @@
     </row>
     <row r="43" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="289" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B43" s="289" t="s">
         <v>714</v>
@@ -16176,10 +16232,10 @@
         <v>1472</v>
       </c>
       <c r="D43" s="289" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E43" s="289" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F43" s="290" t="s">
         <v>1473</v>
@@ -16200,22 +16256,22 @@
     </row>
     <row r="44" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="289" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B44" s="289" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C44" s="290" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D44" s="289" t="s">
         <v>1803</v>
       </c>
-      <c r="B44" s="289" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C44" s="290" t="s">
+      <c r="E44" s="289" t="s">
         <v>1805</v>
       </c>
-      <c r="D44" s="289" t="s">
+      <c r="F44" s="290" t="s">
         <v>1804</v>
-      </c>
-      <c r="E44" s="289" t="s">
-        <v>1806</v>
-      </c>
-      <c r="F44" s="290" t="s">
-        <v>1805</v>
       </c>
       <c r="G44" s="289" t="s">
         <v>1421</v>
@@ -16236,19 +16292,19 @@
     </row>
     <row r="45" spans="1:17" s="74" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="289" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B45" s="293" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C45" s="294" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D45" s="293" t="s">
         <v>1428</v>
       </c>
       <c r="E45" s="293" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="F45" s="294" t="s">
         <v>1429</v>
@@ -16264,30 +16320,30 @@
       </c>
       <c r="J45" s="293"/>
       <c r="K45" s="294" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="L45" s="74" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="289" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B46" s="289" t="s">
         <v>1273</v>
       </c>
       <c r="C46" s="290" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D46" s="289" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E46" s="289" t="s">
         <v>1807</v>
       </c>
-      <c r="E46" s="289" t="s">
-        <v>1808</v>
-      </c>
       <c r="F46" s="290" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="G46" s="289" t="s">
         <v>1421</v>
@@ -16313,7 +16369,7 @@
     </row>
     <row r="47" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="289" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B47" s="293" t="s">
         <v>1273</v>
@@ -16325,7 +16381,7 @@
         <v>1419</v>
       </c>
       <c r="E47" s="293" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F47" s="294" t="s">
         <v>1420</v>
@@ -16354,7 +16410,7 @@
     </row>
     <row r="48" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="289" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B48" s="293" t="s">
         <v>1273</v>
@@ -16366,7 +16422,7 @@
         <v>1423</v>
       </c>
       <c r="E48" s="293" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F48" s="294" t="s">
         <v>1424</v>
@@ -16395,19 +16451,19 @@
     </row>
     <row r="49" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="289" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B49" s="293" t="s">
         <v>1273</v>
       </c>
       <c r="C49" s="294" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D49" s="293" t="s">
         <v>1426</v>
       </c>
       <c r="E49" s="293" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="F49" s="294" t="s">
         <v>1427</v>
@@ -16423,10 +16479,10 @@
       </c>
       <c r="J49" s="293"/>
       <c r="K49" s="294" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="L49" s="141" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="M49" s="141"/>
       <c r="N49" s="141"/>
@@ -16436,20 +16492,20 @@
     </row>
     <row r="50" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B50" s="289"/>
       <c r="C50" s="290" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D50" s="289" t="s">
         <v>1549</v>
       </c>
-      <c r="D50" s="289" t="s">
+      <c r="E50" s="289" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F50" s="290" t="s">
         <v>1550</v>
-      </c>
-      <c r="E50" s="289" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F50" s="290" t="s">
-        <v>1551</v>
       </c>
       <c r="G50" s="289" t="s">
         <v>133</v>
@@ -16460,28 +16516,28 @@
       </c>
       <c r="J50" s="289"/>
       <c r="K50" s="290" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="L50" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B51" s="289"/>
       <c r="C51" s="290" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D51" s="289" t="s">
         <v>1552</v>
       </c>
-      <c r="D51" s="289" t="s">
+      <c r="E51" s="289" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F51" s="290" t="s">
         <v>1553</v>
-      </c>
-      <c r="E51" s="289" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F51" s="290" t="s">
-        <v>1554</v>
       </c>
       <c r="G51" s="289" t="s">
         <v>133</v>
@@ -16492,28 +16548,28 @@
       </c>
       <c r="J51" s="289"/>
       <c r="K51" s="290" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="L51" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B52" s="289"/>
       <c r="C52" s="290" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D52" s="289" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E52" s="289" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="F52" s="290" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G52" s="289" t="s">
         <v>133</v>
@@ -16526,7 +16582,7 @@
       </c>
       <c r="J52" s="289"/>
       <c r="K52" s="290" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="L52" t="s">
         <v>1128</v>
@@ -16540,20 +16596,20 @@
     </row>
     <row r="53" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B53" s="289"/>
       <c r="C53" s="290" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D53" s="289" t="s">
         <v>1566</v>
       </c>
-      <c r="D53" s="289" t="s">
+      <c r="E53" s="289" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F53" s="290" t="s">
         <v>1567</v>
-      </c>
-      <c r="E53" s="289" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F53" s="290" t="s">
-        <v>1568</v>
       </c>
       <c r="G53" s="289" t="s">
         <v>133</v>
@@ -16566,7 +16622,7 @@
       </c>
       <c r="J53" s="289"/>
       <c r="K53" s="290" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="W53" s="74">
         <v>4</v>
@@ -16577,20 +16633,20 @@
     </row>
     <row r="54" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B54" s="289"/>
       <c r="C54" s="290" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D54" s="289" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E54" s="289" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F54" s="290" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G54" s="289" t="s">
         <v>133</v>
@@ -16599,10 +16655,10 @@
       <c r="I54" s="289"/>
       <c r="J54" s="289"/>
       <c r="K54" s="290" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L54" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W54">
         <v>4</v>
@@ -16613,20 +16669,20 @@
     </row>
     <row r="55" spans="1:24" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B55" s="289"/>
       <c r="C55" s="290" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D55" s="289" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E55" s="289" t="s">
         <v>1600</v>
       </c>
-      <c r="D55" s="289" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E55" s="289" t="s">
-        <v>1601</v>
-      </c>
       <c r="F55" s="290" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G55" s="289" t="s">
         <v>133</v>
@@ -16635,10 +16691,10 @@
       <c r="I55" s="289"/>
       <c r="J55" s="289"/>
       <c r="K55" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L55" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="W55">
         <v>4</v>
@@ -16649,20 +16705,20 @@
     </row>
     <row r="56" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B56" s="289"/>
       <c r="C56" s="290" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D56" s="289" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E56" s="289" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F56" s="290" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G56" s="289" t="s">
         <v>133</v>
@@ -16671,10 +16727,10 @@
       <c r="I56" s="289"/>
       <c r="J56" s="289"/>
       <c r="K56" s="294" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L56" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W56" s="74">
         <v>4</v>
@@ -16685,20 +16741,20 @@
     </row>
     <row r="57" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B57" s="289"/>
       <c r="C57" s="290" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D57" s="289" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E57" s="289" t="s">
         <v>1603</v>
       </c>
-      <c r="D57" s="289" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E57" s="289" t="s">
-        <v>1604</v>
-      </c>
       <c r="F57" s="290" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G57" s="289" t="s">
         <v>133</v>
@@ -16707,28 +16763,28 @@
       <c r="I57" s="289"/>
       <c r="J57" s="289"/>
       <c r="K57" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L57" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B58" s="289"/>
       <c r="C58" s="290" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D58" s="289" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E58" s="289" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F58" s="290" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G58" s="289" t="s">
         <v>133</v>
@@ -16737,28 +16793,28 @@
       <c r="I58" s="289"/>
       <c r="J58" s="289"/>
       <c r="K58" s="294" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L58" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B59" s="289"/>
       <c r="C59" s="290" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D59" s="289" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E59" s="289" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F59" s="294" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G59" s="289" t="s">
         <v>133</v>
@@ -16767,28 +16823,28 @@
       <c r="I59" s="289"/>
       <c r="J59" s="289"/>
       <c r="K59" s="294" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L59" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B60" s="289"/>
       <c r="C60" s="290" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D60" s="289" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E60" s="289" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F60" s="290" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G60" s="289" t="s">
         <v>133</v>
@@ -16797,28 +16853,28 @@
       <c r="I60" s="289"/>
       <c r="J60" s="289"/>
       <c r="K60" s="294" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L60" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="61" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B61" s="289"/>
       <c r="C61" s="290" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D61" s="289" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E61" s="289" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F61" s="290" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G61" s="289" t="s">
         <v>133</v>
@@ -16827,28 +16883,28 @@
       <c r="I61" s="289"/>
       <c r="J61" s="289"/>
       <c r="K61" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L61" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B62" s="289"/>
       <c r="C62" s="290" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D62" s="289" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E62" s="289" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F62" s="290" t="s">
         <v>1670</v>
-      </c>
-      <c r="F62" s="290" t="s">
-        <v>1671</v>
       </c>
       <c r="G62" s="289" t="s">
         <v>133</v>
@@ -16857,28 +16913,28 @@
       <c r="I62" s="289"/>
       <c r="J62" s="289"/>
       <c r="K62" s="290" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="L62" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B63" s="289"/>
       <c r="C63" s="290" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D63" s="289" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E63" s="289" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F63" s="290" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G63" s="289" t="s">
         <v>133</v>
@@ -16887,28 +16943,28 @@
       <c r="I63" s="289"/>
       <c r="J63" s="289"/>
       <c r="K63" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L63" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B64" s="289"/>
       <c r="C64" s="290" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D64" s="289" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E64" s="289" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F64" s="290" t="s">
         <v>1673</v>
-      </c>
-      <c r="F64" s="290" t="s">
-        <v>1674</v>
       </c>
       <c r="G64" s="289" t="s">
         <v>133</v>
@@ -16917,28 +16973,28 @@
       <c r="I64" s="289"/>
       <c r="J64" s="289"/>
       <c r="K64" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L64" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B65" s="289"/>
       <c r="C65" s="290" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D65" s="289" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E65" s="289" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F65" s="290" t="s">
         <v>1675</v>
-      </c>
-      <c r="F65" s="290" t="s">
-        <v>1676</v>
       </c>
       <c r="G65" s="289" t="s">
         <v>133</v>
@@ -16947,28 +17003,28 @@
       <c r="I65" s="289"/>
       <c r="J65" s="289"/>
       <c r="K65" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L65" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B66" s="289"/>
       <c r="C66" s="290" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D66" s="289" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E66" s="289" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F66" s="290" t="s">
         <v>1677</v>
-      </c>
-      <c r="F66" s="290" t="s">
-        <v>1678</v>
       </c>
       <c r="G66" s="289" t="s">
         <v>133</v>
@@ -16977,28 +17033,28 @@
       <c r="I66" s="289"/>
       <c r="J66" s="289"/>
       <c r="K66" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L66" s="74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B67" s="289"/>
       <c r="C67" s="290" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D67" s="289" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E67" s="289" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F67" s="290" t="s">
         <v>1679</v>
-      </c>
-      <c r="F67" s="290" t="s">
-        <v>1680</v>
       </c>
       <c r="G67" s="289" t="s">
         <v>133</v>
@@ -17007,28 +17063,28 @@
       <c r="I67" s="289"/>
       <c r="J67" s="289"/>
       <c r="K67" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L67" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B68" s="289"/>
       <c r="C68" s="290" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D68" s="289" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E68" s="289" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F68" s="290" t="s">
         <v>1681</v>
-      </c>
-      <c r="F68" s="290" t="s">
-        <v>1682</v>
       </c>
       <c r="G68" s="289" t="s">
         <v>133</v>
@@ -17037,28 +17093,28 @@
       <c r="I68" s="289"/>
       <c r="J68" s="289"/>
       <c r="K68" s="290" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="L68" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A69" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B69" s="289"/>
       <c r="C69" s="290" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D69" s="289" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E69" s="289" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F69" s="290" t="s">
         <v>1683</v>
-      </c>
-      <c r="F69" s="290" t="s">
-        <v>1684</v>
       </c>
       <c r="G69" s="289" t="s">
         <v>133</v>
@@ -17067,28 +17123,28 @@
       <c r="I69" s="289"/>
       <c r="J69" s="289"/>
       <c r="K69" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L69" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B70" s="289"/>
       <c r="C70" s="290" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D70" s="289" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E70" s="289" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F70" s="290" t="s">
         <v>1685</v>
-      </c>
-      <c r="F70" s="290" t="s">
-        <v>1686</v>
       </c>
       <c r="G70" s="289" t="s">
         <v>133</v>
@@ -17097,28 +17153,28 @@
       <c r="I70" s="289"/>
       <c r="J70" s="289"/>
       <c r="K70" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L70" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B71" s="289"/>
       <c r="C71" s="290" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D71" s="289" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E71" s="289" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F71" s="290" t="s">
         <v>1687</v>
-      </c>
-      <c r="F71" s="290" t="s">
-        <v>1688</v>
       </c>
       <c r="G71" s="289" t="s">
         <v>133</v>
@@ -17127,28 +17183,28 @@
       <c r="I71" s="289"/>
       <c r="J71" s="289"/>
       <c r="K71" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L71" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B72" s="289"/>
       <c r="C72" s="290" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D72" s="289" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E72" s="289" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F72" s="290" t="s">
         <v>1689</v>
-      </c>
-      <c r="F72" s="290" t="s">
-        <v>1690</v>
       </c>
       <c r="G72" s="289" t="s">
         <v>133</v>
@@ -17157,28 +17213,28 @@
       <c r="I72" s="289"/>
       <c r="J72" s="289"/>
       <c r="K72" s="290" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="L72" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B73" s="289"/>
       <c r="C73" s="290" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D73" s="289" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E73" s="289" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F73" s="290" t="s">
         <v>1691</v>
-      </c>
-      <c r="F73" s="290" t="s">
-        <v>1692</v>
       </c>
       <c r="G73" s="289" t="s">
         <v>133</v>
@@ -17187,28 +17243,28 @@
       <c r="I73" s="289"/>
       <c r="J73" s="289"/>
       <c r="K73" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L73" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B74" s="289"/>
       <c r="C74" s="290" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D74" s="289" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E74" s="289" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F74" s="290" t="s">
         <v>1693</v>
-      </c>
-      <c r="F74" s="290" t="s">
-        <v>1694</v>
       </c>
       <c r="G74" s="289" t="s">
         <v>133</v>
@@ -17217,28 +17273,28 @@
       <c r="I74" s="289"/>
       <c r="J74" s="289"/>
       <c r="K74" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L74" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B75" s="289"/>
       <c r="C75" s="290" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D75" s="289" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E75" s="289" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F75" s="290" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G75" s="289" t="s">
         <v>133</v>
@@ -17247,28 +17303,28 @@
       <c r="I75" s="289"/>
       <c r="J75" s="289"/>
       <c r="K75" s="290" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L75" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="289" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B76" s="289"/>
       <c r="C76" s="290" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D76" s="289" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E76" s="289" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F76" s="290" t="s">
         <v>1696</v>
-      </c>
-      <c r="F76" s="290" t="s">
-        <v>1697</v>
       </c>
       <c r="G76" s="289" t="s">
         <v>133</v>
@@ -17277,19 +17333,19 @@
       <c r="I76" s="289"/>
       <c r="J76" s="289"/>
       <c r="K76" s="290" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B77" s="289"/>
       <c r="C77" s="290" t="s">
         <v>1479</v>
       </c>
       <c r="D77" s="289" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E77" s="289" t="s">
         <v>1509</v>
@@ -17298,7 +17354,7 @@
         <v>1510</v>
       </c>
       <c r="G77" s="289" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H77" s="289"/>
       <c r="I77" s="289">
@@ -17309,12 +17365,12 @@
         <v>1481</v>
       </c>
       <c r="L77" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B78" s="289"/>
       <c r="C78" s="290" t="s">
@@ -17327,7 +17383,7 @@
         <v>1490</v>
       </c>
       <c r="F78" s="290" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G78" s="289" t="s">
         <v>1494</v>
@@ -17336,15 +17392,15 @@
       <c r="I78" s="289"/>
       <c r="J78" s="289"/>
       <c r="K78" s="290" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="L78" s="74" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B79" s="289"/>
       <c r="C79" s="290" t="s">
@@ -17371,12 +17427,12 @@
         <v>1495</v>
       </c>
       <c r="L79" s="74" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B80" s="289"/>
       <c r="C80" s="290" t="s">
@@ -17403,25 +17459,25 @@
         <v>1495</v>
       </c>
       <c r="L80" s="74" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B81" s="289"/>
       <c r="C81" s="290" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D81" s="289" t="s">
         <v>1562</v>
       </c>
-      <c r="D81" s="289" t="s">
+      <c r="E81" s="289" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F81" s="290" t="s">
         <v>1563</v>
-      </c>
-      <c r="E81" s="289" t="s">
-        <v>1614</v>
-      </c>
-      <c r="F81" s="290" t="s">
-        <v>1564</v>
       </c>
       <c r="G81" s="289" t="s">
         <v>1494</v>
@@ -17432,7 +17488,7 @@
       </c>
       <c r="J81" s="289"/>
       <c r="K81" s="290" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="L81" s="74" t="s">
         <v>1128</v>
@@ -17440,20 +17496,20 @@
     </row>
     <row r="82" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B82" s="289"/>
       <c r="C82" s="290" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D82" s="289" t="s">
         <v>1570</v>
       </c>
-      <c r="D82" s="289" t="s">
-        <v>1571</v>
-      </c>
       <c r="E82" s="289" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="F82" s="290" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G82" s="289" t="s">
         <v>1494</v>
@@ -17462,25 +17518,25 @@
       <c r="I82" s="289"/>
       <c r="J82" s="289"/>
       <c r="K82" s="290" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B83" s="289"/>
       <c r="C83" s="290" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D83" s="289" t="s">
         <v>1572</v>
       </c>
-      <c r="D83" s="289" t="s">
-        <v>1573</v>
-      </c>
       <c r="E83" s="289" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F83" s="290" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G83" s="289" t="s">
         <v>1494</v>
@@ -17494,20 +17550,20 @@
     </row>
     <row r="84" spans="1:17" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B84" s="289"/>
       <c r="C84" s="290" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D84" s="289" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E84" s="289" t="s">
         <v>1605</v>
       </c>
-      <c r="D84" s="289" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E84" s="289" t="s">
-        <v>1606</v>
-      </c>
       <c r="F84" s="290" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G84" s="289" t="s">
         <v>1494</v>
@@ -17516,25 +17572,25 @@
       <c r="I84" s="289"/>
       <c r="J84" s="289"/>
       <c r="K84" s="290" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="74" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A85" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B85" s="289"/>
       <c r="C85" s="290" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D85" s="289" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E85" s="289" t="s">
         <v>1700</v>
       </c>
-      <c r="E85" s="289" t="s">
+      <c r="F85" s="290" t="s">
         <v>1701</v>
-      </c>
-      <c r="F85" s="290" t="s">
-        <v>1702</v>
       </c>
       <c r="G85" s="289" t="s">
         <v>1494</v>
@@ -17543,28 +17599,28 @@
       <c r="I85" s="289"/>
       <c r="J85" s="289"/>
       <c r="K85" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L85" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B86" s="289"/>
       <c r="C86" s="290" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D86" s="289" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E86" s="289" t="s">
         <v>1703</v>
       </c>
-      <c r="E86" s="289" t="s">
-        <v>1704</v>
-      </c>
       <c r="F86" s="290" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G86" s="289" t="s">
         <v>1494</v>
@@ -17573,28 +17629,28 @@
       <c r="I86" s="289"/>
       <c r="J86" s="289"/>
       <c r="K86" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L86" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B87" s="289"/>
       <c r="C87" s="290" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D87" s="289" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E87" s="289" t="s">
         <v>1705</v>
       </c>
-      <c r="E87" s="289" t="s">
+      <c r="F87" s="290" t="s">
         <v>1706</v>
-      </c>
-      <c r="F87" s="290" t="s">
-        <v>1707</v>
       </c>
       <c r="G87" s="289" t="s">
         <v>1494</v>
@@ -17603,28 +17659,28 @@
       <c r="I87" s="289"/>
       <c r="J87" s="289"/>
       <c r="K87" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L87" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B88" s="289"/>
       <c r="C88" s="290" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D88" s="289" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E88" s="289" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F88" s="290" t="s">
         <v>1710</v>
-      </c>
-      <c r="D88" s="289" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E88" s="289" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F88" s="290" t="s">
-        <v>1711</v>
       </c>
       <c r="G88" s="289" t="s">
         <v>1494</v>
@@ -17633,28 +17689,28 @@
       <c r="I88" s="289"/>
       <c r="J88" s="289"/>
       <c r="K88" s="290" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="L88" s="74" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B89" s="289"/>
       <c r="C89" s="290" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D89" s="289" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E89" s="289" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F89" s="290" t="s">
         <v>1714</v>
-      </c>
-      <c r="D89" s="289" t="s">
-        <v>1712</v>
-      </c>
-      <c r="E89" s="289" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F89" s="290" t="s">
-        <v>1715</v>
       </c>
       <c r="G89" s="289" t="s">
         <v>1494</v>
@@ -17663,263 +17719,263 @@
       <c r="I89" s="289"/>
       <c r="J89" s="289"/>
       <c r="K89" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L89" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B90" s="289"/>
       <c r="C90" s="290" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D90" s="289" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E90" s="289" t="s">
         <v>1716</v>
       </c>
-      <c r="E90" s="289" t="s">
+      <c r="F90" s="290" t="s">
         <v>1717</v>
-      </c>
-      <c r="F90" s="290" t="s">
-        <v>1718</v>
       </c>
       <c r="G90" s="289"/>
       <c r="H90" s="289"/>
       <c r="I90" s="289"/>
       <c r="J90" s="289"/>
       <c r="K90" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L90" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="Q90" s="276"/>
     </row>
     <row r="91" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B91" s="289"/>
       <c r="C91" s="290" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D91" s="289" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E91" s="289" t="s">
         <v>1719</v>
       </c>
-      <c r="E91" s="289" t="s">
+      <c r="F91" s="290" t="s">
         <v>1720</v>
-      </c>
-      <c r="F91" s="290" t="s">
-        <v>1721</v>
       </c>
       <c r="G91" s="289"/>
       <c r="H91" s="289"/>
       <c r="I91" s="289"/>
       <c r="J91" s="289"/>
       <c r="K91" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L91" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="92" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="295" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B92" s="295"/>
       <c r="C92" s="296" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D92" s="295" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E92" s="295" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F92" s="296" t="s">
         <v>1726</v>
-      </c>
-      <c r="E92" s="295" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F92" s="296" t="s">
-        <v>1727</v>
       </c>
       <c r="G92" s="295"/>
       <c r="H92" s="295"/>
       <c r="I92" s="295"/>
       <c r="J92" s="295"/>
       <c r="K92" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L92" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B93" s="289"/>
       <c r="C93" s="290" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D93" s="289" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E93" s="289" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F93" s="290" t="s">
         <v>1730</v>
-      </c>
-      <c r="D93" s="289" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E93" s="289" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F93" s="290" t="s">
-        <v>1731</v>
       </c>
       <c r="G93" s="289"/>
       <c r="H93" s="289"/>
       <c r="I93" s="289"/>
       <c r="J93" s="289"/>
       <c r="K93" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L93" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="94" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B94" s="289"/>
       <c r="C94" s="290" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D94" s="289" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E94" s="289" t="s">
         <v>1732</v>
       </c>
-      <c r="E94" s="289" t="s">
+      <c r="F94" s="290" t="s">
         <v>1733</v>
-      </c>
-      <c r="F94" s="290" t="s">
-        <v>1734</v>
       </c>
       <c r="G94" s="289"/>
       <c r="H94" s="289"/>
       <c r="I94" s="289"/>
       <c r="J94" s="289"/>
       <c r="K94" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L94" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B95" s="289"/>
       <c r="C95" s="290" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D95" s="289" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E95" s="289" t="s">
         <v>1735</v>
       </c>
-      <c r="E95" s="289" t="s">
+      <c r="F95" s="290" t="s">
         <v>1736</v>
-      </c>
-      <c r="F95" s="290" t="s">
-        <v>1737</v>
       </c>
       <c r="G95" s="289"/>
       <c r="H95" s="289"/>
       <c r="I95" s="289"/>
       <c r="J95" s="289"/>
       <c r="K95" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L95" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="96" spans="1:17" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B96" s="289"/>
       <c r="C96" s="290" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D96" s="289" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E96" s="289" t="s">
         <v>1738</v>
       </c>
-      <c r="E96" s="289" t="s">
+      <c r="F96" s="290" t="s">
         <v>1739</v>
-      </c>
-      <c r="F96" s="290" t="s">
-        <v>1740</v>
       </c>
       <c r="G96" s="289"/>
       <c r="H96" s="289"/>
       <c r="I96" s="289"/>
       <c r="J96" s="289"/>
       <c r="K96" s="290" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L96" s="74" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="97" spans="1:24" s="74" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B97" s="289"/>
       <c r="C97" s="290" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D97" s="289" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E97" s="289" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F97" s="290" t="s">
         <v>1724</v>
-      </c>
-      <c r="D97" s="289" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E97" s="289" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F97" s="290" t="s">
-        <v>1725</v>
       </c>
       <c r="G97" s="289"/>
       <c r="H97" s="289"/>
       <c r="I97" s="289"/>
       <c r="J97" s="289"/>
       <c r="K97" s="327" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L97" s="74" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="98" spans="1:24" s="142" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="289" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B98" s="289"/>
       <c r="C98" s="290" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D98" s="289" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E98" s="289" t="s">
         <v>1741</v>
       </c>
-      <c r="E98" s="289" t="s">
+      <c r="F98" s="290" t="s">
         <v>1742</v>
-      </c>
-      <c r="F98" s="290" t="s">
-        <v>1743</v>
       </c>
       <c r="G98" s="289"/>
       <c r="H98" s="289"/>
       <c r="I98" s="289"/>
       <c r="J98" s="289"/>
       <c r="K98" s="290" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="L98" s="290" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="M98" s="74"/>
       <c r="N98" s="74"/>
@@ -17945,16 +18001,16 @@
         <v>1508</v>
       </c>
       <c r="D99" s="289" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E99" s="289" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F99" s="290" t="s">
         <v>1510</v>
       </c>
       <c r="G99" s="289" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H99" s="289">
         <v>2011</v>
@@ -17978,16 +18034,16 @@
         <v>1502</v>
       </c>
       <c r="C100" s="290" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="D100" s="289" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E100" s="289" t="s">
         <v>1810</v>
       </c>
-      <c r="E100" s="289" t="s">
+      <c r="F100" s="290" t="s">
         <v>1811</v>
-      </c>
-      <c r="F100" s="290" t="s">
-        <v>1812</v>
       </c>
       <c r="G100" s="289" t="s">
         <v>1421</v>
@@ -17996,10 +18052,10 @@
       <c r="I100" s="289"/>
       <c r="J100" s="289"/>
       <c r="K100" s="290" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="L100" s="74" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="101" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -18010,16 +18066,16 @@
         <v>1502</v>
       </c>
       <c r="C101" s="290" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="D101" s="289" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E101" s="289" t="s">
         <v>1814</v>
       </c>
-      <c r="E101" s="289" t="s">
+      <c r="F101" s="290" t="s">
         <v>1815</v>
-      </c>
-      <c r="F101" s="290" t="s">
-        <v>1816</v>
       </c>
       <c r="G101" s="289" t="s">
         <v>1421</v>
@@ -18030,10 +18086,10 @@
       </c>
       <c r="J101" s="289"/>
       <c r="K101" s="290" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="L101" s="74" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="102" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -18044,30 +18100,30 @@
         <v>1502</v>
       </c>
       <c r="C102" s="290" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D102" s="289" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E102" s="289" t="s">
         <v>1817</v>
       </c>
-      <c r="E102" s="289" t="s">
-        <v>1818</v>
-      </c>
       <c r="F102" s="290" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="G102" s="289" t="s">
         <v>1421</v>
       </c>
       <c r="H102" s="289"/>
       <c r="I102" s="289" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="J102" s="289"/>
       <c r="K102" s="290" t="s">
         <v>1460</v>
       </c>
       <c r="L102" s="74" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="103" spans="1:24" s="74" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -18075,29 +18131,29 @@
         <v>1487</v>
       </c>
       <c r="B103" s="289" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C103" s="290" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="D103" s="289" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="E103" s="289" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="F103" s="511" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="G103" s="289"/>
       <c r="H103" s="289"/>
       <c r="I103" s="289"/>
       <c r="J103" s="289"/>
       <c r="K103" s="75" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="L103" s="512" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="48" x14ac:dyDescent="0.2">
@@ -18115,10 +18171,10 @@
         <v>1120</v>
       </c>
       <c r="F104" s="290" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="G104" s="289" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H104" s="289">
         <v>2011</v>
@@ -18131,7 +18187,7 @@
         <v>1460</v>
       </c>
       <c r="L104" s="74" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
@@ -18146,7 +18202,7 @@
         <v>1457</v>
       </c>
       <c r="E105" s="289" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F105" s="290" t="s">
         <v>1458</v>
@@ -18165,7 +18221,7 @@
         <v>42</v>
       </c>
       <c r="L105" s="74" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="M105" s="74"/>
       <c r="N105" s="74"/>
@@ -18185,10 +18241,10 @@
         <v>1456</v>
       </c>
       <c r="E106" s="289" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F106" s="290" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G106" s="289" t="s">
         <v>1421</v>
@@ -18204,7 +18260,7 @@
         <v>1459</v>
       </c>
       <c r="L106" s="74" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="M106" s="74"/>
       <c r="N106" s="74"/>
@@ -18221,13 +18277,13 @@
         <v>1121</v>
       </c>
       <c r="D107" s="289" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E107" s="289" t="s">
         <v>1122</v>
       </c>
       <c r="F107" s="290" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G107" s="289"/>
       <c r="H107" s="289">
@@ -18432,13 +18488,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B18" t="s">
         <v>1514</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1515</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="80" x14ac:dyDescent="0.2">
@@ -18446,10 +18502,10 @@
         <v>1337</v>
       </c>
       <c r="B19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C19" s="252" t="s">
         <v>1519</v>
-      </c>
-      <c r="C19" s="252" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -19215,7 +19271,7 @@
         <v>532</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19242,7 +19298,7 @@
       <c r="K31" s="398"/>
       <c r="L31" s="398"/>
       <c r="M31" s="75" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19269,7 +19325,7 @@
       <c r="K32" s="398"/>
       <c r="L32" s="398"/>
       <c r="M32" s="75" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19947,7 +20003,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="453" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -19963,7 +20019,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="408" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19979,7 +20035,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="471" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19999,7 +20055,7 @@
         <v>172</v>
       </c>
       <c r="B14" s="453" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20015,7 +20071,7 @@
         <v>171</v>
       </c>
       <c r="B17" s="436" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20035,7 +20091,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="323" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20043,7 +20099,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="408" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20083,7 +20139,7 @@
         <v>860</v>
       </c>
       <c r="B30" s="475" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -20239,7 +20295,7 @@
         <v>98</v>
       </c>
       <c r="H5" s="281" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -20257,7 +20313,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="347" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -20491,7 +20547,7 @@
         <v>170</v>
       </c>
       <c r="H18" s="343" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -20603,7 +20659,7 @@
         <v>263</v>
       </c>
       <c r="H24" s="280" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -20701,7 +20757,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="362" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -21079,10 +21135,10 @@
         <v>806</v>
       </c>
       <c r="D2" s="496" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E2" s="302" t="s">
         <v>1847</v>
-      </c>
-      <c r="E2" s="302" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21095,7 +21151,7 @@
       </c>
       <c r="D3" s="496"/>
       <c r="E3" s="497" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21115,13 +21171,13 @@
         <v>432</v>
       </c>
       <c r="C5" s="301" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D5" s="303" t="s">
         <v>1850</v>
       </c>
-      <c r="D5" s="303" t="s">
+      <c r="E5" s="304" t="s">
         <v>1851</v>
-      </c>
-      <c r="E5" s="304" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21133,7 +21189,7 @@
         <v>851</v>
       </c>
       <c r="D6" s="303" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E6" s="304"/>
     </row>
@@ -21146,7 +21202,7 @@
         <v>852</v>
       </c>
       <c r="D7" s="303" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E7" s="305"/>
     </row>
@@ -21156,10 +21212,10 @@
         <v>167</v>
       </c>
       <c r="C8" s="301" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D8" s="303" t="s">
         <v>1855</v>
-      </c>
-      <c r="D8" s="303" t="s">
-        <v>1856</v>
       </c>
       <c r="E8" s="305"/>
     </row>
@@ -21174,10 +21230,10 @@
         <v>39</v>
       </c>
       <c r="D9" s="307" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E9" s="308" t="s">
         <v>1857</v>
-      </c>
-      <c r="E9" s="308" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -21189,10 +21245,10 @@
         <v>813</v>
       </c>
       <c r="D10" s="307" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E10" s="309" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21206,10 +21262,10 @@
         <v>849</v>
       </c>
       <c r="D11" s="311" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E11" s="312" t="s">
         <v>1860</v>
-      </c>
-      <c r="E11" s="312" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21221,23 +21277,23 @@
         <v>0</v>
       </c>
       <c r="D12" s="311" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E12" s="313" t="s">
         <v>1862</v>
-      </c>
-      <c r="E12" s="313" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="499"/>
       <c r="B13" s="500"/>
       <c r="C13" s="310" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D13" s="311" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="313" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21249,7 +21305,7 @@
         <v>814</v>
       </c>
       <c r="D14" s="311" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E14" s="314"/>
     </row>
@@ -21259,7 +21315,7 @@
         <v>1395</v>
       </c>
       <c r="C15" s="310" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D15" s="311" t="s">
         <v>875</v>
@@ -21293,7 +21349,7 @@
         <v>884</v>
       </c>
       <c r="E17" s="317" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="52" x14ac:dyDescent="0.2">
@@ -21302,13 +21358,13 @@
         <v>787</v>
       </c>
       <c r="C18" s="315" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D18" s="316" t="s">
         <v>1869</v>
       </c>
-      <c r="D18" s="316" t="s">
+      <c r="E18" s="318" t="s">
         <v>1870</v>
-      </c>
-      <c r="E18" s="318" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
@@ -21320,7 +21376,7 @@
         <v>856</v>
       </c>
       <c r="D19" s="316" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E19" s="319"/>
     </row>
@@ -21349,13 +21405,13 @@
         <v>465</v>
       </c>
       <c r="C21" s="310" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D21" s="311" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E21" s="502" t="s">
         <v>1873</v>
-      </c>
-      <c r="D21" s="311" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E21" s="502" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -21377,7 +21433,7 @@
         <v>462</v>
       </c>
       <c r="C23" s="310" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D23" s="311" t="s">
         <v>862</v>
@@ -21390,13 +21446,13 @@
         <v>285</v>
       </c>
       <c r="C24" s="310" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D24" s="311" t="s">
         <v>1876</v>
       </c>
-      <c r="D24" s="311" t="s">
+      <c r="E24" s="313" t="s">
         <v>1877</v>
-      </c>
-      <c r="E24" s="313" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -21405,13 +21461,13 @@
         <v>286</v>
       </c>
       <c r="C25" s="310" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D25" s="311" t="s">
         <v>1879</v>
       </c>
-      <c r="D25" s="311" t="s">
+      <c r="E25" s="313" t="s">
         <v>1880</v>
-      </c>
-      <c r="E25" s="313" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="65" x14ac:dyDescent="0.2">
@@ -21423,10 +21479,10 @@
         <v>857</v>
       </c>
       <c r="D26" s="311" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E26" s="313" t="s">
         <v>1882</v>
-      </c>
-      <c r="E26" s="313" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -21435,10 +21491,10 @@
         <v>882</v>
       </c>
       <c r="C27" s="310" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D27" s="311" t="s">
         <v>1884</v>
-      </c>
-      <c r="D27" s="311" t="s">
-        <v>1885</v>
       </c>
       <c r="E27" s="314"/>
     </row>
@@ -21448,10 +21504,10 @@
         <v>787</v>
       </c>
       <c r="C28" s="310" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D28" s="311" t="s">
         <v>1886</v>
-      </c>
-      <c r="D28" s="311" t="s">
-        <v>1887</v>
       </c>
       <c r="E28" s="314"/>
     </row>
@@ -21464,7 +21520,7 @@
         <v>777</v>
       </c>
       <c r="D29" s="311" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E29" s="314"/>
     </row>
@@ -21477,18 +21533,18 @@
         <v>778</v>
       </c>
       <c r="D30" s="311" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E30" s="314"/>
     </row>
     <row r="31" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="499"/>
       <c r="B31" s="310" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C31" s="310"/>
       <c r="D31" s="311" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E31" s="314"/>
     </row>
@@ -21500,13 +21556,13 @@
         <v>546</v>
       </c>
       <c r="C32" s="504" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D32" s="505" t="s">
         <v>1333</v>
       </c>
       <c r="E32" s="317" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21515,7 +21571,7 @@
       <c r="C33" s="504"/>
       <c r="D33" s="505"/>
       <c r="E33" s="318" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21527,10 +21583,10 @@
         <v>173</v>
       </c>
       <c r="D34" s="316" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E34" s="318" t="s">
         <v>1895</v>
-      </c>
-      <c r="E34" s="318" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -21539,13 +21595,13 @@
         <v>547</v>
       </c>
       <c r="C35" s="315" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D35" s="316" t="s">
         <v>830</v>
       </c>
       <c r="E35" s="318" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -21579,7 +21635,7 @@
         <v>877</v>
       </c>
       <c r="E37" s="312" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -21588,7 +21644,7 @@
       <c r="C38" s="500"/>
       <c r="D38" s="506"/>
       <c r="E38" s="313" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -21597,7 +21653,7 @@
       <c r="C39" s="500"/>
       <c r="D39" s="506"/>
       <c r="E39" s="313" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -21606,7 +21662,7 @@
       <c r="C40" s="500"/>
       <c r="D40" s="506"/>
       <c r="E40" s="313" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -21615,7 +21671,7 @@
       <c r="C41" s="500"/>
       <c r="D41" s="506"/>
       <c r="E41" s="313" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -21624,7 +21680,7 @@
       <c r="C42" s="500"/>
       <c r="D42" s="506"/>
       <c r="E42" s="313" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21633,7 +21689,7 @@
         <v>515</v>
       </c>
       <c r="C43" s="310" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D43" s="311" t="s">
         <v>877</v>
@@ -21649,10 +21705,10 @@
         <v>678</v>
       </c>
       <c r="D44" s="311" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E44" s="312" t="s">
         <v>1906</v>
-      </c>
-      <c r="E44" s="312" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21661,13 +21717,13 @@
         <v>509</v>
       </c>
       <c r="C45" s="310" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D45" s="311" t="s">
         <v>1908</v>
       </c>
-      <c r="D45" s="311" t="s">
+      <c r="E45" s="313" t="s">
         <v>1909</v>
-      </c>
-      <c r="E45" s="313" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21676,13 +21732,13 @@
         <v>839</v>
       </c>
       <c r="C46" s="310" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D46" s="311" t="s">
         <v>1911</v>
       </c>
-      <c r="D46" s="311" t="s">
+      <c r="E46" s="313" t="s">
         <v>1912</v>
-      </c>
-      <c r="E46" s="313" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21696,10 +21752,10 @@
         <v>805</v>
       </c>
       <c r="D47" s="316" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E47" s="317" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -21714,7 +21770,7 @@
         <v>874</v>
       </c>
       <c r="E48" s="318" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -21723,7 +21779,7 @@
       <c r="C49" s="504"/>
       <c r="D49" s="505"/>
       <c r="E49" s="318" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -21732,7 +21788,7 @@
       <c r="C50" s="504"/>
       <c r="D50" s="505"/>
       <c r="E50" s="318" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21741,13 +21797,13 @@
         <v>502</v>
       </c>
       <c r="C51" s="315" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D51" s="316" t="s">
         <v>1918</v>
       </c>
-      <c r="D51" s="316" t="s">
+      <c r="E51" s="318" t="s">
         <v>1919</v>
-      </c>
-      <c r="E51" s="318" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21764,13 +21820,13 @@
         <v>836</v>
       </c>
       <c r="E52" s="312" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A53" s="507"/>
       <c r="B53" s="310" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C53" s="310" t="s">
         <v>847</v>
@@ -21779,7 +21835,7 @@
         <v>837</v>
       </c>
       <c r="E53" s="313" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21794,7 +21850,7 @@
         <v>837</v>
       </c>
       <c r="E54" s="313" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="39" x14ac:dyDescent="0.2">
@@ -21818,26 +21874,26 @@
         <v>845</v>
       </c>
       <c r="C56" s="315" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D56" s="316" t="s">
         <v>878</v>
       </c>
       <c r="E56" s="317" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="501"/>
       <c r="B57" s="504"/>
       <c r="C57" s="315" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D57" s="316" t="s">
         <v>875</v>
       </c>
       <c r="E57" s="318" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26" x14ac:dyDescent="0.2">
@@ -21846,13 +21902,13 @@
         <v>834</v>
       </c>
       <c r="C58" s="315" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D58" s="316" t="s">
         <v>875</v>
       </c>
       <c r="E58" s="318" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
   </sheetData>
@@ -21906,16 +21962,16 @@
         <v>731</v>
       </c>
       <c r="C1" s="508" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D1" s="295" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E1" s="295" t="s">
         <v>1823</v>
       </c>
-      <c r="E1" s="295" t="s">
+      <c r="F1" s="296" t="s">
         <v>1824</v>
-      </c>
-      <c r="F1" s="296" t="s">
-        <v>1825</v>
       </c>
       <c r="G1" s="295"/>
       <c r="H1" s="295"/>
@@ -21924,13 +21980,13 @@
       </c>
       <c r="J1" s="295"/>
       <c r="K1" s="296" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="L1" s="142" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="M1" s="142" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="142" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -21941,16 +21997,16 @@
         <v>731</v>
       </c>
       <c r="C2" s="508" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D2" s="295" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E2" s="295" t="s">
         <v>1826</v>
       </c>
-      <c r="E2" s="295" t="s">
+      <c r="F2" s="296" t="s">
         <v>1827</v>
-      </c>
-      <c r="F2" s="296" t="s">
-        <v>1828</v>
       </c>
       <c r="G2" s="295"/>
       <c r="H2" s="509">
@@ -21961,7 +22017,7 @@
       </c>
       <c r="J2" s="295"/>
       <c r="K2" s="508" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="L2" s="142" t="s">
         <v>1128</v>
@@ -21975,26 +22031,26 @@
         <v>731</v>
       </c>
       <c r="C3" s="508" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D3" s="295" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E3" s="295"/>
       <c r="F3" s="296" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G3" s="295"/>
       <c r="H3" s="509"/>
       <c r="I3" s="509"/>
       <c r="J3" s="295" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="K3" s="508" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L3" s="142" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="142" customFormat="1" x14ac:dyDescent="0.2">
@@ -22005,16 +22061,16 @@
         <v>731</v>
       </c>
       <c r="C4" s="508" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D4" s="295" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E4" s="295" t="s">
         <v>1829</v>
       </c>
-      <c r="E4" s="295" t="s">
-        <v>1830</v>
-      </c>
       <c r="F4" s="296" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G4" s="295" t="s">
         <v>1421</v>
@@ -25357,7 +25413,7 @@
         <v>501</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G33" s="121" t="s">
         <v>86</v>
@@ -28219,7 +28275,7 @@
         <v>1185</v>
       </c>
       <c r="I45" s="215" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J45" s="215"/>
       <c r="K45" s="215"/>
@@ -28498,10 +28554,10 @@
     </row>
     <row r="59" spans="1:27" s="189" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="E59" s="189" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G59" s="209" t="s">
         <v>1747</v>
-      </c>
-      <c r="G59" s="209" t="s">
-        <v>1748</v>
       </c>
       <c r="H59" s="209"/>
       <c r="I59" s="210"/>
@@ -47064,7 +47120,7 @@
         <v>532</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -47091,7 +47147,7 @@
       <c r="K31" s="398"/>
       <c r="L31" s="398"/>
       <c r="M31" s="75" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -47118,7 +47174,7 @@
       <c r="K32" s="398"/>
       <c r="L32" s="398"/>
       <c r="M32" s="75" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35660" yWindow="-1480" windowWidth="32640" windowHeight="17460" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="2138">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9483,6 +9483,36 @@
   </si>
   <si>
     <t>Information Technology &amp; Innovation Foundation</t>
+  </si>
+  <si>
+    <t>11/14/17-12/5/17</t>
+  </si>
+  <si>
+    <t>website updates, all data layers displayed on web and all goal descriptions from using Data_layers file in prep folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presented WH OHI at the NOAA IEA workshop </t>
+  </si>
+  <si>
+    <t>12/18/17</t>
+  </si>
+  <si>
+    <t>met with Joey Lecky to review and update pressure layers used in both the MHI and WH OHI</t>
+  </si>
+  <si>
+    <t>12/21/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated marine debris pressure using Moy et al 2017 table 3. reference is the % county # of marine debris counts to the state counts. Niihoa is the highest - so rgn_4 is the highest </t>
+  </si>
+  <si>
+    <t>pressures</t>
+  </si>
+  <si>
+    <t>tourism - calculated from HTA visitor participation surveys and multipled by the number of visitors (2015) by county to get # of participants per ocean activity and referenced to the regional maximum per activity; (Oahu in all cases); added each activiity as separate tourism pressure layer</t>
+  </si>
+  <si>
+    <t>added all the t_ pressure layers to the pressures matrix, categories, and layers.csv</t>
   </si>
 </sst>
 </file>
@@ -13531,10 +13561,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14987,6 +15017,63 @@
       </c>
       <c r="C131" s="28" t="s">
         <v>1957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="140">
+        <v>42898</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>2137</v>
       </c>
     </row>
   </sheetData>
@@ -15006,7 +15093,7 @@
   </sheetPr>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35900" yWindow="2320" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-33780" yWindow="160" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -13628,7 +13628,7 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33940" yWindow="-1240" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31280" yWindow="-920" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="2186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="2189">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9657,6 +9657,15 @@
   </si>
   <si>
     <t>updating economic indicator - changing revenue to visitor spending</t>
+  </si>
+  <si>
+    <t>sent email to Joey Lecky to ask for updated beach/intertidal health layer - % of impervious surfaces &amp; shorline armoring within 200 or 300 meters from shoreline</t>
+  </si>
+  <si>
+    <t>removed reef fish from fisheries goal and changed name to offshore fisheries</t>
+  </si>
+  <si>
+    <t>removed access from AO and changed name to nearshore fisheries</t>
   </si>
 </sst>
 </file>
@@ -13724,10 +13733,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15310,7 +15319,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="32">
+    <row r="145" spans="1:5" ht="32">
       <c r="A145" s="140">
         <v>43283</v>
       </c>
@@ -15321,7 +15330,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="32">
+    <row r="146" spans="1:5" ht="32">
       <c r="A146" s="140">
         <v>43314</v>
       </c>
@@ -15332,7 +15341,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>2160</v>
       </c>
@@ -15343,7 +15352,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="74" customFormat="1">
+    <row r="148" spans="1:5" s="74" customFormat="1">
       <c r="A148" s="74" t="s">
         <v>2165</v>
       </c>
@@ -15354,7 +15363,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="32">
+    <row r="149" spans="1:5" ht="32">
       <c r="A149" t="s">
         <v>2163</v>
       </c>
@@ -15365,7 +15374,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="32">
+    <row r="150" spans="1:5" ht="32">
       <c r="A150" t="s">
         <v>2167</v>
       </c>
@@ -15376,7 +15385,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="48">
+    <row r="151" spans="1:5" ht="48">
       <c r="A151" t="s">
         <v>2163</v>
       </c>
@@ -15386,8 +15395,12 @@
       <c r="C151" s="28" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="E151">
+        <f>64/7</f>
+        <v>9.1428571428571423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>2171</v>
       </c>
@@ -15397,8 +15410,12 @@
       <c r="C152" s="28" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="64">
+      <c r="E152">
+        <f>150/7</f>
+        <v>21.428571428571427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="64">
       <c r="A153" t="s">
         <v>2174</v>
       </c>
@@ -15409,7 +15426,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="32">
+    <row r="154" spans="1:5" ht="32">
       <c r="A154" t="s">
         <v>2176</v>
       </c>
@@ -15420,7 +15437,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>2176</v>
       </c>
@@ -15431,7 +15448,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="32">
+    <row r="156" spans="1:5" ht="32">
       <c r="A156" s="341">
         <v>43284</v>
       </c>
@@ -15442,7 +15459,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:5">
       <c r="A157" s="140">
         <v>43296</v>
       </c>
@@ -15453,7 +15470,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:5">
       <c r="A158" s="140">
         <v>43296</v>
       </c>
@@ -15464,7 +15481,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:5">
       <c r="A159" s="140">
         <v>43297</v>
       </c>
@@ -15473,6 +15490,39 @@
       </c>
       <c r="C159" s="28" t="s">
         <v>2185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="32">
+      <c r="A160" s="140">
+        <v>43300</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="140">
+        <v>43300</v>
+      </c>
+      <c r="B161" t="s">
+        <v>690</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="140">
+        <v>43300</v>
+      </c>
+      <c r="B162" t="s">
+        <v>720</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>2188</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="2190">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9666,6 +9666,9 @@
   </si>
   <si>
     <t>removed access from AO and changed name to nearshore fisheries</t>
+  </si>
+  <si>
+    <t>updated fish_sus_updated_mhi2017 with new bottomfish stock assessment scores, used linear regression for past ten years of data to predict 2016 b/bmsy score</t>
   </si>
 </sst>
 </file>
@@ -13733,10 +13736,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15523,6 +15526,17 @@
       </c>
       <c r="C162" s="28" t="s">
         <v>2188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="32">
+      <c r="A163" s="140">
+        <v>43300</v>
+      </c>
+      <c r="B163" t="s">
+        <v>690</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>2189</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="2190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="2191">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9669,6 +9669,9 @@
   </si>
   <si>
     <t>updated fish_sus_updated_mhi2017 with new bottomfish stock assessment scores, used linear regression for past ten years of data to predict 2016 b/bmsy score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on access layer - is it a pressure or resilience layer or part of nearshore fisheries indicator </t>
   </si>
 </sst>
 </file>
@@ -13736,10 +13739,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15537,6 +15540,17 @@
       </c>
       <c r="C163" s="28" t="s">
         <v>2189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="140">
+        <v>43300</v>
+      </c>
+      <c r="B164" t="s">
+        <v>690</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>2190</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31280" yWindow="-920" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="540" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4444" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="2194">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9672,6 +9672,15 @@
   </si>
   <si>
     <t xml:space="preserve">working on access layer - is it a pressure or resilience layer or part of nearshore fisheries indicator </t>
+  </si>
+  <si>
+    <t>DAR/ 30 by 30 integration and messaging meeting with Anne Chung, Kim Hum, Kristen Maize, Mary Donovan - working to integrate indicators and have consistent messaging. Removing the SP goal and putting recreation back in to the index</t>
+  </si>
+  <si>
+    <t>beach - metrics being developed in terms of % of coastline that is armored or developed with Joey lecky to be able to update in the future</t>
+  </si>
+  <si>
+    <t>meeting with HIMARC and 30 by 30. Indicator development - will follow up with DAR on OHI integration and messaging</t>
   </si>
 </sst>
 </file>
@@ -13739,10 +13748,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15551,6 +15560,30 @@
       </c>
       <c r="C164" s="28" t="s">
         <v>2190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="32">
+      <c r="A165" s="140">
+        <v>43301</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="140">
+        <v>44398</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="140">
+        <v>43302</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>2193</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="2195">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9681,6 +9681,9 @@
   </si>
   <si>
     <t>meeting with HIMARC and 30 by 30. Indicator development - will follow up with DAR on OHI integration and messaging</t>
+  </si>
+  <si>
+    <t>updated ST goal with 2016 data and added visitor spending per day to growth indicator (now an average of visitor expenditures and ddaily visitor spending)</t>
   </si>
 </sst>
 </file>
@@ -13748,10 +13751,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15584,6 +15587,14 @@
       </c>
       <c r="C167" s="28" t="s">
         <v>2193</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="32">
+      <c r="A168" s="140">
+        <v>43303</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>2194</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="480" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="2197">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9684,6 +9684,12 @@
   </si>
   <si>
     <t>updating economic indicator - adding visitor spending (indicator now an average of visitor spending and revenue)</t>
+  </si>
+  <si>
+    <t>updated resilience layers and pressure layers, removed global layers that do not make much sense for Hawaii and are not updated often</t>
+  </si>
+  <si>
+    <t>res/pres</t>
   </si>
 </sst>
 </file>
@@ -13751,10 +13757,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15595,6 +15601,17 @@
       </c>
       <c r="C168" s="28" t="s">
         <v>2193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="140">
+        <v>43181</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>2195</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="480" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="2201">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9690,6 +9690,18 @@
   </si>
   <si>
     <t>res/pres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow up meeting with DAR Anne Chung and Mary Donovan on 30 by 30 integration - identified layers that pertain to the 30 by 30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated the website with the updated goal narratives </t>
+  </si>
+  <si>
+    <t>Need to update the wetlands habitat layer to reflect a target. NO net loss and % of invasive species could be the updated metrics for wetlands</t>
+  </si>
+  <si>
+    <t>CZM meeting to integrate ORMP into the OHI  - adding resilience layers for ORMP dashboard metrics, reviewed by CZM, potentially presentation to the ORMP working group, Melanie Lander meeting with Justine to update her on the integration and talk abotu formal partnership</t>
   </si>
 </sst>
 </file>
@@ -13757,10 +13769,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15612,6 +15624,44 @@
       </c>
       <c r="C169" s="28" t="s">
         <v>2195</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="140">
+        <v>43186</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="48">
+      <c r="A171" s="140">
+        <v>43187</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="140">
+        <v>43186</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="32">
+      <c r="A173" s="140">
+        <v>43186</v>
+      </c>
+      <c r="B173" t="s">
+        <v>919</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>2199</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33760" yWindow="-580" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="2202">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9702,6 +9702,9 @@
   </si>
   <si>
     <t>CZM meeting to integrate ORMP into the OHI  - adding resilience layers for ORMP dashboard metrics, reviewed by CZM, potentially presentation to the ORMP working group, Melanie Lander meeting with Justine to update her on the integration and talk abotu formal partnership</t>
+  </si>
+  <si>
+    <t>created a new alternative layer on cp_hab_conidition_mhi2017 called cp_hab_condition_updated_mhi2017. We can choose which wetland data we want to use. The updated data layer uses percent of 1992 NOAA CCAP wetlands within 1 km of the shoreline. If we use this data set we can update the data every 5 years with NOAA CCAP data. The prior layer used topographic wetness analysis to estimate the percent of current wetlands to wetlands pre human contact.</t>
   </si>
 </sst>
 </file>
@@ -13769,10 +13772,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15662,6 +15665,17 @@
       </c>
       <c r="C173" s="28" t="s">
         <v>2199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="64">
+      <c r="A174" s="140">
+        <v>43192</v>
+      </c>
+      <c r="B174" t="s">
+        <v>919</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>2201</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33760" yWindow="-580" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33120" yWindow="-1380" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="2205">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9705,6 +9705,15 @@
   </si>
   <si>
     <t>created a new alternative layer on cp_hab_conidition_mhi2017 called cp_hab_condition_updated_mhi2017. We can choose which wetland data we want to use. The updated data layer uses percent of 1992 NOAA CCAP wetlands within 1 km of the shoreline. If we use this data set we can update the data every 5 years with NOAA CCAP data. The prior layer used topographic wetness analysis to estimate the percent of current wetlands to wetlands pre human contact.</t>
+  </si>
+  <si>
+    <t>wetlands alternate layer added for CP but not HAB based on NOAA CCAP 1992 extent. The change in resolution likely impacted the area estimates (over estimating in 1992) so the scores are going to be biased to lower values - this may be the case for Hawaii Island were the wetland cover is so low.</t>
+  </si>
+  <si>
+    <t>MAR/CP</t>
+  </si>
+  <si>
+    <t>sent email to Nakoa and Brenda about the fishpond metrics for review and update</t>
   </si>
 </sst>
 </file>
@@ -13772,10 +13781,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -15676,6 +15685,28 @@
       </c>
       <c r="C174" s="28" t="s">
         <v>2201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="48">
+      <c r="A175" s="140">
+        <v>43192</v>
+      </c>
+      <c r="B175" t="s">
+        <v>919</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="140">
+        <v>43193</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>2204</v>
       </c>
     </row>
   </sheetData>

--- a/prep/OHI_state assessment_framework.xlsx
+++ b/prep/OHI_state assessment_framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33120" yWindow="-1380" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33840" yWindow="-2360" windowWidth="28800" windowHeight="17460" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OHI Hawaii Goals" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="2205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="2206">
   <si>
     <t>30% of marine and terrestrial areas protected</t>
   </si>
@@ -9713,7 +9713,10 @@
     <t>MAR/CP</t>
   </si>
   <si>
-    <t>sent email to Nakoa and Brenda about the fishpond metrics for review and update</t>
+    <t>sent email to Nakoa and Brenda about the fishpond metrics for review and update - updated fishpond layer data will be available by the end of the week and we will meet to discuss metric</t>
+  </si>
+  <si>
+    <t>updated offshore fisheries with new stock assessment reports and updated goal score, sent to PIRO stock assessment division for review</t>
   </si>
 </sst>
 </file>
@@ -10614,7 +10617,7 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12035,6 +12038,10 @@
     <xf numFmtId="0" fontId="65" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="84">
     <cellStyle name="Bold text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -13781,10 +13788,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -13792,6 +13799,7 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="119" style="28" customWidth="1"/>
     <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -15698,7 +15706,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="32">
       <c r="A176" s="140">
         <v>43193</v>
       </c>
@@ -15708,6 +15716,24 @@
       <c r="C176" s="28" t="s">
         <v>2204</v>
       </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="140">
+        <v>43194</v>
+      </c>
+      <c r="B177" t="s">
+        <v>690</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="D179" s="519"/>
+      <c r="E179" s="518"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="D180" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="2">
